--- a/data/final_data/full_timeseries_2.xlsx
+++ b/data/final_data/full_timeseries_2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="deceases" sheetId="1" r:id="rId1"/>
+    <sheet name="population_sarimax" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
-    <t>ΔΡΑΜΑΣ</t>
-  </si>
-  <si>
-    <t>ΚΑΒΑΛΑΣ</t>
-  </si>
-  <si>
     <t>ΕΒΡΟΥ</t>
   </si>
   <si>
@@ -29,6 +23,12 @@
   </si>
   <si>
     <t>ΡΟΔΟΠΗΣ</t>
+  </si>
+  <si>
+    <t>ΔΡΑΜΑΣ</t>
+  </si>
+  <si>
+    <t>ΚΑΒΑΛΑΣ</t>
   </si>
   <si>
     <t>ΗΜΑΘΙΑΣ</t>
@@ -139,6 +139,9 @@
     <t>ΜΕΣΣΗΝΙΑΣ</t>
   </si>
   <si>
+    <t>ΑΤΤΙΚΗ</t>
+  </si>
+  <si>
     <t>ΛΕΣΒΟΥ</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
   </si>
   <si>
     <t>ΧΑΝΙΩΝ</t>
-  </si>
-  <si>
-    <t>ΑΤΤΙΚΗ</t>
   </si>
   <si>
     <t>year</t>
@@ -533,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,4900 +699,4584 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="2">
-        <v>36891</v>
+        <v>37621</v>
       </c>
       <c r="B2">
-        <v>1080</v>
+        <v>144134</v>
       </c>
       <c r="C2">
-        <v>1419</v>
+        <v>104099</v>
       </c>
       <c r="D2">
-        <v>1617</v>
+        <v>106252</v>
       </c>
       <c r="E2">
-        <v>938</v>
+        <v>96234</v>
       </c>
       <c r="F2">
-        <v>1087</v>
+        <v>138770</v>
       </c>
       <c r="G2">
-        <v>1320</v>
+        <v>137751</v>
       </c>
       <c r="H2">
-        <v>8377</v>
+        <v>1087329</v>
       </c>
       <c r="I2">
-        <v>955</v>
+        <v>80016</v>
       </c>
       <c r="J2">
-        <v>1420</v>
+        <v>140526</v>
       </c>
       <c r="K2">
-        <v>1180</v>
+        <v>118610</v>
       </c>
       <c r="L2">
-        <v>2356</v>
+        <v>183282</v>
       </c>
       <c r="M2">
-        <v>932</v>
+        <v>104525</v>
       </c>
       <c r="N2">
-        <v>398</v>
+        <v>32091</v>
       </c>
       <c r="O2">
-        <v>479</v>
+        <v>50898</v>
       </c>
       <c r="P2">
-        <v>1349</v>
+        <v>155647</v>
       </c>
       <c r="Q2">
-        <v>613</v>
+        <v>49177</v>
       </c>
       <c r="R2">
-        <v>1532</v>
+        <v>121182</v>
       </c>
       <c r="S2">
-        <v>2619</v>
+        <v>287186</v>
       </c>
       <c r="T2">
-        <v>2073</v>
+        <v>202938</v>
       </c>
       <c r="U2">
-        <v>1518</v>
+        <v>134033</v>
       </c>
       <c r="V2">
-        <v>922</v>
+        <v>74370</v>
       </c>
       <c r="W2">
-        <v>485</v>
+        <v>42313</v>
       </c>
       <c r="X2">
-        <v>1655</v>
+        <v>167249</v>
       </c>
       <c r="Y2">
-        <v>561</v>
+        <v>58400</v>
       </c>
       <c r="Z2">
-        <v>435</v>
+        <v>39794</v>
       </c>
       <c r="AA2">
-        <v>1235</v>
+        <v>106638</v>
       </c>
       <c r="AB2">
-        <v>465</v>
+        <v>37716</v>
       </c>
       <c r="AC2">
-        <v>328</v>
+        <v>23927</v>
       </c>
       <c r="AD2">
-        <v>2421</v>
+        <v>218881</v>
       </c>
       <c r="AE2">
-        <v>2867</v>
+        <v>320180</v>
       </c>
       <c r="AF2">
-        <v>1966</v>
+        <v>167285</v>
       </c>
       <c r="AG2">
-        <v>1297</v>
+        <v>119143</v>
       </c>
       <c r="AH2">
-        <v>2137</v>
+        <v>218267</v>
       </c>
       <c r="AI2">
-        <v>257</v>
+        <v>19856</v>
       </c>
       <c r="AJ2">
-        <v>1891</v>
+        <v>163628</v>
       </c>
       <c r="AK2">
-        <v>490</v>
+        <v>41954</v>
       </c>
       <c r="AL2">
-        <v>1052</v>
+        <v>99037</v>
       </c>
       <c r="AM2">
-        <v>1329</v>
+        <v>93239</v>
       </c>
       <c r="AN2">
-        <v>1427</v>
+        <v>146790</v>
       </c>
       <c r="AO2">
-        <v>1312</v>
+        <v>89345</v>
       </c>
       <c r="AP2">
-        <v>2172</v>
+        <v>166226</v>
       </c>
       <c r="AQ2">
-        <v>1421</v>
+        <v>3894259</v>
       </c>
       <c r="AR2">
-        <v>550</v>
+        <v>103745</v>
       </c>
       <c r="AS2">
-        <v>657</v>
+        <v>42315</v>
       </c>
       <c r="AT2">
-        <v>1295</v>
+        <v>53315</v>
       </c>
       <c r="AU2">
-        <v>1073</v>
+        <v>195604</v>
       </c>
       <c r="AV2">
-        <v>2425</v>
+        <v>120274</v>
       </c>
       <c r="AW2">
-        <v>867</v>
+        <v>291398</v>
       </c>
       <c r="AX2">
-        <v>750</v>
+        <v>74934</v>
       </c>
       <c r="AY2">
-        <v>1472</v>
+        <v>78679</v>
       </c>
       <c r="AZ2">
-        <v>34086</v>
+        <v>144833</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="2">
-        <v>37256</v>
+        <v>37986</v>
       </c>
       <c r="B3">
-        <v>1172</v>
+        <v>144560</v>
       </c>
       <c r="C3">
-        <v>1552</v>
+        <v>105221</v>
       </c>
       <c r="D3">
-        <v>1568</v>
+        <v>106996</v>
       </c>
       <c r="E3">
-        <v>868</v>
+        <v>96442</v>
       </c>
       <c r="F3">
-        <v>1096</v>
+        <v>138866</v>
       </c>
       <c r="G3">
-        <v>1369</v>
+        <v>138295</v>
       </c>
       <c r="H3">
-        <v>8106</v>
+        <v>1095721</v>
       </c>
       <c r="I3">
-        <v>953</v>
+        <v>80726</v>
       </c>
       <c r="J3">
-        <v>1376</v>
+        <v>140779</v>
       </c>
       <c r="K3">
-        <v>1141</v>
+        <v>119533</v>
       </c>
       <c r="L3">
-        <v>2223</v>
+        <v>182954</v>
       </c>
       <c r="M3">
-        <v>910</v>
+        <v>104467</v>
       </c>
       <c r="N3">
-        <v>395</v>
+        <v>31761</v>
       </c>
       <c r="O3">
-        <v>508</v>
+        <v>51160</v>
       </c>
       <c r="P3">
-        <v>1363</v>
+        <v>155214</v>
       </c>
       <c r="Q3">
-        <v>552</v>
+        <v>49990</v>
       </c>
       <c r="R3">
-        <v>1543</v>
+        <v>120423</v>
       </c>
       <c r="S3">
-        <v>2572</v>
+        <v>287169</v>
       </c>
       <c r="T3">
-        <v>2017</v>
+        <v>202751</v>
       </c>
       <c r="U3">
-        <v>1583</v>
+        <v>133305</v>
       </c>
       <c r="V3">
-        <v>855</v>
+        <v>73812</v>
       </c>
       <c r="W3">
-        <v>427</v>
+        <v>42417</v>
       </c>
       <c r="X3">
-        <v>1577</v>
+        <v>167821</v>
       </c>
       <c r="Y3">
-        <v>614</v>
+        <v>58119</v>
       </c>
       <c r="Z3">
-        <v>379</v>
+        <v>39971</v>
       </c>
       <c r="AA3">
-        <v>1110</v>
+        <v>106172</v>
       </c>
       <c r="AB3">
-        <v>441</v>
+        <v>37626</v>
       </c>
       <c r="AC3">
-        <v>286</v>
+        <v>23646</v>
       </c>
       <c r="AD3">
-        <v>2251</v>
+        <v>218094</v>
       </c>
       <c r="AE3">
-        <v>2825</v>
+        <v>319173</v>
       </c>
       <c r="AF3">
-        <v>2039</v>
+        <v>165848</v>
       </c>
       <c r="AG3">
-        <v>1222</v>
+        <v>118430</v>
       </c>
       <c r="AH3">
-        <v>2231</v>
+        <v>217109</v>
       </c>
       <c r="AI3">
-        <v>235</v>
+        <v>19983</v>
       </c>
       <c r="AJ3">
-        <v>1837</v>
+        <v>162671</v>
       </c>
       <c r="AK3">
-        <v>498</v>
+        <v>40912</v>
       </c>
       <c r="AL3">
-        <v>1015</v>
+        <v>98746</v>
       </c>
       <c r="AM3">
-        <v>1327</v>
+        <v>92495</v>
       </c>
       <c r="AN3">
-        <v>1435</v>
+        <v>145936</v>
       </c>
       <c r="AO3">
-        <v>1094</v>
+        <v>88865</v>
       </c>
       <c r="AP3">
-        <v>2126</v>
+        <v>164883</v>
       </c>
       <c r="AQ3">
-        <v>1337</v>
+        <v>3916875</v>
       </c>
       <c r="AR3">
-        <v>546</v>
+        <v>103653</v>
       </c>
       <c r="AS3">
-        <v>589</v>
+        <v>42489</v>
       </c>
       <c r="AT3">
-        <v>1317</v>
+        <v>53233</v>
       </c>
       <c r="AU3">
-        <v>1023</v>
+        <v>196799</v>
       </c>
       <c r="AV3">
-        <v>2419</v>
+        <v>120516</v>
       </c>
       <c r="AW3">
-        <v>831</v>
+        <v>292471</v>
       </c>
       <c r="AX3">
-        <v>738</v>
+        <v>74988</v>
       </c>
       <c r="AY3">
-        <v>1358</v>
+        <v>79385</v>
       </c>
       <c r="AZ3">
-        <v>33079</v>
+        <v>146299</v>
       </c>
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="2">
-        <v>37621</v>
+        <v>38352</v>
       </c>
       <c r="B4">
-        <v>1101</v>
+        <v>144884</v>
       </c>
       <c r="C4">
-        <v>1588</v>
+        <v>106219</v>
       </c>
       <c r="D4">
-        <v>1581</v>
+        <v>107800</v>
       </c>
       <c r="E4">
-        <v>785</v>
+        <v>96556</v>
       </c>
       <c r="F4">
-        <v>1146</v>
+        <v>139053</v>
       </c>
       <c r="G4">
-        <v>1338</v>
+        <v>138761</v>
       </c>
       <c r="H4">
-        <v>8346</v>
+        <v>1103632</v>
       </c>
       <c r="I4">
-        <v>957</v>
+        <v>80793</v>
       </c>
       <c r="J4">
-        <v>1373</v>
+        <v>140864</v>
       </c>
       <c r="K4">
-        <v>1086</v>
+        <v>120421</v>
       </c>
       <c r="L4">
-        <v>2243</v>
+        <v>182487</v>
       </c>
       <c r="M4">
-        <v>1008</v>
+        <v>104608</v>
       </c>
       <c r="N4">
-        <v>414</v>
+        <v>31541</v>
       </c>
       <c r="O4">
-        <v>449</v>
+        <v>51231</v>
       </c>
       <c r="P4">
-        <v>1471</v>
+        <v>154746</v>
       </c>
       <c r="Q4">
-        <v>512</v>
+        <v>50282</v>
       </c>
       <c r="R4">
-        <v>1564</v>
+        <v>119438</v>
       </c>
       <c r="S4">
-        <v>2607</v>
+        <v>287314</v>
       </c>
       <c r="T4">
-        <v>2232</v>
+        <v>202984</v>
       </c>
       <c r="U4">
-        <v>1572</v>
+        <v>132838</v>
       </c>
       <c r="V4">
-        <v>920</v>
+        <v>73277</v>
       </c>
       <c r="W4">
-        <v>428</v>
+        <v>42521</v>
       </c>
       <c r="X4">
-        <v>1631</v>
+        <v>168343</v>
       </c>
       <c r="Y4">
-        <v>636</v>
+        <v>57982</v>
       </c>
       <c r="Z4">
-        <v>418</v>
+        <v>40050</v>
       </c>
       <c r="AA4">
-        <v>1346</v>
+        <v>105790</v>
       </c>
       <c r="AB4">
-        <v>431</v>
+        <v>37603</v>
       </c>
       <c r="AC4">
-        <v>287</v>
+        <v>23434</v>
       </c>
       <c r="AD4">
-        <v>2154</v>
+        <v>217203</v>
       </c>
       <c r="AE4">
-        <v>2849</v>
+        <v>318384</v>
       </c>
       <c r="AF4">
-        <v>1822</v>
+        <v>164628</v>
       </c>
       <c r="AG4">
-        <v>1286</v>
+        <v>118098</v>
       </c>
       <c r="AH4">
-        <v>2191</v>
+        <v>216263</v>
       </c>
       <c r="AI4">
-        <v>272</v>
+        <v>20083</v>
       </c>
       <c r="AJ4">
-        <v>1914</v>
+        <v>162153</v>
       </c>
       <c r="AK4">
-        <v>539</v>
+        <v>40238</v>
       </c>
       <c r="AL4">
-        <v>1011</v>
+        <v>98624</v>
       </c>
       <c r="AM4">
-        <v>1260</v>
+        <v>91676</v>
       </c>
       <c r="AN4">
-        <v>1446</v>
+        <v>145415</v>
       </c>
       <c r="AO4">
-        <v>1237</v>
+        <v>88670</v>
       </c>
       <c r="AP4">
-        <v>2054</v>
+        <v>163829</v>
       </c>
       <c r="AQ4">
-        <v>1311</v>
+        <v>3935254</v>
       </c>
       <c r="AR4">
-        <v>520</v>
+        <v>103518</v>
       </c>
       <c r="AS4">
-        <v>641</v>
+        <v>42560</v>
       </c>
       <c r="AT4">
-        <v>1336</v>
+        <v>53082</v>
       </c>
       <c r="AU4">
-        <v>1135</v>
+        <v>197927</v>
       </c>
       <c r="AV4">
-        <v>2352</v>
+        <v>120886</v>
       </c>
       <c r="AW4">
-        <v>835</v>
+        <v>293742</v>
       </c>
       <c r="AX4">
-        <v>813</v>
+        <v>74920</v>
       </c>
       <c r="AY4">
-        <v>1481</v>
+        <v>80129</v>
       </c>
       <c r="AZ4">
-        <v>33410</v>
+        <v>147635</v>
       </c>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="2">
-        <v>37986</v>
+        <v>38717</v>
       </c>
       <c r="B5">
-        <v>1139</v>
+        <v>145383</v>
       </c>
       <c r="C5">
-        <v>1484</v>
+        <v>107300</v>
       </c>
       <c r="D5">
-        <v>1689</v>
+        <v>108595</v>
       </c>
       <c r="E5">
-        <v>887</v>
+        <v>96778</v>
       </c>
       <c r="F5">
-        <v>1096</v>
+        <v>139202</v>
       </c>
       <c r="G5">
-        <v>1347</v>
+        <v>139248</v>
       </c>
       <c r="H5">
-        <v>8650</v>
+        <v>1111060</v>
       </c>
       <c r="I5">
-        <v>877</v>
+        <v>80906</v>
       </c>
       <c r="J5">
-        <v>1411</v>
+        <v>140999</v>
       </c>
       <c r="K5">
-        <v>1222</v>
+        <v>121348</v>
       </c>
       <c r="L5">
-        <v>2307</v>
+        <v>182078</v>
       </c>
       <c r="M5">
-        <v>974</v>
+        <v>104878</v>
       </c>
       <c r="N5">
-        <v>398</v>
+        <v>31468</v>
       </c>
       <c r="O5">
-        <v>516</v>
+        <v>51286</v>
       </c>
       <c r="P5">
-        <v>1490</v>
+        <v>154248</v>
       </c>
       <c r="Q5">
-        <v>550</v>
+        <v>50629</v>
       </c>
       <c r="R5">
-        <v>1532</v>
+        <v>118526</v>
       </c>
       <c r="S5">
-        <v>2485</v>
+        <v>287498</v>
       </c>
       <c r="T5">
-        <v>2043</v>
+        <v>203130</v>
       </c>
       <c r="U5">
-        <v>1582</v>
+        <v>132445</v>
       </c>
       <c r="V5">
-        <v>897</v>
+        <v>72719</v>
       </c>
       <c r="W5">
-        <v>469</v>
+        <v>42744</v>
       </c>
       <c r="X5">
-        <v>1656</v>
+        <v>169129</v>
       </c>
       <c r="Y5">
-        <v>569</v>
+        <v>57862</v>
       </c>
       <c r="Z5">
-        <v>434</v>
+        <v>40231</v>
       </c>
       <c r="AA5">
-        <v>1240</v>
+        <v>105445</v>
       </c>
       <c r="AB5">
-        <v>463</v>
+        <v>37688</v>
       </c>
       <c r="AC5">
-        <v>315</v>
+        <v>23324</v>
       </c>
       <c r="AD5">
-        <v>2392</v>
+        <v>216479</v>
       </c>
       <c r="AE5">
-        <v>2931</v>
+        <v>317933</v>
       </c>
       <c r="AF5">
-        <v>1917</v>
+        <v>163563</v>
       </c>
       <c r="AG5">
-        <v>1259</v>
+        <v>117892</v>
       </c>
       <c r="AH5">
-        <v>2296</v>
+        <v>215611</v>
       </c>
       <c r="AI5">
-        <v>238</v>
+        <v>20197</v>
       </c>
       <c r="AJ5">
-        <v>1864</v>
+        <v>161798</v>
       </c>
       <c r="AK5">
-        <v>524</v>
+        <v>39784</v>
       </c>
       <c r="AL5">
-        <v>954</v>
+        <v>98490</v>
       </c>
       <c r="AM5">
-        <v>1318</v>
+        <v>91013</v>
       </c>
       <c r="AN5">
-        <v>1491</v>
+        <v>145034</v>
       </c>
       <c r="AO5">
-        <v>1143</v>
+        <v>88700</v>
       </c>
       <c r="AP5">
-        <v>2100</v>
+        <v>163013</v>
       </c>
       <c r="AQ5">
-        <v>1313</v>
+        <v>3952793</v>
       </c>
       <c r="AR5">
-        <v>559</v>
+        <v>103648</v>
       </c>
       <c r="AS5">
-        <v>699</v>
+        <v>42578</v>
       </c>
       <c r="AT5">
-        <v>1430</v>
+        <v>52951</v>
       </c>
       <c r="AU5">
-        <v>1101</v>
+        <v>200432</v>
       </c>
       <c r="AV5">
-        <v>2439</v>
+        <v>121366</v>
       </c>
       <c r="AW5">
-        <v>907</v>
+        <v>295371</v>
       </c>
       <c r="AX5">
-        <v>793</v>
+        <v>74964</v>
       </c>
       <c r="AY5">
-        <v>1470</v>
+        <v>80979</v>
       </c>
       <c r="AZ5">
-        <v>34165</v>
+        <v>149176</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="2">
-        <v>38352</v>
+        <v>39082</v>
       </c>
       <c r="B6">
-        <v>1099</v>
+        <v>145895</v>
       </c>
       <c r="C6">
-        <v>1551</v>
+        <v>108294</v>
       </c>
       <c r="D6">
-        <v>1633</v>
+        <v>109420</v>
       </c>
       <c r="E6">
-        <v>874</v>
+        <v>97005</v>
       </c>
       <c r="F6">
-        <v>1092</v>
+        <v>139420</v>
       </c>
       <c r="G6">
-        <v>1379</v>
+        <v>139769</v>
       </c>
       <c r="H6">
-        <v>8598</v>
+        <v>1118880</v>
       </c>
       <c r="I6">
-        <v>923</v>
+        <v>80915</v>
       </c>
       <c r="J6">
-        <v>1470</v>
+        <v>141175</v>
       </c>
       <c r="K6">
-        <v>1205</v>
+        <v>122536</v>
       </c>
       <c r="L6">
-        <v>2251</v>
+        <v>181760</v>
       </c>
       <c r="M6">
-        <v>974</v>
+        <v>105209</v>
       </c>
       <c r="N6">
-        <v>356</v>
+        <v>31329</v>
       </c>
       <c r="O6">
-        <v>496</v>
+        <v>51322</v>
       </c>
       <c r="P6">
-        <v>1502</v>
+        <v>153823</v>
       </c>
       <c r="Q6">
-        <v>583</v>
+        <v>50741</v>
       </c>
       <c r="R6">
-        <v>1531</v>
+        <v>117707</v>
       </c>
       <c r="S6">
-        <v>2663</v>
+        <v>287994</v>
       </c>
       <c r="T6">
-        <v>2188</v>
+        <v>203671</v>
       </c>
       <c r="U6">
-        <v>1632</v>
+        <v>132393</v>
       </c>
       <c r="V6">
-        <v>926</v>
+        <v>72210</v>
       </c>
       <c r="W6">
-        <v>407</v>
+        <v>42946</v>
       </c>
       <c r="X6">
-        <v>1620</v>
+        <v>169940</v>
       </c>
       <c r="Y6">
-        <v>614</v>
+        <v>57820</v>
       </c>
       <c r="Z6">
-        <v>422</v>
+        <v>40392</v>
       </c>
       <c r="AA6">
-        <v>1226</v>
+        <v>105257</v>
       </c>
       <c r="AB6">
-        <v>434</v>
+        <v>37813</v>
       </c>
       <c r="AC6">
-        <v>290</v>
+        <v>23241</v>
       </c>
       <c r="AD6">
-        <v>2294</v>
+        <v>215850</v>
       </c>
       <c r="AE6">
-        <v>2928</v>
+        <v>317595</v>
       </c>
       <c r="AF6">
-        <v>1950</v>
+        <v>162606</v>
       </c>
       <c r="AG6">
-        <v>1232</v>
+        <v>117904</v>
       </c>
       <c r="AH6">
-        <v>2362</v>
+        <v>215291</v>
       </c>
       <c r="AI6">
-        <v>201</v>
+        <v>20193</v>
       </c>
       <c r="AJ6">
-        <v>1871</v>
+        <v>161718</v>
       </c>
       <c r="AK6">
-        <v>502</v>
+        <v>39553</v>
       </c>
       <c r="AL6">
-        <v>1078</v>
+        <v>98441</v>
       </c>
       <c r="AM6">
-        <v>1201</v>
+        <v>90383</v>
       </c>
       <c r="AN6">
-        <v>1514</v>
+        <v>144923</v>
       </c>
       <c r="AO6">
-        <v>1027</v>
+        <v>88892</v>
       </c>
       <c r="AP6">
-        <v>2000</v>
+        <v>162468</v>
       </c>
       <c r="AQ6">
-        <v>1313</v>
+        <v>3971441</v>
       </c>
       <c r="AR6">
-        <v>522</v>
+        <v>104073</v>
       </c>
       <c r="AS6">
-        <v>625</v>
+        <v>42378</v>
       </c>
       <c r="AT6">
-        <v>1360</v>
+        <v>52736</v>
       </c>
       <c r="AU6">
-        <v>1014</v>
+        <v>202759</v>
       </c>
       <c r="AV6">
-        <v>2362</v>
+        <v>121953</v>
       </c>
       <c r="AW6">
-        <v>854</v>
+        <v>297286</v>
       </c>
       <c r="AX6">
-        <v>745</v>
+        <v>74968</v>
       </c>
       <c r="AY6">
-        <v>1363</v>
+        <v>81774</v>
       </c>
       <c r="AZ6">
-        <v>34182</v>
+        <v>150654</v>
       </c>
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="2">
-        <v>38717</v>
+        <v>39447</v>
       </c>
       <c r="B7">
-        <v>1105</v>
+        <v>146507</v>
       </c>
       <c r="C7">
-        <v>1593</v>
+        <v>109224</v>
       </c>
       <c r="D7">
-        <v>1636</v>
+        <v>110192</v>
       </c>
       <c r="E7">
-        <v>936</v>
+        <v>97460</v>
       </c>
       <c r="F7">
-        <v>1158</v>
+        <v>139582</v>
       </c>
       <c r="G7">
-        <v>1377</v>
+        <v>140622</v>
       </c>
       <c r="H7">
-        <v>8813</v>
+        <v>1124921</v>
       </c>
       <c r="I7">
-        <v>984</v>
+        <v>80947</v>
       </c>
       <c r="J7">
-        <v>1449</v>
+        <v>141412</v>
       </c>
       <c r="K7">
-        <v>1180</v>
+        <v>123770</v>
       </c>
       <c r="L7">
-        <v>2309</v>
+        <v>181655</v>
       </c>
       <c r="M7">
-        <v>990</v>
+        <v>105915</v>
       </c>
       <c r="N7">
-        <v>407</v>
+        <v>31377</v>
       </c>
       <c r="O7">
-        <v>485</v>
+        <v>51324</v>
       </c>
       <c r="P7">
-        <v>1461</v>
+        <v>153410</v>
       </c>
       <c r="Q7">
-        <v>563</v>
+        <v>50744</v>
       </c>
       <c r="R7">
-        <v>1486</v>
+        <v>117343</v>
       </c>
       <c r="S7">
-        <v>2511</v>
+        <v>288709</v>
       </c>
       <c r="T7">
-        <v>2088</v>
+        <v>204494</v>
       </c>
       <c r="U7">
-        <v>1457</v>
+        <v>132664</v>
       </c>
       <c r="V7">
-        <v>906</v>
+        <v>71918</v>
       </c>
       <c r="W7">
-        <v>462</v>
+        <v>43217</v>
       </c>
       <c r="X7">
-        <v>1615</v>
+        <v>170693</v>
       </c>
       <c r="Y7">
-        <v>596</v>
+        <v>57958</v>
       </c>
       <c r="Z7">
-        <v>381</v>
+        <v>40599</v>
       </c>
       <c r="AA7">
-        <v>1181</v>
+        <v>105169</v>
       </c>
       <c r="AB7">
-        <v>430</v>
+        <v>38059</v>
       </c>
       <c r="AC7">
-        <v>293</v>
+        <v>23322</v>
       </c>
       <c r="AD7">
-        <v>2288</v>
+        <v>215664</v>
       </c>
       <c r="AE7">
-        <v>3021</v>
+        <v>317034</v>
       </c>
       <c r="AF7">
-        <v>2006</v>
+        <v>162203</v>
       </c>
       <c r="AG7">
-        <v>1237</v>
+        <v>118285</v>
       </c>
       <c r="AH7">
-        <v>2161</v>
+        <v>215433</v>
       </c>
       <c r="AI7">
-        <v>274</v>
+        <v>20359</v>
       </c>
       <c r="AJ7">
-        <v>1853</v>
+        <v>161422</v>
       </c>
       <c r="AK7">
-        <v>451</v>
+        <v>39650</v>
       </c>
       <c r="AL7">
-        <v>1030</v>
+        <v>98541</v>
       </c>
       <c r="AM7">
-        <v>1203</v>
+        <v>90099</v>
       </c>
       <c r="AN7">
-        <v>1459</v>
+        <v>145283</v>
       </c>
       <c r="AO7">
-        <v>1029</v>
+        <v>89171</v>
       </c>
       <c r="AP7">
-        <v>2008</v>
+        <v>162405</v>
       </c>
       <c r="AQ7">
-        <v>1237</v>
+        <v>3982602</v>
       </c>
       <c r="AR7">
-        <v>562</v>
+        <v>103991</v>
       </c>
       <c r="AS7">
-        <v>614</v>
+        <v>41959</v>
       </c>
       <c r="AT7">
-        <v>1425</v>
+        <v>52241</v>
       </c>
       <c r="AU7">
-        <v>1033</v>
+        <v>204598</v>
       </c>
       <c r="AV7">
-        <v>2365</v>
+        <v>122873</v>
       </c>
       <c r="AW7">
-        <v>873</v>
+        <v>299140</v>
       </c>
       <c r="AX7">
-        <v>827</v>
+        <v>75194</v>
       </c>
       <c r="AY7">
-        <v>1464</v>
+        <v>82666</v>
       </c>
       <c r="AZ7">
-        <v>34234</v>
+        <v>151988</v>
       </c>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="2">
-        <v>39082</v>
+        <v>39813</v>
       </c>
       <c r="B8">
-        <v>1101</v>
+        <v>147119</v>
       </c>
       <c r="C8">
-        <v>1612</v>
+        <v>110001</v>
       </c>
       <c r="D8">
-        <v>1699</v>
+        <v>110913</v>
       </c>
       <c r="E8">
-        <v>886</v>
+        <v>97696</v>
       </c>
       <c r="F8">
-        <v>1156</v>
+        <v>139682</v>
       </c>
       <c r="G8">
-        <v>1333</v>
+        <v>141289</v>
       </c>
       <c r="H8">
-        <v>8879</v>
+        <v>1128970</v>
       </c>
       <c r="I8">
-        <v>1005</v>
+        <v>80954</v>
       </c>
       <c r="J8">
-        <v>1506</v>
+        <v>141790</v>
       </c>
       <c r="K8">
-        <v>1206</v>
+        <v>124887</v>
       </c>
       <c r="L8">
-        <v>2360</v>
+        <v>181367</v>
       </c>
       <c r="M8">
-        <v>1014</v>
+        <v>106647</v>
       </c>
       <c r="N8">
-        <v>393</v>
+        <v>31394</v>
       </c>
       <c r="O8">
-        <v>500</v>
+        <v>51227</v>
       </c>
       <c r="P8">
-        <v>1506</v>
+        <v>152955</v>
       </c>
       <c r="Q8">
-        <v>525</v>
+        <v>51120</v>
       </c>
       <c r="R8">
-        <v>1439</v>
+        <v>116847</v>
       </c>
       <c r="S8">
-        <v>2575</v>
+        <v>289123</v>
       </c>
       <c r="T8">
-        <v>2006</v>
+        <v>205062</v>
       </c>
       <c r="U8">
-        <v>1553</v>
+        <v>132887</v>
       </c>
       <c r="V8">
-        <v>893</v>
+        <v>71566</v>
       </c>
       <c r="W8">
-        <v>489</v>
+        <v>43539</v>
       </c>
       <c r="X8">
-        <v>1579</v>
+        <v>171207</v>
       </c>
       <c r="Y8">
-        <v>642</v>
+        <v>58098</v>
       </c>
       <c r="Z8">
-        <v>407</v>
+        <v>40685</v>
       </c>
       <c r="AA8">
-        <v>1279</v>
+        <v>105164</v>
       </c>
       <c r="AB8">
-        <v>435</v>
+        <v>38272</v>
       </c>
       <c r="AC8">
-        <v>289</v>
+        <v>23387</v>
       </c>
       <c r="AD8">
-        <v>2319</v>
+        <v>215247</v>
       </c>
       <c r="AE8">
-        <v>3018</v>
+        <v>316409</v>
       </c>
       <c r="AF8">
-        <v>1929</v>
+        <v>161893</v>
       </c>
       <c r="AG8">
-        <v>1222</v>
+        <v>118533</v>
       </c>
       <c r="AH8">
-        <v>2220</v>
+        <v>215410</v>
       </c>
       <c r="AI8">
-        <v>239</v>
+        <v>20445</v>
       </c>
       <c r="AJ8">
-        <v>1871</v>
+        <v>161376</v>
       </c>
       <c r="AK8">
-        <v>478</v>
+        <v>39813</v>
       </c>
       <c r="AL8">
-        <v>1057</v>
+        <v>98650</v>
       </c>
       <c r="AM8">
-        <v>1183</v>
+        <v>89643</v>
       </c>
       <c r="AN8">
-        <v>1566</v>
+        <v>145719</v>
       </c>
       <c r="AO8">
-        <v>1133</v>
+        <v>89475</v>
       </c>
       <c r="AP8">
-        <v>2039</v>
+        <v>162405</v>
       </c>
       <c r="AQ8">
-        <v>1348</v>
+        <v>3990727</v>
       </c>
       <c r="AR8">
-        <v>494</v>
+        <v>103977</v>
       </c>
       <c r="AS8">
-        <v>598</v>
+        <v>42226</v>
       </c>
       <c r="AT8">
-        <v>1378</v>
+        <v>52472</v>
       </c>
       <c r="AU8">
-        <v>1017</v>
+        <v>205642</v>
       </c>
       <c r="AV8">
-        <v>2535</v>
+        <v>123883</v>
       </c>
       <c r="AW8">
-        <v>821</v>
+        <v>301083</v>
       </c>
       <c r="AX8">
-        <v>727</v>
+        <v>75310</v>
       </c>
       <c r="AY8">
-        <v>1550</v>
+        <v>83465</v>
       </c>
       <c r="AZ8">
-        <v>33959</v>
+        <v>153286</v>
       </c>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="2">
-        <v>39447</v>
+        <v>40178</v>
       </c>
       <c r="B9">
-        <v>1186</v>
+        <v>147837</v>
       </c>
       <c r="C9">
-        <v>1654</v>
+        <v>110939</v>
       </c>
       <c r="D9">
-        <v>1694</v>
+        <v>111729</v>
       </c>
       <c r="E9">
-        <v>962</v>
+        <v>98167</v>
       </c>
       <c r="F9">
-        <v>1155</v>
+        <v>139967</v>
       </c>
       <c r="G9">
-        <v>1479</v>
+        <v>142044</v>
       </c>
       <c r="H9">
-        <v>9434</v>
+        <v>1133889</v>
       </c>
       <c r="I9">
-        <v>1014</v>
+        <v>80756</v>
       </c>
       <c r="J9">
-        <v>1325</v>
+        <v>142102</v>
       </c>
       <c r="K9">
-        <v>1284</v>
+        <v>126360</v>
       </c>
       <c r="L9">
-        <v>2504</v>
+        <v>181287</v>
       </c>
       <c r="M9">
-        <v>1048</v>
+        <v>107542</v>
       </c>
       <c r="N9">
-        <v>398</v>
+        <v>31423</v>
       </c>
       <c r="O9">
-        <v>499</v>
+        <v>51125</v>
       </c>
       <c r="P9">
-        <v>1523</v>
+        <v>152638</v>
       </c>
       <c r="Q9">
-        <v>562</v>
+        <v>51486</v>
       </c>
       <c r="R9">
-        <v>1600</v>
+        <v>116608</v>
       </c>
       <c r="S9">
-        <v>2767</v>
+        <v>289712</v>
       </c>
       <c r="T9">
-        <v>2227</v>
+        <v>205963</v>
       </c>
       <c r="U9">
-        <v>1586</v>
+        <v>133286</v>
       </c>
       <c r="V9">
-        <v>902</v>
+        <v>71204</v>
       </c>
       <c r="W9">
-        <v>436</v>
+        <v>43925</v>
       </c>
       <c r="X9">
-        <v>1675</v>
+        <v>171730</v>
       </c>
       <c r="Y9">
-        <v>651</v>
+        <v>58308</v>
       </c>
       <c r="Z9">
-        <v>407</v>
+        <v>40855</v>
       </c>
       <c r="AA9">
-        <v>1241</v>
+        <v>105185</v>
       </c>
       <c r="AB9">
-        <v>433</v>
+        <v>38603</v>
       </c>
       <c r="AC9">
-        <v>266</v>
+        <v>23518</v>
       </c>
       <c r="AD9">
-        <v>2350</v>
+        <v>215037</v>
       </c>
       <c r="AE9">
-        <v>3107</v>
+        <v>316121</v>
       </c>
       <c r="AF9">
-        <v>1954</v>
+        <v>161832</v>
       </c>
       <c r="AG9">
-        <v>1401</v>
+        <v>119184</v>
       </c>
       <c r="AH9">
-        <v>2317</v>
+        <v>215907</v>
       </c>
       <c r="AI9">
-        <v>249</v>
+        <v>20531</v>
       </c>
       <c r="AJ9">
-        <v>1846</v>
+        <v>161531</v>
       </c>
       <c r="AK9">
-        <v>503</v>
+        <v>40138</v>
       </c>
       <c r="AL9">
-        <v>1102</v>
+        <v>98725</v>
       </c>
       <c r="AM9">
-        <v>1253</v>
+        <v>89320</v>
       </c>
       <c r="AN9">
-        <v>1618</v>
+        <v>146583</v>
       </c>
       <c r="AO9">
-        <v>1165</v>
+        <v>89984</v>
       </c>
       <c r="AP9">
-        <v>1989</v>
+        <v>162558</v>
       </c>
       <c r="AQ9">
-        <v>1382</v>
+        <v>3999457</v>
       </c>
       <c r="AR9">
-        <v>507</v>
+        <v>104173</v>
       </c>
       <c r="AS9">
-        <v>561</v>
+        <v>42551</v>
       </c>
       <c r="AT9">
-        <v>1477</v>
+        <v>52793</v>
       </c>
       <c r="AU9">
-        <v>1034</v>
+        <v>206641</v>
       </c>
       <c r="AV9">
-        <v>2580</v>
+        <v>125174</v>
       </c>
       <c r="AW9">
-        <v>848</v>
+        <v>303484</v>
       </c>
       <c r="AX9">
-        <v>790</v>
+        <v>75596</v>
       </c>
       <c r="AY9">
-        <v>1528</v>
+        <v>84508</v>
       </c>
       <c r="AZ9">
-        <v>35880</v>
+        <v>154729</v>
       </c>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="2">
-        <v>39813</v>
+        <v>40543</v>
       </c>
       <c r="B10">
-        <v>1144</v>
+        <v>147231</v>
       </c>
       <c r="C10">
-        <v>1574</v>
+        <v>111854</v>
       </c>
       <c r="D10">
-        <v>1720</v>
+        <v>112526</v>
       </c>
       <c r="E10">
-        <v>895</v>
+        <v>98460</v>
       </c>
       <c r="F10">
-        <v>1169</v>
+        <v>140041</v>
       </c>
       <c r="G10">
-        <v>1505</v>
+        <v>142835</v>
       </c>
       <c r="H10">
-        <v>9216</v>
+        <v>1138290</v>
       </c>
       <c r="I10">
-        <v>1028</v>
+        <v>81340</v>
       </c>
       <c r="J10">
-        <v>1508</v>
+        <v>142344</v>
       </c>
       <c r="K10">
-        <v>1247</v>
+        <v>127710</v>
       </c>
       <c r="L10">
-        <v>2447</v>
+        <v>181033</v>
       </c>
       <c r="M10">
-        <v>1049</v>
+        <v>108354</v>
       </c>
       <c r="N10">
-        <v>456</v>
+        <v>31513</v>
       </c>
       <c r="O10">
-        <v>557</v>
+        <v>51041</v>
       </c>
       <c r="P10">
-        <v>1464</v>
+        <v>152129</v>
       </c>
       <c r="Q10">
-        <v>600</v>
+        <v>51767</v>
       </c>
       <c r="R10">
-        <v>1499</v>
+        <v>116344</v>
       </c>
       <c r="S10">
-        <v>2720</v>
+        <v>290276</v>
       </c>
       <c r="T10">
-        <v>2159</v>
+        <v>206779</v>
       </c>
       <c r="U10">
-        <v>1628</v>
+        <v>133577</v>
       </c>
       <c r="V10">
-        <v>899</v>
+        <v>70782</v>
       </c>
       <c r="W10">
-        <v>499</v>
+        <v>44300</v>
       </c>
       <c r="X10">
-        <v>1744</v>
+        <v>172314</v>
       </c>
       <c r="Y10">
-        <v>649</v>
+        <v>58564</v>
       </c>
       <c r="Z10">
-        <v>408</v>
+        <v>40937</v>
       </c>
       <c r="AA10">
-        <v>1337</v>
+        <v>105155</v>
       </c>
       <c r="AB10">
-        <v>440</v>
+        <v>38901</v>
       </c>
       <c r="AC10">
-        <v>321</v>
+        <v>23682</v>
       </c>
       <c r="AD10">
-        <v>2380</v>
+        <v>214810</v>
       </c>
       <c r="AE10">
-        <v>3016</v>
+        <v>315837</v>
       </c>
       <c r="AF10">
-        <v>1924</v>
+        <v>161622</v>
       </c>
       <c r="AG10">
-        <v>1257</v>
+        <v>119807</v>
       </c>
       <c r="AH10">
-        <v>2234</v>
+        <v>216571</v>
       </c>
       <c r="AI10">
-        <v>233</v>
+        <v>20622</v>
       </c>
       <c r="AJ10">
-        <v>1855</v>
+        <v>162078</v>
       </c>
       <c r="AK10">
-        <v>533</v>
+        <v>40577</v>
       </c>
       <c r="AL10">
-        <v>1156</v>
+        <v>98855</v>
       </c>
       <c r="AM10">
-        <v>1211</v>
+        <v>89010</v>
       </c>
       <c r="AN10">
-        <v>1504</v>
+        <v>147474</v>
       </c>
       <c r="AO10">
-        <v>1116</v>
+        <v>90440</v>
       </c>
       <c r="AP10">
-        <v>2009</v>
+        <v>162692</v>
       </c>
       <c r="AQ10">
-        <v>1261</v>
+        <v>4002871</v>
       </c>
       <c r="AR10">
-        <v>500</v>
+        <v>104189</v>
       </c>
       <c r="AS10">
-        <v>562</v>
+        <v>42884</v>
       </c>
       <c r="AT10">
-        <v>1453</v>
+        <v>53106</v>
       </c>
       <c r="AU10">
-        <v>964</v>
+        <v>206328</v>
       </c>
       <c r="AV10">
-        <v>2542</v>
+        <v>126324</v>
       </c>
       <c r="AW10">
-        <v>827</v>
+        <v>305833</v>
       </c>
       <c r="AX10">
-        <v>715</v>
+        <v>75708</v>
       </c>
       <c r="AY10">
-        <v>1476</v>
+        <v>85449</v>
       </c>
       <c r="AZ10">
-        <v>34858</v>
+        <v>156123</v>
       </c>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="2">
-        <v>40178</v>
+        <v>40908</v>
       </c>
       <c r="B11">
-        <v>1207</v>
+        <v>147283</v>
       </c>
       <c r="C11">
-        <v>1667</v>
+        <v>112534</v>
       </c>
       <c r="D11">
-        <v>1722</v>
+        <v>113082</v>
       </c>
       <c r="E11">
-        <v>925</v>
+        <v>98690</v>
       </c>
       <c r="F11">
-        <v>1132</v>
+        <v>139984</v>
       </c>
       <c r="G11">
-        <v>1349</v>
+        <v>143287</v>
       </c>
       <c r="H11">
-        <v>9303</v>
+        <v>1139647</v>
       </c>
       <c r="I11">
-        <v>1048</v>
+        <v>81770</v>
       </c>
       <c r="J11">
-        <v>1567</v>
+        <v>142285</v>
       </c>
       <c r="K11">
-        <v>1250</v>
+        <v>128958</v>
       </c>
       <c r="L11">
-        <v>2414</v>
+        <v>180267</v>
       </c>
       <c r="M11">
-        <v>1028</v>
+        <v>109223</v>
       </c>
       <c r="N11">
-        <v>427</v>
+        <v>31605</v>
       </c>
       <c r="O11">
-        <v>503</v>
+        <v>50815</v>
       </c>
       <c r="P11">
-        <v>1539</v>
+        <v>151573</v>
       </c>
       <c r="Q11">
-        <v>565</v>
+        <v>51906</v>
       </c>
       <c r="R11">
-        <v>1588</v>
+        <v>115968</v>
       </c>
       <c r="S11">
-        <v>2684</v>
+        <v>290289</v>
       </c>
       <c r="T11">
-        <v>2231</v>
+        <v>207639</v>
       </c>
       <c r="U11">
-        <v>1626</v>
+        <v>133794</v>
       </c>
       <c r="V11">
-        <v>905</v>
+        <v>70232</v>
       </c>
       <c r="W11">
-        <v>486</v>
+        <v>44687</v>
       </c>
       <c r="X11">
-        <v>1624</v>
+        <v>172675</v>
       </c>
       <c r="Y11">
-        <v>626</v>
+        <v>58909</v>
       </c>
       <c r="Z11">
-        <v>383</v>
+        <v>40950</v>
       </c>
       <c r="AA11">
-        <v>1282</v>
+        <v>105234</v>
       </c>
       <c r="AB11">
-        <v>410</v>
+        <v>39200</v>
       </c>
       <c r="AC11">
-        <v>318</v>
+        <v>23837</v>
       </c>
       <c r="AD11">
-        <v>2318</v>
+        <v>214270</v>
       </c>
       <c r="AE11">
-        <v>3053</v>
+        <v>315165</v>
       </c>
       <c r="AF11">
-        <v>2002</v>
+        <v>161469</v>
       </c>
       <c r="AG11">
-        <v>1292</v>
+        <v>120402</v>
       </c>
       <c r="AH11">
-        <v>2052</v>
+        <v>217067</v>
       </c>
       <c r="AI11">
-        <v>214</v>
+        <v>20637</v>
       </c>
       <c r="AJ11">
-        <v>1827</v>
+        <v>162537</v>
       </c>
       <c r="AK11">
-        <v>474</v>
+        <v>41050</v>
       </c>
       <c r="AL11">
-        <v>1115</v>
+        <v>98996</v>
       </c>
       <c r="AM11">
-        <v>1186</v>
+        <v>88582</v>
       </c>
       <c r="AN11">
-        <v>1535</v>
+        <v>148193</v>
       </c>
       <c r="AO11">
-        <v>1100</v>
+        <v>90881</v>
       </c>
       <c r="AP11">
-        <v>2066</v>
+        <v>162950</v>
       </c>
       <c r="AQ11">
-        <v>1289</v>
+        <v>3992912</v>
       </c>
       <c r="AR11">
-        <v>474</v>
+        <v>104277</v>
       </c>
       <c r="AS11">
-        <v>632</v>
+        <v>43192</v>
       </c>
       <c r="AT11">
-        <v>1435</v>
+        <v>53362</v>
       </c>
       <c r="AU11">
-        <v>1070</v>
+        <v>206698</v>
       </c>
       <c r="AV11">
-        <v>2513</v>
+        <v>127285</v>
       </c>
       <c r="AW11">
-        <v>853</v>
+        <v>307717</v>
       </c>
       <c r="AX11">
-        <v>666</v>
+        <v>75844</v>
       </c>
       <c r="AY11">
-        <v>1402</v>
+        <v>86284</v>
       </c>
       <c r="AZ11">
-        <v>35443</v>
+        <v>157299</v>
       </c>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="2">
-        <v>40543</v>
+        <v>41274</v>
       </c>
       <c r="B12">
-        <v>1254</v>
+        <v>147996</v>
       </c>
       <c r="C12">
-        <v>1671</v>
+        <v>112870</v>
       </c>
       <c r="D12">
-        <v>1778</v>
+        <v>113244</v>
       </c>
       <c r="E12">
-        <v>1011</v>
+        <v>98571</v>
       </c>
       <c r="F12">
-        <v>1198</v>
+        <v>139393</v>
       </c>
       <c r="G12">
-        <v>1496</v>
+        <v>143302</v>
       </c>
       <c r="H12">
-        <v>9414</v>
+        <v>1137093</v>
       </c>
       <c r="I12">
-        <v>1036</v>
+        <v>81759</v>
       </c>
       <c r="J12">
-        <v>1674</v>
+        <v>141894</v>
       </c>
       <c r="K12">
-        <v>1302</v>
+        <v>129819</v>
       </c>
       <c r="L12">
-        <v>2614</v>
+        <v>178866</v>
       </c>
       <c r="M12">
-        <v>974</v>
+        <v>109857</v>
       </c>
       <c r="N12">
-        <v>418</v>
+        <v>31531</v>
       </c>
       <c r="O12">
-        <v>546</v>
+        <v>50380</v>
       </c>
       <c r="P12">
-        <v>1505</v>
+        <v>150429</v>
       </c>
       <c r="Q12">
-        <v>635</v>
+        <v>51721</v>
       </c>
       <c r="R12">
-        <v>1571</v>
+        <v>114755</v>
       </c>
       <c r="S12">
-        <v>2699</v>
+        <v>289799</v>
       </c>
       <c r="T12">
-        <v>2037</v>
+        <v>207734</v>
       </c>
       <c r="U12">
-        <v>1683</v>
+        <v>133551</v>
       </c>
       <c r="V12">
-        <v>919</v>
+        <v>69492</v>
       </c>
       <c r="W12">
-        <v>473</v>
+        <v>44839</v>
       </c>
       <c r="X12">
-        <v>1587</v>
+        <v>172314</v>
       </c>
       <c r="Y12">
-        <v>536</v>
+        <v>58792</v>
       </c>
       <c r="Z12">
-        <v>445</v>
+        <v>40826</v>
       </c>
       <c r="AA12">
-        <v>1069</v>
+        <v>105109</v>
       </c>
       <c r="AB12">
-        <v>417</v>
+        <v>39221</v>
       </c>
       <c r="AC12">
-        <v>312</v>
+        <v>23975</v>
       </c>
       <c r="AD12">
-        <v>2353</v>
+        <v>212961</v>
       </c>
       <c r="AE12">
-        <v>3107</v>
+        <v>313940</v>
       </c>
       <c r="AF12">
-        <v>1881</v>
+        <v>161034</v>
       </c>
       <c r="AG12">
-        <v>1348</v>
+        <v>120647</v>
       </c>
       <c r="AH12">
-        <v>2010</v>
+        <v>216670</v>
       </c>
       <c r="AI12">
-        <v>199</v>
+        <v>20442</v>
       </c>
       <c r="AJ12">
-        <v>1832</v>
+        <v>162525</v>
       </c>
       <c r="AK12">
-        <v>471</v>
+        <v>41386</v>
       </c>
       <c r="AL12">
-        <v>1129</v>
+        <v>98919</v>
       </c>
       <c r="AM12">
-        <v>1170</v>
+        <v>87867</v>
       </c>
       <c r="AN12">
-        <v>1639</v>
+        <v>148549</v>
       </c>
       <c r="AO12">
-        <v>1115</v>
+        <v>90977</v>
       </c>
       <c r="AP12">
-        <v>1908</v>
+        <v>162732</v>
       </c>
       <c r="AQ12">
-        <v>1282</v>
+        <v>3963887</v>
       </c>
       <c r="AR12">
-        <v>413</v>
+        <v>104008</v>
       </c>
       <c r="AS12">
-        <v>654</v>
+        <v>43117</v>
       </c>
       <c r="AT12">
-        <v>1461</v>
+        <v>53466</v>
       </c>
       <c r="AU12">
-        <v>1064</v>
+        <v>207367</v>
       </c>
       <c r="AV12">
-        <v>2601</v>
+        <v>127413</v>
       </c>
       <c r="AW12">
-        <v>846</v>
+        <v>309131</v>
       </c>
       <c r="AX12">
-        <v>700</v>
+        <v>75666</v>
       </c>
       <c r="AY12">
-        <v>1426</v>
+        <v>86684</v>
       </c>
       <c r="AZ12">
-        <v>35564</v>
+        <v>157886</v>
       </c>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="2">
-        <v>40908</v>
+        <v>41639</v>
       </c>
       <c r="B13">
-        <v>1209</v>
+        <v>147907</v>
       </c>
       <c r="C13">
-        <v>1649</v>
+        <v>112770</v>
       </c>
       <c r="D13">
-        <v>1777</v>
+        <v>112956</v>
       </c>
       <c r="E13">
-        <v>972</v>
+        <v>98129</v>
       </c>
       <c r="F13">
-        <v>1165</v>
+        <v>138340</v>
       </c>
       <c r="G13">
-        <v>1571</v>
+        <v>142898</v>
       </c>
       <c r="H13">
-        <v>9394</v>
+        <v>1130229</v>
       </c>
       <c r="I13">
-        <v>1069</v>
+        <v>81397</v>
       </c>
       <c r="J13">
-        <v>1666</v>
+        <v>141193</v>
       </c>
       <c r="K13">
-        <v>1281</v>
+        <v>130272</v>
       </c>
       <c r="L13">
-        <v>2461</v>
+        <v>176604</v>
       </c>
       <c r="M13">
-        <v>982</v>
+        <v>110031</v>
       </c>
       <c r="N13">
-        <v>452</v>
+        <v>31365</v>
       </c>
       <c r="O13">
-        <v>548</v>
+        <v>49844</v>
       </c>
       <c r="P13">
-        <v>1512</v>
+        <v>148746</v>
       </c>
       <c r="Q13">
-        <v>612</v>
+        <v>51369</v>
       </c>
       <c r="R13">
-        <v>1592</v>
+        <v>113258</v>
       </c>
       <c r="S13">
-        <v>2808</v>
+        <v>288482</v>
       </c>
       <c r="T13">
-        <v>2209</v>
+        <v>207089</v>
       </c>
       <c r="U13">
-        <v>1683</v>
+        <v>132764</v>
       </c>
       <c r="V13">
-        <v>934</v>
+        <v>68451</v>
       </c>
       <c r="W13">
-        <v>515</v>
+        <v>44884</v>
       </c>
       <c r="X13">
-        <v>1621</v>
+        <v>171243</v>
       </c>
       <c r="Y13">
-        <v>691</v>
+        <v>58550</v>
       </c>
       <c r="Z13">
-        <v>377</v>
+        <v>40573</v>
       </c>
       <c r="AA13">
-        <v>1151</v>
+        <v>104546</v>
       </c>
       <c r="AB13">
-        <v>464</v>
+        <v>39173</v>
       </c>
       <c r="AC13">
-        <v>274</v>
+        <v>23949</v>
       </c>
       <c r="AD13">
-        <v>2470</v>
+        <v>211090</v>
       </c>
       <c r="AE13">
-        <v>3013</v>
+        <v>311511</v>
       </c>
       <c r="AF13">
-        <v>1903</v>
+        <v>159982</v>
       </c>
       <c r="AG13">
-        <v>1290</v>
+        <v>120553</v>
       </c>
       <c r="AH13">
-        <v>2365</v>
+        <v>215718</v>
       </c>
       <c r="AI13">
-        <v>233</v>
+        <v>20170</v>
       </c>
       <c r="AJ13">
-        <v>1926</v>
+        <v>162041</v>
       </c>
       <c r="AK13">
-        <v>491</v>
+        <v>41611</v>
       </c>
       <c r="AL13">
-        <v>1096</v>
+        <v>98541</v>
       </c>
       <c r="AM13">
-        <v>1079</v>
+        <v>86820</v>
       </c>
       <c r="AN13">
-        <v>1680</v>
+        <v>148604</v>
       </c>
       <c r="AO13">
-        <v>1143</v>
+        <v>90964</v>
       </c>
       <c r="AP13">
-        <v>2031</v>
+        <v>161934</v>
       </c>
       <c r="AQ13">
-        <v>1225</v>
+        <v>3912849</v>
       </c>
       <c r="AR13">
-        <v>467</v>
+        <v>103234</v>
       </c>
       <c r="AS13">
-        <v>571</v>
+        <v>42813</v>
       </c>
       <c r="AT13">
-        <v>1507</v>
+        <v>53431</v>
       </c>
       <c r="AU13">
-        <v>1183</v>
+        <v>207348</v>
       </c>
       <c r="AV13">
-        <v>2511</v>
+        <v>127304</v>
       </c>
       <c r="AW13">
-        <v>882</v>
+        <v>309743</v>
       </c>
       <c r="AX13">
-        <v>724</v>
+        <v>75417</v>
       </c>
       <c r="AY13">
-        <v>1575</v>
+        <v>86829</v>
       </c>
       <c r="AZ13">
-        <v>36472</v>
+        <v>158096</v>
       </c>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="2">
-        <v>41274</v>
+        <v>42004</v>
       </c>
       <c r="B14">
-        <v>1330</v>
+        <v>147974</v>
       </c>
       <c r="C14">
-        <v>1641</v>
+        <v>112635</v>
       </c>
       <c r="D14">
-        <v>1873</v>
+        <v>112697</v>
       </c>
       <c r="E14">
-        <v>1010</v>
+        <v>97758</v>
       </c>
       <c r="F14">
-        <v>1268</v>
+        <v>137150</v>
       </c>
       <c r="G14">
-        <v>1629</v>
+        <v>142559</v>
       </c>
       <c r="H14">
-        <v>10079</v>
+        <v>1123676</v>
       </c>
       <c r="I14">
-        <v>1205</v>
+        <v>81017</v>
       </c>
       <c r="J14">
-        <v>1688</v>
+        <v>140495</v>
       </c>
       <c r="K14">
-        <v>1389</v>
+        <v>130729</v>
       </c>
       <c r="L14">
-        <v>2804</v>
+        <v>174686</v>
       </c>
       <c r="M14">
-        <v>1144</v>
+        <v>110198</v>
       </c>
       <c r="N14">
-        <v>458</v>
+        <v>31200</v>
       </c>
       <c r="O14">
-        <v>511</v>
+        <v>49293</v>
       </c>
       <c r="P14">
-        <v>1698</v>
+        <v>147155</v>
       </c>
       <c r="Q14">
-        <v>632</v>
+        <v>51058</v>
       </c>
       <c r="R14">
-        <v>1588</v>
+        <v>111916</v>
       </c>
       <c r="S14">
-        <v>2903</v>
+        <v>287055</v>
       </c>
       <c r="T14">
-        <v>2257</v>
+        <v>206486</v>
       </c>
       <c r="U14">
-        <v>1850</v>
+        <v>132229</v>
       </c>
       <c r="V14">
-        <v>971</v>
+        <v>67489</v>
       </c>
       <c r="W14">
-        <v>490</v>
+        <v>44983</v>
       </c>
       <c r="X14">
-        <v>1750</v>
+        <v>170236</v>
       </c>
       <c r="Y14">
-        <v>683</v>
+        <v>58338</v>
       </c>
       <c r="Z14">
-        <v>440</v>
+        <v>40401</v>
       </c>
       <c r="AA14">
-        <v>1291</v>
+        <v>104085</v>
       </c>
       <c r="AB14">
-        <v>436</v>
+        <v>39175</v>
       </c>
       <c r="AC14">
-        <v>331</v>
+        <v>24003</v>
       </c>
       <c r="AD14">
-        <v>2494</v>
+        <v>209335</v>
       </c>
       <c r="AE14">
-        <v>3221</v>
+        <v>309389</v>
       </c>
       <c r="AF14">
-        <v>1991</v>
+        <v>159003</v>
       </c>
       <c r="AG14">
-        <v>1392</v>
+        <v>120524</v>
       </c>
       <c r="AH14">
-        <v>2486</v>
+        <v>215045</v>
       </c>
       <c r="AI14">
-        <v>241</v>
+        <v>19917</v>
       </c>
       <c r="AJ14">
-        <v>1972</v>
+        <v>161781</v>
       </c>
       <c r="AK14">
-        <v>503</v>
+        <v>41947</v>
       </c>
       <c r="AL14">
-        <v>1239</v>
+        <v>98181</v>
       </c>
       <c r="AM14">
-        <v>1208</v>
+        <v>85840</v>
       </c>
       <c r="AN14">
-        <v>1679</v>
+        <v>148786</v>
       </c>
       <c r="AO14">
-        <v>1150</v>
+        <v>91025</v>
       </c>
       <c r="AP14">
-        <v>2134</v>
+        <v>161323</v>
       </c>
       <c r="AQ14">
-        <v>1388</v>
+        <v>3863763</v>
       </c>
       <c r="AR14">
-        <v>543</v>
+        <v>102528</v>
       </c>
       <c r="AS14">
-        <v>576</v>
+        <v>42633</v>
       </c>
       <c r="AT14">
-        <v>1589</v>
+        <v>53420</v>
       </c>
       <c r="AU14">
-        <v>1080</v>
+        <v>207434</v>
       </c>
       <c r="AV14">
-        <v>2710</v>
+        <v>127368</v>
       </c>
       <c r="AW14">
-        <v>845</v>
+        <v>310361</v>
       </c>
       <c r="AX14">
-        <v>780</v>
+        <v>75189</v>
       </c>
       <c r="AY14">
-        <v>1546</v>
+        <v>86997</v>
       </c>
       <c r="AZ14">
-        <v>37917</v>
+        <v>158342</v>
       </c>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="2">
-        <v>41639</v>
+        <v>42369</v>
       </c>
       <c r="B15">
-        <v>1231</v>
+        <v>147915</v>
       </c>
       <c r="C15">
-        <v>1717</v>
+        <v>112532</v>
       </c>
       <c r="D15">
-        <v>1807</v>
+        <v>112325</v>
       </c>
       <c r="E15">
-        <v>1003</v>
+        <v>97466</v>
       </c>
       <c r="F15">
-        <v>1283</v>
+        <v>136252</v>
       </c>
       <c r="G15">
-        <v>1548</v>
+        <v>142063</v>
       </c>
       <c r="H15">
-        <v>9686</v>
+        <v>1117094</v>
       </c>
       <c r="I15">
-        <v>1139</v>
+        <v>80616</v>
       </c>
       <c r="J15">
-        <v>1660</v>
+        <v>139818</v>
       </c>
       <c r="K15">
-        <v>1351</v>
+        <v>131041</v>
       </c>
       <c r="L15">
-        <v>2567</v>
+        <v>172909</v>
       </c>
       <c r="M15">
-        <v>1113</v>
+        <v>110337</v>
       </c>
       <c r="N15">
-        <v>447</v>
+        <v>31052</v>
       </c>
       <c r="O15">
-        <v>570</v>
+        <v>48798</v>
       </c>
       <c r="P15">
-        <v>1572</v>
+        <v>145774</v>
       </c>
       <c r="Q15">
-        <v>607</v>
+        <v>50799</v>
       </c>
       <c r="R15">
-        <v>1508</v>
+        <v>110704</v>
       </c>
       <c r="S15">
-        <v>2727</v>
+        <v>285446</v>
       </c>
       <c r="T15">
-        <v>2228</v>
+        <v>205911</v>
       </c>
       <c r="U15">
-        <v>1664</v>
+        <v>131602</v>
       </c>
       <c r="V15">
-        <v>966</v>
+        <v>66611</v>
       </c>
       <c r="W15">
-        <v>494</v>
+        <v>45136</v>
       </c>
       <c r="X15">
-        <v>1712</v>
+        <v>169240</v>
       </c>
       <c r="Y15">
-        <v>671</v>
+        <v>58155</v>
       </c>
       <c r="Z15">
-        <v>404</v>
+        <v>40283</v>
       </c>
       <c r="AA15">
-        <v>1279</v>
+        <v>103630</v>
       </c>
       <c r="AB15">
-        <v>413</v>
+        <v>39150</v>
       </c>
       <c r="AC15">
-        <v>283</v>
+        <v>23996</v>
       </c>
       <c r="AD15">
-        <v>2360</v>
+        <v>207674</v>
       </c>
       <c r="AE15">
-        <v>3023</v>
+        <v>307412</v>
       </c>
       <c r="AF15">
-        <v>1984</v>
+        <v>158177</v>
       </c>
       <c r="AG15">
-        <v>1279</v>
+        <v>120533</v>
       </c>
       <c r="AH15">
-        <v>2185</v>
+        <v>214123</v>
       </c>
       <c r="AI15">
-        <v>218</v>
+        <v>19714</v>
       </c>
       <c r="AJ15">
-        <v>1838</v>
+        <v>161230</v>
       </c>
       <c r="AK15">
-        <v>448</v>
+        <v>42153</v>
       </c>
       <c r="AL15">
-        <v>1161</v>
+        <v>97883</v>
       </c>
       <c r="AM15">
-        <v>1105</v>
+        <v>84996</v>
       </c>
       <c r="AN15">
-        <v>1605</v>
+        <v>148824</v>
       </c>
       <c r="AO15">
-        <v>1053</v>
+        <v>90995</v>
       </c>
       <c r="AP15">
-        <v>1929</v>
+        <v>160733</v>
       </c>
       <c r="AQ15">
-        <v>1304</v>
+        <v>3822843</v>
       </c>
       <c r="AR15">
-        <v>456</v>
+        <v>102007</v>
       </c>
       <c r="AS15">
-        <v>543</v>
+        <v>42356</v>
       </c>
       <c r="AT15">
-        <v>1503</v>
+        <v>53332</v>
       </c>
       <c r="AU15">
-        <v>1055</v>
+        <v>207659</v>
       </c>
       <c r="AV15">
-        <v>2496</v>
+        <v>127206</v>
       </c>
       <c r="AW15">
-        <v>834</v>
+        <v>310784</v>
       </c>
       <c r="AX15">
-        <v>745</v>
+        <v>74994</v>
       </c>
       <c r="AY15">
-        <v>1505</v>
+        <v>87150</v>
       </c>
       <c r="AZ15">
-        <v>36881</v>
+        <v>158585</v>
       </c>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="2">
-        <v>42004</v>
+        <v>42735</v>
       </c>
       <c r="B16">
-        <v>1242</v>
+        <v>147796</v>
       </c>
       <c r="C16">
-        <v>1671</v>
+        <v>112275</v>
       </c>
       <c r="D16">
-        <v>1818</v>
+        <v>112088</v>
       </c>
       <c r="E16">
-        <v>1002</v>
+        <v>97041</v>
       </c>
       <c r="F16">
-        <v>1283</v>
+        <v>135304</v>
       </c>
       <c r="G16">
-        <v>1688</v>
+        <v>141436</v>
       </c>
       <c r="H16">
-        <v>10141</v>
+        <v>1109969</v>
       </c>
       <c r="I16">
-        <v>1149</v>
+        <v>80173</v>
       </c>
       <c r="J16">
-        <v>1699</v>
+        <v>139105</v>
       </c>
       <c r="K16">
-        <v>1298</v>
+        <v>131309</v>
       </c>
       <c r="L16">
-        <v>2630</v>
+        <v>170929</v>
       </c>
       <c r="M16">
-        <v>1111</v>
+        <v>110418</v>
       </c>
       <c r="N16">
-        <v>404</v>
+        <v>30817</v>
       </c>
       <c r="O16">
-        <v>529</v>
+        <v>48244</v>
       </c>
       <c r="P16">
-        <v>1608</v>
+        <v>144309</v>
       </c>
       <c r="Q16">
-        <v>603</v>
+        <v>50473</v>
       </c>
       <c r="R16">
-        <v>1533</v>
+        <v>109390</v>
       </c>
       <c r="S16">
-        <v>2848</v>
+        <v>283727</v>
       </c>
       <c r="T16">
-        <v>2222</v>
+        <v>205295</v>
       </c>
       <c r="U16">
-        <v>1721</v>
+        <v>131030</v>
       </c>
       <c r="V16">
-        <v>886</v>
+        <v>65657</v>
       </c>
       <c r="W16">
-        <v>435</v>
+        <v>45136</v>
       </c>
       <c r="X16">
-        <v>1762</v>
+        <v>168169</v>
       </c>
       <c r="Y16">
-        <v>624</v>
+        <v>57872</v>
       </c>
       <c r="Z16">
-        <v>384</v>
+        <v>40070</v>
       </c>
       <c r="AA16">
-        <v>1300</v>
+        <v>103066</v>
       </c>
       <c r="AB16">
-        <v>419</v>
+        <v>39038</v>
       </c>
       <c r="AC16">
-        <v>323</v>
+        <v>23967</v>
       </c>
       <c r="AD16">
-        <v>2368</v>
+        <v>205901</v>
       </c>
       <c r="AE16">
-        <v>3097</v>
+        <v>305183</v>
       </c>
       <c r="AF16">
-        <v>1846</v>
+        <v>157174</v>
       </c>
       <c r="AG16">
-        <v>1233</v>
+        <v>120432</v>
       </c>
       <c r="AH16">
-        <v>2450</v>
+        <v>213046</v>
       </c>
       <c r="AI16">
-        <v>219</v>
+        <v>19504</v>
       </c>
       <c r="AJ16">
-        <v>1888</v>
+        <v>160530</v>
       </c>
       <c r="AK16">
-        <v>440</v>
+        <v>42318</v>
       </c>
       <c r="AL16">
-        <v>1159</v>
+        <v>97552</v>
       </c>
       <c r="AM16">
-        <v>1069</v>
+        <v>84130</v>
       </c>
       <c r="AN16">
-        <v>1599</v>
+        <v>148645</v>
       </c>
       <c r="AO16">
-        <v>1098</v>
+        <v>90816</v>
       </c>
       <c r="AP16">
-        <v>1992</v>
+        <v>159883</v>
       </c>
       <c r="AQ16">
-        <v>1263</v>
+        <v>3781274</v>
       </c>
       <c r="AR16">
-        <v>532</v>
+        <v>101397</v>
       </c>
       <c r="AS16">
-        <v>562</v>
+        <v>42058</v>
       </c>
       <c r="AT16">
-        <v>1547</v>
+        <v>53199</v>
       </c>
       <c r="AU16">
-        <v>1191</v>
+        <v>207746</v>
       </c>
       <c r="AV16">
-        <v>2739</v>
+        <v>127045</v>
       </c>
       <c r="AW16">
-        <v>816</v>
+        <v>311096</v>
       </c>
       <c r="AX16">
-        <v>727</v>
+        <v>74691</v>
       </c>
       <c r="AY16">
-        <v>1510</v>
+        <v>87260</v>
       </c>
       <c r="AZ16">
-        <v>37354</v>
+        <v>158765</v>
       </c>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="2">
-        <v>42369</v>
+        <v>43100</v>
       </c>
       <c r="B17">
-        <v>1400</v>
+        <v>147709</v>
       </c>
       <c r="C17">
-        <v>1777</v>
+        <v>112112</v>
       </c>
       <c r="D17">
-        <v>1964</v>
+        <v>111731</v>
       </c>
       <c r="E17">
-        <v>1052</v>
+        <v>96836</v>
       </c>
       <c r="F17">
-        <v>1224</v>
+        <v>134411</v>
       </c>
       <c r="G17">
-        <v>1781</v>
+        <v>141517</v>
       </c>
       <c r="H17">
-        <v>10748</v>
+        <v>1108085</v>
       </c>
       <c r="I17">
-        <v>1156</v>
+        <v>80762</v>
       </c>
       <c r="J17">
-        <v>1765</v>
+        <v>138583</v>
       </c>
       <c r="K17">
-        <v>1388</v>
+        <v>131388</v>
       </c>
       <c r="L17">
-        <v>2882</v>
+        <v>169242</v>
       </c>
       <c r="M17">
-        <v>1153</v>
+        <v>110545</v>
       </c>
       <c r="N17">
-        <v>480</v>
+        <v>30628</v>
       </c>
       <c r="O17">
-        <v>598</v>
+        <v>47723</v>
       </c>
       <c r="P17">
-        <v>1631</v>
+        <v>142941</v>
       </c>
       <c r="Q17">
-        <v>655</v>
+        <v>50196</v>
       </c>
       <c r="R17">
-        <v>1612</v>
+        <v>107984</v>
       </c>
       <c r="S17">
-        <v>2960</v>
+        <v>282542</v>
       </c>
       <c r="T17">
-        <v>2242</v>
+        <v>204738</v>
       </c>
       <c r="U17">
-        <v>1702</v>
+        <v>130610</v>
       </c>
       <c r="V17">
-        <v>1009</v>
+        <v>64798</v>
       </c>
       <c r="W17">
-        <v>541</v>
+        <v>45131</v>
       </c>
       <c r="X17">
-        <v>1793</v>
+        <v>167432</v>
       </c>
       <c r="Y17">
-        <v>726</v>
+        <v>57889</v>
       </c>
       <c r="Z17">
-        <v>480</v>
+        <v>39938</v>
       </c>
       <c r="AA17">
-        <v>1392</v>
+        <v>102613</v>
       </c>
       <c r="AB17">
-        <v>504</v>
+        <v>38945</v>
       </c>
       <c r="AC17">
-        <v>324</v>
+        <v>23935</v>
       </c>
       <c r="AD17">
-        <v>2523</v>
+        <v>204159</v>
       </c>
       <c r="AE17">
-        <v>3256</v>
+        <v>303224</v>
       </c>
       <c r="AF17">
-        <v>2046</v>
+        <v>156587</v>
       </c>
       <c r="AG17">
-        <v>1294</v>
+        <v>121004</v>
       </c>
       <c r="AH17">
-        <v>2555</v>
+        <v>212764</v>
       </c>
       <c r="AI17">
-        <v>214</v>
+        <v>19285</v>
       </c>
       <c r="AJ17">
-        <v>2047</v>
+        <v>160278</v>
       </c>
       <c r="AK17">
-        <v>467</v>
+        <v>42430</v>
       </c>
       <c r="AL17">
-        <v>1171</v>
+        <v>97257</v>
       </c>
       <c r="AM17">
-        <v>1094</v>
+        <v>83251</v>
       </c>
       <c r="AN17">
-        <v>1842</v>
+        <v>148540</v>
       </c>
       <c r="AO17">
-        <v>1195</v>
+        <v>90721</v>
       </c>
       <c r="AP17">
-        <v>2246</v>
+        <v>159413</v>
       </c>
       <c r="AQ17">
-        <v>1339</v>
+        <v>3773559</v>
       </c>
       <c r="AR17">
-        <v>517</v>
+        <v>106184</v>
       </c>
       <c r="AS17">
-        <v>629</v>
+        <v>43523</v>
       </c>
       <c r="AT17">
-        <v>1640</v>
+        <v>53993</v>
       </c>
       <c r="AU17">
-        <v>1157</v>
+        <v>211425</v>
       </c>
       <c r="AV17">
-        <v>2846</v>
+        <v>126958</v>
       </c>
       <c r="AW17">
-        <v>907</v>
+        <v>311640</v>
       </c>
       <c r="AX17">
-        <v>781</v>
+        <v>74463</v>
       </c>
       <c r="AY17">
-        <v>1627</v>
+        <v>87482</v>
       </c>
       <c r="AZ17">
-        <v>40214</v>
+        <v>159089</v>
       </c>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="2">
-        <v>42735</v>
+        <v>43465</v>
       </c>
       <c r="B18">
-        <v>1267</v>
+        <v>147488</v>
       </c>
       <c r="C18">
-        <v>1757</v>
+        <v>111885</v>
       </c>
       <c r="D18">
-        <v>1901</v>
+        <v>111193</v>
       </c>
       <c r="E18">
-        <v>1024</v>
+        <v>96760</v>
       </c>
       <c r="F18">
-        <v>1276</v>
+        <v>133849</v>
       </c>
       <c r="G18">
-        <v>1699</v>
+        <v>141403</v>
       </c>
       <c r="H18">
-        <v>10820</v>
+        <v>1105663</v>
       </c>
       <c r="I18">
-        <v>1120</v>
+        <v>80576</v>
       </c>
       <c r="J18">
-        <v>1711</v>
+        <v>137872</v>
       </c>
       <c r="K18">
-        <v>1561</v>
+        <v>131650</v>
       </c>
       <c r="L18">
-        <v>2724</v>
+        <v>168245</v>
       </c>
       <c r="M18">
-        <v>1134</v>
+        <v>110587</v>
       </c>
       <c r="N18">
-        <v>417</v>
+        <v>30622</v>
       </c>
       <c r="O18">
-        <v>543</v>
+        <v>47163</v>
       </c>
       <c r="P18">
-        <v>1639</v>
+        <v>141559</v>
       </c>
       <c r="Q18">
-        <v>617</v>
+        <v>49878</v>
       </c>
       <c r="R18">
-        <v>1720</v>
+        <v>106535</v>
       </c>
       <c r="S18">
-        <v>3016</v>
+        <v>281713</v>
       </c>
       <c r="T18">
-        <v>2219</v>
+        <v>203972</v>
       </c>
       <c r="U18">
-        <v>1691</v>
+        <v>129845</v>
       </c>
       <c r="V18">
-        <v>897</v>
+        <v>63924</v>
       </c>
       <c r="W18">
-        <v>518</v>
+        <v>45133</v>
       </c>
       <c r="X18">
-        <v>1810</v>
+        <v>167407</v>
       </c>
       <c r="Y18">
-        <v>678</v>
+        <v>57873</v>
       </c>
       <c r="Z18">
-        <v>450</v>
+        <v>39806</v>
       </c>
       <c r="AA18">
-        <v>1336</v>
+        <v>102052</v>
       </c>
       <c r="AB18">
-        <v>439</v>
+        <v>38807</v>
       </c>
       <c r="AC18">
-        <v>340</v>
+        <v>23897</v>
       </c>
       <c r="AD18">
-        <v>2532</v>
+        <v>202288</v>
       </c>
       <c r="AE18">
-        <v>3183</v>
+        <v>301145</v>
       </c>
       <c r="AF18">
-        <v>1865</v>
+        <v>156037</v>
       </c>
       <c r="AG18">
-        <v>1313</v>
+        <v>121493</v>
       </c>
       <c r="AH18">
-        <v>2479</v>
+        <v>212828</v>
       </c>
       <c r="AI18">
-        <v>232</v>
+        <v>19050</v>
       </c>
       <c r="AJ18">
-        <v>1978</v>
+        <v>159798</v>
       </c>
       <c r="AK18">
-        <v>438</v>
+        <v>42454</v>
       </c>
       <c r="AL18">
-        <v>1157</v>
+        <v>96942</v>
       </c>
       <c r="AM18">
-        <v>1138</v>
+        <v>82436</v>
       </c>
       <c r="AN18">
-        <v>1627</v>
+        <v>148187</v>
       </c>
       <c r="AO18">
-        <v>1161</v>
+        <v>90500</v>
       </c>
       <c r="AP18">
-        <v>1976</v>
+        <v>158684</v>
       </c>
       <c r="AQ18">
-        <v>1233</v>
+        <v>3756453</v>
       </c>
       <c r="AR18">
-        <v>546</v>
+        <v>108575</v>
       </c>
       <c r="AS18">
-        <v>614</v>
+        <v>46222</v>
       </c>
       <c r="AT18">
-        <v>1602</v>
+        <v>56340</v>
       </c>
       <c r="AU18">
-        <v>1203</v>
+        <v>214013</v>
       </c>
       <c r="AV18">
-        <v>2849</v>
+        <v>126857</v>
       </c>
       <c r="AW18">
-        <v>865</v>
+        <v>312514</v>
       </c>
       <c r="AX18">
-        <v>699</v>
+        <v>74210</v>
       </c>
       <c r="AY18">
-        <v>1549</v>
+        <v>87510</v>
       </c>
       <c r="AZ18">
-        <v>39510</v>
+        <v>159272</v>
       </c>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="2">
-        <v>43100</v>
+        <v>43830</v>
       </c>
       <c r="B19">
-        <v>1433</v>
+        <v>147190</v>
       </c>
       <c r="C19">
-        <v>1856</v>
+        <v>111631</v>
       </c>
       <c r="D19">
-        <v>2031</v>
+        <v>110666</v>
       </c>
       <c r="E19">
-        <v>1099</v>
+        <v>96845</v>
       </c>
       <c r="F19">
-        <v>1425</v>
+        <v>133391</v>
       </c>
       <c r="G19">
-        <v>1815</v>
+        <v>141585</v>
       </c>
       <c r="H19">
-        <v>11184</v>
+        <v>1104690</v>
       </c>
       <c r="I19">
-        <v>1240</v>
+        <v>80475</v>
       </c>
       <c r="J19">
-        <v>1877</v>
+        <v>137181</v>
       </c>
       <c r="K19">
-        <v>1547</v>
+        <v>131879</v>
       </c>
       <c r="L19">
-        <v>2677</v>
+        <v>167374</v>
       </c>
       <c r="M19">
-        <v>1180</v>
+        <v>110593</v>
       </c>
       <c r="N19">
-        <v>389</v>
+        <v>30588</v>
       </c>
       <c r="O19">
-        <v>625</v>
+        <v>46668</v>
       </c>
       <c r="P19">
-        <v>1736</v>
+        <v>140233</v>
       </c>
       <c r="Q19">
-        <v>636</v>
+        <v>49519</v>
       </c>
       <c r="R19">
-        <v>1707</v>
+        <v>105403</v>
       </c>
       <c r="S19">
-        <v>3024</v>
+        <v>281033</v>
       </c>
       <c r="T19">
-        <v>2391</v>
+        <v>203162</v>
       </c>
       <c r="U19">
-        <v>1786</v>
+        <v>129042</v>
       </c>
       <c r="V19">
-        <v>973</v>
+        <v>62973</v>
       </c>
       <c r="W19">
-        <v>515</v>
+        <v>45064</v>
       </c>
       <c r="X19">
-        <v>1821</v>
+        <v>167696</v>
       </c>
       <c r="Y19">
-        <v>767</v>
+        <v>57963</v>
       </c>
       <c r="Z19">
-        <v>458</v>
+        <v>39737</v>
       </c>
       <c r="AA19">
-        <v>1423</v>
+        <v>101569</v>
       </c>
       <c r="AB19">
-        <v>498</v>
+        <v>38718</v>
       </c>
       <c r="AC19">
-        <v>321</v>
+        <v>23845</v>
       </c>
       <c r="AD19">
-        <v>2610</v>
+        <v>200617</v>
       </c>
       <c r="AE19">
-        <v>3293</v>
+        <v>298996</v>
       </c>
       <c r="AF19">
-        <v>1949</v>
+        <v>155576</v>
       </c>
       <c r="AG19">
-        <v>1424</v>
+        <v>122256</v>
       </c>
       <c r="AH19">
-        <v>2648</v>
+        <v>213067</v>
       </c>
       <c r="AI19">
-        <v>233</v>
+        <v>18814</v>
       </c>
       <c r="AJ19">
-        <v>2017</v>
+        <v>159387</v>
       </c>
       <c r="AK19">
-        <v>469</v>
+        <v>42436</v>
       </c>
       <c r="AL19">
-        <v>1224</v>
+        <v>96564</v>
       </c>
       <c r="AM19">
-        <v>1112</v>
+        <v>81680</v>
       </c>
       <c r="AN19">
-        <v>1817</v>
+        <v>147739</v>
       </c>
       <c r="AO19">
-        <v>1253</v>
+        <v>90368</v>
       </c>
       <c r="AP19">
-        <v>2228</v>
+        <v>158096</v>
       </c>
       <c r="AQ19">
-        <v>1274</v>
+        <v>3742235</v>
       </c>
       <c r="AR19">
-        <v>564</v>
+        <v>114805</v>
       </c>
       <c r="AS19">
-        <v>619</v>
+        <v>48238</v>
       </c>
       <c r="AT19">
-        <v>1665</v>
+        <v>58055</v>
       </c>
       <c r="AU19">
-        <v>1183</v>
+        <v>217241</v>
       </c>
       <c r="AV19">
-        <v>3038</v>
+        <v>126786</v>
       </c>
       <c r="AW19">
-        <v>902</v>
+        <v>313766</v>
       </c>
       <c r="AX19">
-        <v>800</v>
+        <v>74006</v>
       </c>
       <c r="AY19">
-        <v>1654</v>
+        <v>87582</v>
       </c>
       <c r="AZ19">
-        <v>41342</v>
+        <v>159576</v>
       </c>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="2">
-        <v>43465</v>
+        <v>44196</v>
       </c>
       <c r="B20">
-        <v>1310</v>
+        <v>147091</v>
       </c>
       <c r="C20">
-        <v>1793</v>
+        <v>111385</v>
       </c>
       <c r="D20">
-        <v>1914</v>
+        <v>110162</v>
       </c>
       <c r="E20">
-        <v>1071</v>
+        <v>96925</v>
       </c>
       <c r="F20">
-        <v>1296</v>
+        <v>133050</v>
       </c>
       <c r="G20">
-        <v>1675</v>
+        <v>141789</v>
       </c>
       <c r="H20">
-        <v>11035</v>
+        <v>1104023</v>
       </c>
       <c r="I20">
-        <v>1184</v>
+        <v>80430</v>
       </c>
       <c r="J20">
-        <v>1838</v>
+        <v>136549</v>
       </c>
       <c r="K20">
-        <v>1542</v>
+        <v>132139</v>
       </c>
       <c r="L20">
-        <v>2718</v>
+        <v>166583</v>
       </c>
       <c r="M20">
-        <v>1153</v>
+        <v>110589</v>
       </c>
       <c r="N20">
-        <v>439</v>
+        <v>30629</v>
       </c>
       <c r="O20">
-        <v>535</v>
+        <v>46071</v>
       </c>
       <c r="P20">
-        <v>1663</v>
+        <v>138817</v>
       </c>
       <c r="Q20">
-        <v>612</v>
+        <v>49153</v>
       </c>
       <c r="R20">
-        <v>1492</v>
+        <v>104145</v>
       </c>
       <c r="S20">
-        <v>3004</v>
+        <v>280284</v>
       </c>
       <c r="T20">
-        <v>2295</v>
+        <v>202401</v>
       </c>
       <c r="U20">
-        <v>1735</v>
+        <v>128285</v>
       </c>
       <c r="V20">
-        <v>1003</v>
+        <v>62091</v>
       </c>
       <c r="W20">
-        <v>522</v>
+        <v>45032</v>
       </c>
       <c r="X20">
-        <v>1750</v>
+        <v>168087</v>
       </c>
       <c r="Y20">
-        <v>702</v>
+        <v>58055</v>
       </c>
       <c r="Z20">
-        <v>463</v>
+        <v>39621</v>
       </c>
       <c r="AA20">
-        <v>1395</v>
+        <v>101161</v>
       </c>
       <c r="AB20">
-        <v>428</v>
+        <v>38567</v>
       </c>
       <c r="AC20">
-        <v>325</v>
+        <v>23800</v>
       </c>
       <c r="AD20">
-        <v>2456</v>
+        <v>198920</v>
       </c>
       <c r="AE20">
-        <v>3257</v>
+        <v>296945</v>
       </c>
       <c r="AF20">
-        <v>1852</v>
+        <v>155200</v>
       </c>
       <c r="AG20">
-        <v>1333</v>
+        <v>122969</v>
       </c>
       <c r="AH20">
-        <v>2586</v>
+        <v>213190</v>
       </c>
       <c r="AI20">
-        <v>228</v>
+        <v>18579</v>
       </c>
       <c r="AJ20">
-        <v>2036</v>
+        <v>158926</v>
       </c>
       <c r="AK20">
-        <v>435</v>
+        <v>42338</v>
       </c>
       <c r="AL20">
-        <v>1220</v>
+        <v>96156</v>
       </c>
       <c r="AM20">
-        <v>1065</v>
+        <v>80916</v>
       </c>
       <c r="AN20">
-        <v>1870</v>
+        <v>147290</v>
       </c>
       <c r="AO20">
-        <v>1137</v>
+        <v>90217</v>
       </c>
       <c r="AP20">
-        <v>2026</v>
+        <v>157572</v>
       </c>
       <c r="AQ20">
-        <v>1276</v>
+        <v>3738901</v>
       </c>
       <c r="AR20">
-        <v>529</v>
+        <v>120114</v>
       </c>
       <c r="AS20">
-        <v>567</v>
+        <v>49961</v>
       </c>
       <c r="AT20">
-        <v>1580</v>
+        <v>59441</v>
       </c>
       <c r="AU20">
-        <v>1176</v>
+        <v>220683</v>
       </c>
       <c r="AV20">
-        <v>2822</v>
+        <v>126829</v>
       </c>
       <c r="AW20">
-        <v>860</v>
+        <v>315162</v>
       </c>
       <c r="AX20">
-        <v>781</v>
+        <v>73758</v>
       </c>
       <c r="AY20">
-        <v>1522</v>
+        <v>87691</v>
       </c>
       <c r="AZ20">
-        <v>39887</v>
+        <v>159893</v>
       </c>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="2">
-        <v>43830</v>
+        <v>44561</v>
       </c>
       <c r="B21">
-        <v>1421</v>
+        <v>146582</v>
       </c>
       <c r="C21">
-        <v>1813</v>
+        <v>110868</v>
       </c>
       <c r="D21">
-        <v>1931</v>
+        <v>109447</v>
       </c>
       <c r="E21">
-        <v>1102</v>
+        <v>96133</v>
       </c>
       <c r="F21">
-        <v>1346</v>
+        <v>131875</v>
       </c>
       <c r="G21">
-        <v>1822</v>
+        <v>140838</v>
       </c>
       <c r="H21">
-        <v>11340</v>
+        <v>1096665</v>
       </c>
       <c r="I21">
-        <v>1187</v>
+        <v>79597</v>
       </c>
       <c r="J21">
-        <v>1933</v>
+        <v>135412</v>
       </c>
       <c r="K21">
-        <v>1616</v>
+        <v>131426</v>
       </c>
       <c r="L21">
-        <v>2764</v>
+        <v>164544</v>
       </c>
       <c r="M21">
-        <v>1233</v>
+        <v>110273</v>
       </c>
       <c r="N21">
-        <v>436</v>
+        <v>30292</v>
       </c>
       <c r="O21">
-        <v>581</v>
+        <v>45517</v>
       </c>
       <c r="P21">
-        <v>1771</v>
+        <v>137455</v>
       </c>
       <c r="Q21">
-        <v>682</v>
+        <v>48788</v>
       </c>
       <c r="R21">
-        <v>1625</v>
+        <v>102815</v>
       </c>
       <c r="S21">
-        <v>3253</v>
+        <v>278504</v>
       </c>
       <c r="T21">
-        <v>2350</v>
+        <v>201204</v>
       </c>
       <c r="U21">
-        <v>1760</v>
+        <v>127285</v>
       </c>
       <c r="V21">
-        <v>1010</v>
+        <v>61245</v>
       </c>
       <c r="W21">
-        <v>556</v>
+        <v>44877</v>
       </c>
       <c r="X21">
-        <v>1817</v>
+        <v>167121</v>
       </c>
       <c r="Y21">
-        <v>772</v>
+        <v>57742</v>
       </c>
       <c r="Z21">
-        <v>477</v>
+        <v>39565</v>
       </c>
       <c r="AA21">
-        <v>1379</v>
+        <v>100639</v>
       </c>
       <c r="AB21">
-        <v>473</v>
+        <v>38435</v>
       </c>
       <c r="AC21">
-        <v>329</v>
+        <v>23732</v>
       </c>
       <c r="AD21">
-        <v>2650</v>
+        <v>197233</v>
       </c>
       <c r="AE21">
-        <v>3376</v>
+        <v>295119</v>
       </c>
       <c r="AF21">
-        <v>1979</v>
+        <v>154318</v>
       </c>
       <c r="AG21">
-        <v>1388</v>
+        <v>122674</v>
       </c>
       <c r="AH21">
-        <v>2749</v>
+        <v>212225</v>
       </c>
       <c r="AI21">
-        <v>230</v>
+        <v>18360</v>
       </c>
       <c r="AJ21">
-        <v>2077</v>
+        <v>157779</v>
       </c>
       <c r="AK21">
-        <v>499</v>
+        <v>42197</v>
       </c>
       <c r="AL21">
-        <v>1289</v>
+        <v>95607</v>
       </c>
       <c r="AM21">
-        <v>1109</v>
+        <v>80080</v>
       </c>
       <c r="AN21">
-        <v>1845</v>
+        <v>146702</v>
       </c>
       <c r="AO21">
-        <v>1207</v>
+        <v>90002</v>
       </c>
       <c r="AP21">
-        <v>2094</v>
+        <v>156954</v>
       </c>
       <c r="AQ21">
-        <v>1247</v>
+        <v>3736737</v>
       </c>
       <c r="AR21">
-        <v>497</v>
+        <v>119940</v>
       </c>
       <c r="AS21">
-        <v>644</v>
+        <v>49845</v>
       </c>
       <c r="AT21">
-        <v>1762</v>
+        <v>59370</v>
       </c>
       <c r="AU21">
-        <v>1189</v>
+        <v>221098</v>
       </c>
       <c r="AV21">
-        <v>3013</v>
+        <v>126750</v>
       </c>
       <c r="AW21">
-        <v>942</v>
+        <v>315393</v>
       </c>
       <c r="AX21">
-        <v>795</v>
+        <v>73521</v>
       </c>
       <c r="AY21">
-        <v>1668</v>
+        <v>87829</v>
       </c>
       <c r="AZ21">
-        <v>41062</v>
+        <v>160023</v>
       </c>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="2">
-        <v>44196</v>
+        <v>44926</v>
       </c>
       <c r="B22">
-        <v>1806</v>
+        <v>146860.9238604901</v>
       </c>
       <c r="C22">
-        <v>2125</v>
+        <v>110741.3714592522</v>
       </c>
       <c r="D22">
-        <v>2009</v>
+        <v>109004.041572947</v>
       </c>
       <c r="E22">
-        <v>1317</v>
+        <v>95863.53314925663</v>
       </c>
       <c r="F22">
-        <v>1453</v>
+        <v>131365.6154893825</v>
       </c>
       <c r="G22">
-        <v>2057</v>
+        <v>140693.2863762371</v>
       </c>
       <c r="H22">
-        <v>12711</v>
+        <v>1096100.922334843</v>
       </c>
       <c r="I22">
-        <v>1363</v>
+        <v>79450.42902796085</v>
       </c>
       <c r="J22">
-        <v>2313</v>
+        <v>134708.4426153357</v>
       </c>
       <c r="K22">
-        <v>1934</v>
+        <v>131254.7175788978</v>
       </c>
       <c r="L22">
-        <v>3218</v>
+        <v>162423.4940127684</v>
       </c>
       <c r="M22">
-        <v>1386</v>
+        <v>110010.0194940706</v>
       </c>
       <c r="N22">
-        <v>578</v>
+        <v>30235.58840252708</v>
       </c>
       <c r="O22">
-        <v>671</v>
+        <v>45140.64009617073</v>
       </c>
       <c r="P22">
-        <v>1873</v>
+        <v>136520.4556382824</v>
       </c>
       <c r="Q22">
-        <v>686</v>
+        <v>48437.11673044704</v>
       </c>
       <c r="R22">
-        <v>1752</v>
+        <v>100851.1032779759</v>
       </c>
       <c r="S22">
-        <v>3387</v>
+        <v>277376.3299446683</v>
       </c>
       <c r="T22">
-        <v>2667</v>
+        <v>200995.7682883042</v>
       </c>
       <c r="U22">
-        <v>1922</v>
+        <v>126406.1728383695</v>
       </c>
       <c r="V22">
-        <v>1019</v>
+        <v>60508.5164359452</v>
       </c>
       <c r="W22">
-        <v>596</v>
+        <v>44787.08291923264</v>
       </c>
       <c r="X22">
-        <v>1829</v>
+        <v>167175.9245604273</v>
       </c>
       <c r="Y22">
-        <v>765</v>
+        <v>57611.91641756384</v>
       </c>
       <c r="Z22">
-        <v>471</v>
+        <v>39449.6671808598</v>
       </c>
       <c r="AA22">
-        <v>1370</v>
+        <v>100231.823435187</v>
       </c>
       <c r="AB22">
-        <v>464</v>
+        <v>38315.61942026629</v>
       </c>
       <c r="AC22">
-        <v>346</v>
+        <v>23649.41875678158</v>
       </c>
       <c r="AD22">
-        <v>2667</v>
+        <v>198891.9939896084</v>
       </c>
       <c r="AE22">
-        <v>3377</v>
+        <v>295833.2023065714</v>
       </c>
       <c r="AF22">
-        <v>2025</v>
+        <v>153833.7700831205</v>
       </c>
       <c r="AG22">
-        <v>1392</v>
+        <v>122975.6798509325</v>
       </c>
       <c r="AH22">
-        <v>2601</v>
+        <v>212143.0431343724</v>
       </c>
       <c r="AI22">
-        <v>236</v>
+        <v>18058.06554261291</v>
       </c>
       <c r="AJ22">
-        <v>2097</v>
+        <v>157180.2465362438</v>
       </c>
       <c r="AK22">
-        <v>493</v>
+        <v>41788.84700406165</v>
       </c>
       <c r="AL22">
-        <v>1274</v>
+        <v>95077.20727264504</v>
       </c>
       <c r="AM22">
-        <v>1233</v>
+        <v>79031.88993579005</v>
       </c>
       <c r="AN22">
-        <v>1868</v>
+        <v>147255.6940724885</v>
       </c>
       <c r="AO22">
-        <v>1112</v>
+        <v>90524.64475086654</v>
       </c>
       <c r="AP22">
-        <v>2084</v>
+        <v>156315.9516249368</v>
       </c>
       <c r="AQ22">
-        <v>1300</v>
+        <v>3745099.370001487</v>
       </c>
       <c r="AR22">
-        <v>522</v>
+        <v>129710.5123609495</v>
       </c>
       <c r="AS22">
-        <v>605</v>
+        <v>49552.11336743073</v>
       </c>
       <c r="AT22">
-        <v>1716</v>
+        <v>64968.50606911878</v>
       </c>
       <c r="AU22">
-        <v>1252</v>
+        <v>224794.0220614157</v>
       </c>
       <c r="AV22">
-        <v>3002</v>
+        <v>126546.1969434883</v>
       </c>
       <c r="AW22">
-        <v>885</v>
+        <v>316184.5414649916</v>
       </c>
       <c r="AX22">
-        <v>819</v>
+        <v>73309.47541731605</v>
       </c>
       <c r="AY22">
-        <v>1659</v>
+        <v>87842.86259541099</v>
       </c>
       <c r="AZ22">
-        <v>42362</v>
+        <v>160190.9587306599</v>
       </c>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="2">
-        <v>44561</v>
+        <v>45291</v>
       </c>
       <c r="B23">
-        <v>1728.348129573486</v>
+        <v>146383.7053245305</v>
       </c>
       <c r="C23">
-        <v>2162.973798025148</v>
+        <v>110524.725014023</v>
       </c>
       <c r="D23">
-        <v>19536.42757995087</v>
+        <v>108613.8071067752</v>
       </c>
       <c r="E23">
-        <v>1235.39601553023</v>
+        <v>95831.09406685244</v>
       </c>
       <c r="F23">
-        <v>1379.032120810075</v>
+        <v>130783.8169328959</v>
       </c>
       <c r="G23">
-        <v>1896.318692382041</v>
+        <v>140734.0971598063</v>
       </c>
       <c r="H23">
-        <v>12530.17701161061</v>
+        <v>1095570.782525318</v>
       </c>
       <c r="I23">
-        <v>1265.63400812691</v>
+        <v>79541.65060199823</v>
       </c>
       <c r="J23">
-        <v>2321.94736651506</v>
+        <v>133488.8327927733</v>
       </c>
       <c r="K23">
-        <v>1982.083400220302</v>
+        <v>131226.5257008813</v>
       </c>
       <c r="L23">
-        <v>2754.675921895158</v>
+        <v>160440.6303039804</v>
       </c>
       <c r="M23">
-        <v>1340.457477885407</v>
+        <v>109822.956534324</v>
       </c>
       <c r="N23">
-        <v>480.9388081848145</v>
+        <v>30131.87588724079</v>
       </c>
       <c r="O23">
-        <v>523.7940626648025</v>
+        <v>44864.61498616282</v>
       </c>
       <c r="P23">
-        <v>1861.737038593215</v>
+        <v>135747.6680474117</v>
       </c>
       <c r="Q23">
-        <v>645.8583040926047</v>
+        <v>48066.05638781896</v>
       </c>
       <c r="R23">
-        <v>1742.787458156606</v>
+        <v>98939.85994441286</v>
       </c>
       <c r="S23">
-        <v>3419.027307092522</v>
+        <v>276396.4658089589</v>
       </c>
       <c r="T23">
-        <v>-9561.413960931612</v>
+        <v>200858.1846478112</v>
       </c>
       <c r="U23">
-        <v>1823.625787864029</v>
+        <v>125310.289474522</v>
       </c>
       <c r="V23">
-        <v>1025.775688096832</v>
+        <v>60403.43695819067</v>
       </c>
       <c r="W23">
-        <v>583.8720921610387</v>
+        <v>44722.09621835312</v>
       </c>
       <c r="X23">
-        <v>1824.571843650917</v>
+        <v>167269.3807023302</v>
       </c>
       <c r="Y23">
-        <v>783.0481654800922</v>
+        <v>57558.83895642264</v>
       </c>
       <c r="Z23">
-        <v>479.8368772275985</v>
+        <v>39273.79430194767</v>
       </c>
       <c r="AA23">
-        <v>1386.404770268965</v>
+        <v>99806.34229797473</v>
       </c>
       <c r="AB23">
-        <v>470.6240776201712</v>
+        <v>38238.73130332309</v>
       </c>
       <c r="AC23">
-        <v>338.2727694552711</v>
+        <v>23559.43779090189</v>
       </c>
       <c r="AD23">
-        <v>2846.809375044032</v>
+        <v>197745.5416932004</v>
       </c>
       <c r="AE23">
-        <v>3385.686389280748</v>
+        <v>296699.730461737</v>
       </c>
       <c r="AF23">
-        <v>1996.961728266883</v>
+        <v>153461.9216593544</v>
       </c>
       <c r="AG23">
-        <v>1342.670114961059</v>
+        <v>123184.4304518776</v>
       </c>
       <c r="AH23">
-        <v>2542.921818231707</v>
+        <v>212043.6029977726</v>
       </c>
       <c r="AI23">
-        <v>232.9743899596596</v>
+        <v>17691.30639305867</v>
       </c>
       <c r="AJ23">
-        <v>2105.170219392845</v>
+        <v>156528.7074832169</v>
       </c>
       <c r="AK23">
-        <v>519.0510790359647</v>
+        <v>41432.0522431538</v>
       </c>
       <c r="AL23">
-        <v>1275.493050252995</v>
+        <v>94556.14449535296</v>
       </c>
       <c r="AM23">
-        <v>1186.488368241415</v>
+        <v>78030.0415844965</v>
       </c>
       <c r="AN23">
-        <v>1830.693716902425</v>
+        <v>147395.3601283491</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>91261.11809341212</v>
       </c>
       <c r="AP23">
-        <v>2090.303255984334</v>
+        <v>155557.4071444515</v>
       </c>
       <c r="AQ23">
-        <v>1273.486086136025</v>
+        <v>3745346.45583917</v>
       </c>
       <c r="AR23">
-        <v>496.0020408378851</v>
+        <v>128756.521221135</v>
       </c>
       <c r="AS23">
-        <v>583.2082857108668</v>
+        <v>50566.53114671805</v>
       </c>
       <c r="AT23">
-        <v>1765.288321133686</v>
+        <v>61688.58296713886</v>
       </c>
       <c r="AU23">
-        <v>1227.996443972967</v>
+        <v>228382.6123467354</v>
       </c>
       <c r="AV23">
-        <v>2958.42104014096</v>
+        <v>126594.179574419</v>
       </c>
       <c r="AW23">
-        <v>929.1691817283336</v>
+        <v>316968.7386319357</v>
       </c>
       <c r="AX23">
-        <v>708.023749634433</v>
+        <v>73147.84892003442</v>
       </c>
       <c r="AY23">
-        <v>1616.572711261415</v>
+        <v>87870.10900845745</v>
       </c>
       <c r="AZ23">
-        <v>42336.61512979856</v>
+        <v>160396.4565784879</v>
       </c>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="2">
-        <v>44926</v>
+        <v>45657</v>
       </c>
       <c r="B24">
-        <v>1921.54555776659</v>
+        <v>146722.2270654734</v>
       </c>
       <c r="C24">
-        <v>2339.898379798753</v>
+        <v>110243.9039361478</v>
       </c>
       <c r="D24">
-        <v>2150.643039340763</v>
+        <v>108308.9797239099</v>
       </c>
       <c r="E24">
-        <v>1416.200287078104</v>
+        <v>95693.25491508625</v>
       </c>
       <c r="F24">
-        <v>1419.315411017809</v>
+        <v>130446.0645387907</v>
       </c>
       <c r="G24">
-        <v>1907.060260345429</v>
+        <v>140652.5763361099</v>
       </c>
       <c r="H24">
-        <v>12774.87090328565</v>
+        <v>1095173.841952872</v>
       </c>
       <c r="I24">
-        <v>1275.467576096748</v>
+        <v>79210.80935642944</v>
       </c>
       <c r="J24">
-        <v>2592.323882451783</v>
+        <v>132376.4113085619</v>
       </c>
       <c r="K24">
-        <v>2032.347525613197</v>
+        <v>131122.641592768</v>
       </c>
       <c r="L24">
-        <v>2944.477332656216</v>
+        <v>157998.5319208159</v>
       </c>
       <c r="M24">
-        <v>1346.278252811371</v>
+        <v>109626.5254724182</v>
       </c>
       <c r="N24">
-        <v>472.9778599804466</v>
+        <v>29889.14593111708</v>
       </c>
       <c r="O24">
-        <v>702.3748171471598</v>
+        <v>44540.70910500841</v>
       </c>
       <c r="P24">
-        <v>1992.673367583914</v>
+        <v>134589.7761734697</v>
       </c>
       <c r="Q24">
-        <v>676.7803667522553</v>
+        <v>47660.93770809925</v>
       </c>
       <c r="R24">
-        <v>1659.583862906983</v>
+        <v>96955.9725073712</v>
       </c>
       <c r="S24">
-        <v>3549.958651772411</v>
+        <v>275339.3103125905</v>
       </c>
       <c r="T24">
-        <v>-9632.340585330472</v>
+        <v>200719.4331690476</v>
       </c>
       <c r="U24">
-        <v>1897.319519103074</v>
+        <v>124085.4612163845</v>
       </c>
       <c r="V24">
-        <v>1048.10498486602</v>
+        <v>60528.64409372336</v>
       </c>
       <c r="W24">
-        <v>599.9732025084654</v>
+        <v>44642.48466963425</v>
       </c>
       <c r="X24">
-        <v>1826.348019928516</v>
+        <v>167232.1766273492</v>
       </c>
       <c r="Y24">
-        <v>791.579023729659</v>
+        <v>57488.8940117748</v>
       </c>
       <c r="Z24">
-        <v>479.3674322332225</v>
+        <v>39036.90365479597</v>
       </c>
       <c r="AA24">
-        <v>1392.337607153223</v>
+        <v>99463.64045194363</v>
       </c>
       <c r="AB24">
-        <v>467.5990941342494</v>
+        <v>38187.79003951456</v>
       </c>
       <c r="AC24">
-        <v>341.9602723006401</v>
+        <v>23573.75834655551</v>
       </c>
       <c r="AD24">
-        <v>2698.828655883309</v>
+        <v>198090.7637741855</v>
       </c>
       <c r="AE24">
-        <v>3468.888424708941</v>
+        <v>296605.9634062066</v>
       </c>
       <c r="AF24">
-        <v>2021.551089299119</v>
+        <v>152969.8216368526</v>
       </c>
       <c r="AG24">
-        <v>1384.81961303182</v>
+        <v>123639.7893436949</v>
       </c>
       <c r="AH24">
-        <v>2764.906632851035</v>
+        <v>211976.3578653665</v>
       </c>
       <c r="AI24">
-        <v>233.0654868108693</v>
+        <v>17302.35687245309</v>
       </c>
       <c r="AJ24">
-        <v>2117.107943784448</v>
+        <v>155844.2575840336</v>
       </c>
       <c r="AK24">
-        <v>477.9811176648158</v>
+        <v>40729.53968715455</v>
       </c>
       <c r="AL24">
-        <v>1277.77814531993</v>
+        <v>93941.96602115165</v>
       </c>
       <c r="AM24">
-        <v>1179.633409493737</v>
+        <v>77150.94417408999</v>
       </c>
       <c r="AN24">
-        <v>1899.963463678108</v>
+        <v>148021.0086810608</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>92127.71099820649</v>
       </c>
       <c r="AP24">
-        <v>2086.33015238393</v>
+        <v>154731.8911547131</v>
       </c>
       <c r="AQ24">
-        <v>1222.995784325816</v>
+        <v>3754637.793472702</v>
       </c>
       <c r="AR24">
-        <v>490.1693289874133</v>
+        <v>139532.7794068072</v>
       </c>
       <c r="AS24">
-        <v>624.6332931487939</v>
+        <v>47293.81292869906</v>
       </c>
       <c r="AT24">
-        <v>1740.955326595138</v>
+        <v>65570.48247443025</v>
       </c>
       <c r="AU24">
-        <v>1235.003150497789</v>
+        <v>232234.2795643724</v>
       </c>
       <c r="AV24">
-        <v>3021.17309438906</v>
+        <v>126473.3751243004</v>
       </c>
       <c r="AW24">
-        <v>882.6336677782332</v>
+        <v>317905.8981995674</v>
       </c>
       <c r="AX24">
-        <v>732.7016240638907</v>
+        <v>72959.15135927068</v>
       </c>
       <c r="AY24">
-        <v>1627.542291022284</v>
+        <v>87886.98424317499</v>
       </c>
       <c r="AZ24">
-        <v>42991.33560764467</v>
+        <v>160744.8822772299</v>
       </c>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="2">
-        <v>45291</v>
+        <v>46022</v>
       </c>
       <c r="B25">
-        <v>1776.278110493245</v>
+        <v>146108.2488271378</v>
       </c>
       <c r="C25">
-        <v>2485.91095234054</v>
+        <v>110159.710896976</v>
       </c>
       <c r="D25">
-        <v>21342.25380984863</v>
+        <v>108100.3001141599</v>
       </c>
       <c r="E25">
-        <v>1443.709904799191</v>
+        <v>95665.43977180264</v>
       </c>
       <c r="F25">
-        <v>1434.714757144523</v>
+        <v>130371.1316396573</v>
       </c>
       <c r="G25">
-        <v>2004.791467130346</v>
+        <v>140561.6946146624</v>
       </c>
       <c r="H25">
-        <v>13251.58795009498</v>
+        <v>1094529.965899883</v>
       </c>
       <c r="I25">
-        <v>1381.628654516115</v>
+        <v>79125.22955274867</v>
       </c>
       <c r="J25">
-        <v>2688.519766969632</v>
+        <v>131652.2356724114</v>
       </c>
       <c r="K25">
-        <v>2198.108338241946</v>
+        <v>130945.5666150379</v>
       </c>
       <c r="L25">
-        <v>2968.551106786491</v>
+        <v>155605.1655012509</v>
       </c>
       <c r="M25">
-        <v>1359.797064509976</v>
+        <v>109567.534280991</v>
       </c>
       <c r="N25">
-        <v>502.8815093375051</v>
+        <v>29914.64806496911</v>
       </c>
       <c r="O25">
-        <v>578.8445136900475</v>
+        <v>44215.01862215946</v>
       </c>
       <c r="P25">
-        <v>2038.674744462076</v>
+        <v>133379.305473593</v>
       </c>
       <c r="Q25">
-        <v>681.7611155497698</v>
+        <v>47177.80468748457</v>
       </c>
       <c r="R25">
-        <v>1586.889187004136</v>
+        <v>95043.40469185644</v>
       </c>
       <c r="S25">
-        <v>3677.635699320395</v>
+        <v>274666.2763965572</v>
       </c>
       <c r="T25">
-        <v>-9827.49314136945</v>
+        <v>200598.187017926</v>
       </c>
       <c r="U25">
-        <v>1885.84107885935</v>
+        <v>122819.8712166447</v>
       </c>
       <c r="V25">
-        <v>1045.644283929787</v>
+        <v>61666.11298169887</v>
       </c>
       <c r="W25">
-        <v>600.7896955224529</v>
+        <v>44580.59996452603</v>
       </c>
       <c r="X25">
-        <v>1805.582387866124</v>
+        <v>167301.2455009462</v>
       </c>
       <c r="Y25">
-        <v>796.7017495767017</v>
+        <v>57462.88692191682</v>
       </c>
       <c r="Z25">
-        <v>484.7353094711903</v>
+        <v>38775.52355874547</v>
       </c>
       <c r="AA25">
-        <v>1402.587010873265</v>
+        <v>99097.40534403591</v>
       </c>
       <c r="AB25">
-        <v>470.5339120898096</v>
+        <v>38137.65113079173</v>
       </c>
       <c r="AC25">
-        <v>344.5810488408421</v>
+        <v>23611.23335741887</v>
       </c>
       <c r="AD25">
-        <v>2849.808666546373</v>
+        <v>198511.7048485601</v>
       </c>
       <c r="AE25">
-        <v>3442.394455307559</v>
+        <v>296837.0620417067</v>
       </c>
       <c r="AF25">
-        <v>2059.114283566666</v>
+        <v>152537.470672456</v>
       </c>
       <c r="AG25">
-        <v>1296.342725096205</v>
+        <v>124095.8648816402</v>
       </c>
       <c r="AH25">
-        <v>2760.826586569024</v>
+        <v>211940.1568495925</v>
       </c>
       <c r="AI25">
-        <v>233.9353409403062</v>
+        <v>16878.02025655959</v>
       </c>
       <c r="AJ25">
-        <v>2127.845807047004</v>
+        <v>155125.7307731582</v>
       </c>
       <c r="AK25">
-        <v>488.4804312855521</v>
+        <v>40031.04456479382</v>
       </c>
       <c r="AL25">
-        <v>1301.677884253029</v>
+        <v>93278.15011555684</v>
       </c>
       <c r="AM25">
-        <v>1212.204795673805</v>
+        <v>76136.7329782444</v>
       </c>
       <c r="AN25">
-        <v>1891.564068585405</v>
+        <v>148174.2682236053</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>93126.91858249664</v>
       </c>
       <c r="AP25">
-        <v>2088.834501288492</v>
+        <v>153870.0100485103</v>
       </c>
       <c r="AQ25">
-        <v>1237.853735788604</v>
+        <v>3753119.025415862</v>
       </c>
       <c r="AR25">
-        <v>496.0608667413972</v>
+        <v>144602.4615680308</v>
       </c>
       <c r="AS25">
-        <v>600.1593997523632</v>
+        <v>51433.18089916749</v>
       </c>
       <c r="AT25">
-        <v>1815.529368143417</v>
+        <v>66863.49167372086</v>
       </c>
       <c r="AU25">
-        <v>1244.490142525488</v>
+        <v>236067.4091038693</v>
       </c>
       <c r="AV25">
-        <v>2977.475310995551</v>
+        <v>126329.9213630625</v>
       </c>
       <c r="AW25">
-        <v>953.5661675613017</v>
+        <v>318886.4256492912</v>
       </c>
       <c r="AX25">
-        <v>689.3301025056406</v>
+        <v>72803.30095881816</v>
       </c>
       <c r="AY25">
-        <v>1630.493514149199</v>
+        <v>87958.55370122894</v>
       </c>
       <c r="AZ25">
-        <v>43297.07073411818</v>
+        <v>161057.911445234</v>
       </c>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="2">
-        <v>45657</v>
+        <v>46387</v>
       </c>
       <c r="B26">
-        <v>1830.179025915244</v>
+        <v>146542.8496618608</v>
       </c>
       <c r="C26">
-        <v>2671.197652871331</v>
+        <v>109966.1231329167</v>
       </c>
       <c r="D26">
-        <v>2326.080731863627</v>
+        <v>107991.7250634702</v>
       </c>
       <c r="E26">
-        <v>1361.994760091937</v>
+        <v>95377.29457861721</v>
       </c>
       <c r="F26">
-        <v>1450.114107670549</v>
+        <v>130350.253622847</v>
       </c>
       <c r="G26">
-        <v>1988.835717230747</v>
+        <v>140548.0080056936</v>
       </c>
       <c r="H26">
-        <v>13700.73203469807</v>
+        <v>1094379.526061917</v>
       </c>
       <c r="I26">
-        <v>1297.242915054472</v>
+        <v>79030.80993859636</v>
       </c>
       <c r="J26">
-        <v>2765.963024202534</v>
+        <v>130609.7243620297</v>
       </c>
       <c r="K26">
-        <v>2345.129019995795</v>
+        <v>130713.0914013983</v>
       </c>
       <c r="L26">
-        <v>3060.860959639265</v>
+        <v>152760.0897394826</v>
       </c>
       <c r="M26">
-        <v>1364.337809150012</v>
+        <v>109425.1313155007</v>
       </c>
       <c r="N26">
-        <v>445.6135729959259</v>
+        <v>29689.16073161973</v>
       </c>
       <c r="O26">
-        <v>664.1511893078132</v>
+        <v>43963.58313883007</v>
       </c>
       <c r="P26">
-        <v>2148.526696635226</v>
+        <v>132500.8197599183</v>
       </c>
       <c r="Q26">
-        <v>706.3212207456656</v>
+        <v>46740.57244042969</v>
       </c>
       <c r="R26">
-        <v>1676.565325958104</v>
+        <v>92819.68740713006</v>
       </c>
       <c r="S26">
-        <v>3878.738834829795</v>
+        <v>273829.4235236168</v>
       </c>
       <c r="T26">
-        <v>-9621.368127398222</v>
+        <v>200563.8226136002</v>
       </c>
       <c r="U26">
-        <v>1864.955862628916</v>
+        <v>121556.5448388918</v>
       </c>
       <c r="V26">
-        <v>1074.371049416554</v>
+        <v>63351.59695876882</v>
       </c>
       <c r="W26">
-        <v>609.8843963048764</v>
+        <v>44525.715149335</v>
       </c>
       <c r="X26">
-        <v>1860.26325662507</v>
+        <v>167304.1364194145</v>
       </c>
       <c r="Y26">
-        <v>813.4547833204003</v>
+        <v>57410.8662918428</v>
       </c>
       <c r="Z26">
-        <v>486.4417692306448</v>
+        <v>38477.35866055691</v>
       </c>
       <c r="AA26">
-        <v>1411.057110947716</v>
+        <v>98785.21190097394</v>
       </c>
       <c r="AB26">
-        <v>469.7883910811748</v>
+        <v>38117.48742825599</v>
       </c>
       <c r="AC26">
-        <v>346.6542408688682</v>
+        <v>23660.41594360932</v>
       </c>
       <c r="AD26">
-        <v>2724.255476138332</v>
+        <v>198530.9648593781</v>
       </c>
       <c r="AE26">
-        <v>3528.375068229831</v>
+        <v>297779.0312062553</v>
       </c>
       <c r="AF26">
-        <v>2083.073966052755</v>
+        <v>152080.4168369904</v>
       </c>
       <c r="AG26">
-        <v>1341.665946672603</v>
+        <v>124535.881879247</v>
       </c>
       <c r="AH26">
-        <v>2817.890948370609</v>
+        <v>211950.721739624</v>
       </c>
       <c r="AI26">
-        <v>233.5519297794959</v>
+        <v>16433.10902791479</v>
       </c>
       <c r="AJ26">
-        <v>2138.965797666915</v>
+        <v>154376.4835806435</v>
       </c>
       <c r="AK26">
-        <v>481.9224972258666</v>
+        <v>39396.91915460328</v>
       </c>
       <c r="AL26">
-        <v>1313.553882477548</v>
+        <v>92575.4572464446</v>
       </c>
       <c r="AM26">
-        <v>1277.108654132626</v>
+        <v>75057.75166616224</v>
       </c>
       <c r="AN26">
-        <v>1939.37652830736</v>
+        <v>148862.0214963296</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>94094.27534350628</v>
       </c>
       <c r="AP26">
-        <v>2087.255946066538</v>
+        <v>153095.5554815493</v>
       </c>
       <c r="AQ26">
-        <v>1222.572587652577</v>
+        <v>3762356.887203916</v>
       </c>
       <c r="AR26">
-        <v>490.3904248143676</v>
+        <v>148075.1505649603</v>
       </c>
       <c r="AS26">
-        <v>615.5905019731297</v>
+        <v>53505.70560213138</v>
       </c>
       <c r="AT26">
-        <v>1881.860290802424</v>
+        <v>70219.6600630983</v>
       </c>
       <c r="AU26">
-        <v>1257.747096309966</v>
+        <v>240130.8863930474</v>
       </c>
       <c r="AV26">
-        <v>2978.93619703247</v>
+        <v>126137.9354264278</v>
       </c>
       <c r="AW26">
-        <v>906.981894259629</v>
+        <v>319938.3335977648</v>
       </c>
       <c r="AX26">
-        <v>696.2044629126042</v>
+        <v>72621.69845588143</v>
       </c>
       <c r="AY26">
-        <v>1687.70504343227</v>
+        <v>87979.48508331712</v>
       </c>
       <c r="AZ26">
-        <v>43781.88474860421</v>
+        <v>161336.3470298111</v>
       </c>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="2">
-        <v>46022</v>
+        <v>46752</v>
       </c>
       <c r="B27">
-        <v>2214.030711852054</v>
+        <v>145918.2880841189</v>
       </c>
       <c r="C27">
-        <v>2866.590239773503</v>
+        <v>109867.3001824866</v>
       </c>
       <c r="D27">
-        <v>23114.84943265772</v>
+        <v>107983.2704038874</v>
       </c>
       <c r="E27">
-        <v>1494.947871006993</v>
+        <v>95277.79052654034</v>
       </c>
       <c r="F27">
-        <v>1465.513462595605</v>
+        <v>130482.3760675268</v>
       </c>
       <c r="G27">
-        <v>2026.597589547459</v>
+        <v>140402.1892121203</v>
       </c>
       <c r="H27">
-        <v>14645.00403927112</v>
+        <v>1093922.229462951</v>
       </c>
       <c r="I27">
-        <v>1347.383348825813</v>
+        <v>78696.80848891726</v>
       </c>
       <c r="J27">
-        <v>3008.873662419421</v>
+        <v>129383.4038900157</v>
       </c>
       <c r="K27">
-        <v>2477.424939499498</v>
+        <v>130446.3848199094</v>
       </c>
       <c r="L27">
-        <v>3133.887751130998</v>
+        <v>150187.536442845</v>
       </c>
       <c r="M27">
-        <v>1420.229143834057</v>
+        <v>109349.5284846964</v>
       </c>
       <c r="N27">
-        <v>492.8813086614572</v>
+        <v>29687.30212817875</v>
       </c>
       <c r="O27">
-        <v>637.7206134005872</v>
+        <v>43763.18090017378</v>
       </c>
       <c r="P27">
-        <v>2284.282400739478</v>
+        <v>130974.7043369198</v>
       </c>
       <c r="Q27">
-        <v>665.4506447052145</v>
+        <v>46281.33475660498</v>
       </c>
       <c r="R27">
-        <v>1769.75461288793</v>
+        <v>90599.97032173345</v>
       </c>
       <c r="S27">
-        <v>3913.935237945778</v>
+        <v>272636.0823681393</v>
       </c>
       <c r="T27">
-        <v>-9533.068456418032</v>
+        <v>200504.8309068903</v>
       </c>
       <c r="U27">
-        <v>1856.520552938929</v>
+        <v>120094.5003207311</v>
       </c>
       <c r="V27">
-        <v>1072.538863227887</v>
+        <v>66176.30832230375</v>
       </c>
       <c r="W27">
-        <v>614.4979278721576</v>
+        <v>44468.30677317278</v>
       </c>
       <c r="X27">
-        <v>1826.709797057737</v>
+        <v>167298.4088658538</v>
       </c>
       <c r="Y27">
-        <v>813.6102161651226</v>
+        <v>57300.61459701139</v>
       </c>
       <c r="Z27">
-        <v>490.4448261999779</v>
+        <v>38168.05761630496</v>
       </c>
       <c r="AA27">
-        <v>1420.260646083792</v>
+        <v>98454.54513726136</v>
       </c>
       <c r="AB27">
-        <v>471.316347218735</v>
+        <v>38074.83277945001</v>
       </c>
       <c r="AC27">
-        <v>348.4463488762745</v>
+        <v>23666.57010954638</v>
       </c>
       <c r="AD27">
-        <v>2854.622763883706</v>
+        <v>198274.1773858769</v>
       </c>
       <c r="AE27">
-        <v>3541.040868753685</v>
+        <v>298090.5946598849</v>
       </c>
       <c r="AF27">
-        <v>2124.962970051251</v>
+        <v>151595.5780090507</v>
       </c>
       <c r="AG27">
-        <v>1375.723341322128</v>
+        <v>125125.9162871109</v>
       </c>
       <c r="AH27">
-        <v>2915.102711571757</v>
+        <v>212000.2237114876</v>
       </c>
       <c r="AI27">
-        <v>233.5398794701927</v>
+        <v>15972.15971099325</v>
       </c>
       <c r="AJ27">
-        <v>2149.964089772137</v>
+        <v>153596.4300927266</v>
       </c>
       <c r="AK27">
-        <v>486.0186220474211</v>
+        <v>38783.35337347925</v>
       </c>
       <c r="AL27">
-        <v>1321.538440623526</v>
+        <v>91839.63028973284</v>
       </c>
       <c r="AM27">
-        <v>1273.824876679808</v>
+        <v>73733.7904215848</v>
       </c>
       <c r="AN27">
-        <v>1939.240040077086</v>
+        <v>149023.0138596844</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>94748.25820329672</v>
       </c>
       <c r="AP27">
-        <v>2088.250949831477</v>
+        <v>152242.9403430461</v>
       </c>
       <c r="AQ27">
-        <v>1228.621093916891</v>
+        <v>3761202.891711545</v>
       </c>
       <c r="AR27">
-        <v>495.7019513560736</v>
+        <v>155498.1816402912</v>
       </c>
       <c r="AS27">
-        <v>604.2122983706549</v>
+        <v>54382.71613685074</v>
       </c>
       <c r="AT27">
-        <v>1855.403283642753</v>
+        <v>71484.931122832</v>
       </c>
       <c r="AU27">
-        <v>1262.165893040406</v>
+        <v>244106.2949285062</v>
       </c>
       <c r="AV27">
-        <v>3013.935297748947</v>
+        <v>125943.1880754523</v>
       </c>
       <c r="AW27">
-        <v>953.2917994908474</v>
+        <v>321088.9986800111</v>
       </c>
       <c r="AX27">
-        <v>739.8530710532872</v>
+        <v>72484.81475302231</v>
       </c>
       <c r="AY27">
-        <v>1694.849660511105</v>
+        <v>88044.09294427562</v>
       </c>
       <c r="AZ27">
-        <v>44174.80849206138</v>
+        <v>161603.3713483259</v>
       </c>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="2">
-        <v>46387</v>
+        <v>47118</v>
       </c>
       <c r="B28">
-        <v>2164.042629646181</v>
+        <v>146296.6163750954</v>
       </c>
       <c r="C28">
-        <v>3083.557015009892</v>
+        <v>109791.6071460366</v>
       </c>
       <c r="D28">
-        <v>2534.194089552388</v>
+        <v>108070.2388336096</v>
       </c>
       <c r="E28">
-        <v>1441.43451349511</v>
+        <v>95118.46132843912</v>
       </c>
       <c r="F28">
-        <v>1480.912821919406</v>
+        <v>130281.8468555576</v>
       </c>
       <c r="G28">
-        <v>2051.667691022139</v>
+        <v>140372.651135023</v>
       </c>
       <c r="H28">
-        <v>14555.93162069466</v>
+        <v>1093187.48284835</v>
       </c>
       <c r="I28">
-        <v>1398.658778701525</v>
+        <v>78595.33270768396</v>
       </c>
       <c r="J28">
-        <v>3088.920592741278</v>
+        <v>128670.9687185448</v>
       </c>
       <c r="K28">
-        <v>2598.164398431891</v>
+        <v>130159.8765347804</v>
       </c>
       <c r="L28">
-        <v>2975.334146406112</v>
+        <v>147343.6684109123</v>
       </c>
       <c r="M28">
-        <v>1413.814443306096</v>
+        <v>109247.6898799468</v>
       </c>
       <c r="N28">
-        <v>426.3482634092215</v>
+        <v>29679.53042201384</v>
       </c>
       <c r="O28">
-        <v>613.3415413453542</v>
+        <v>43538.22460673173</v>
       </c>
       <c r="P28">
-        <v>2337.930613164749</v>
+        <v>129767.04182892</v>
       </c>
       <c r="Q28">
-        <v>682.6102559927549</v>
+        <v>45758.85394955501</v>
       </c>
       <c r="R28">
-        <v>1716.970106560899</v>
+        <v>88269.70493182645</v>
       </c>
       <c r="S28">
-        <v>4015.73701994303</v>
+        <v>271863.5295662688</v>
       </c>
       <c r="T28">
-        <v>-9042.086321627772</v>
+        <v>200472.3385860582</v>
       </c>
       <c r="U28">
-        <v>1905.035108289721</v>
+        <v>118753.2697362282</v>
       </c>
       <c r="V28">
-        <v>1100.71464336752</v>
+        <v>70063.23253634636</v>
       </c>
       <c r="W28">
-        <v>621.5395474003199</v>
+        <v>44416.32052934916</v>
       </c>
       <c r="X28">
-        <v>1848.86707651807</v>
+        <v>167241.481971257</v>
       </c>
       <c r="Y28">
-        <v>833.225978462536</v>
+        <v>57260.97481025832</v>
       </c>
       <c r="Z28">
-        <v>493.0073594444491</v>
+        <v>37834.24589599704</v>
       </c>
       <c r="AA28">
-        <v>1429.161856773474</v>
+        <v>98159.76479560212</v>
       </c>
       <c r="AB28">
-        <v>471.4406626602631</v>
+        <v>38063.87885555027</v>
       </c>
       <c r="AC28">
-        <v>350.0941804008998</v>
+        <v>23709.42278328861</v>
       </c>
       <c r="AD28">
-        <v>2748.277680730689</v>
+        <v>199186.5112608987</v>
       </c>
       <c r="AE28">
-        <v>3584.134582852588</v>
+        <v>297614.5185041441</v>
       </c>
       <c r="AF28">
-        <v>2152.789136940803</v>
+        <v>151171.7560449002</v>
       </c>
       <c r="AG28">
-        <v>1374.149503992355</v>
+        <v>125485.6235140271</v>
       </c>
       <c r="AH28">
-        <v>3038.560917426355</v>
+        <v>212084.7450284985</v>
       </c>
       <c r="AI28">
-        <v>233.6643613380101</v>
+        <v>15485.03928483119</v>
       </c>
       <c r="AJ28">
-        <v>2161.001139972513</v>
+        <v>152785.4254873288</v>
       </c>
       <c r="AK28">
-        <v>483.4601579944051</v>
+        <v>38107.12019181278</v>
       </c>
       <c r="AL28">
-        <v>1338.63840209999</v>
+        <v>91057.7590722973</v>
       </c>
       <c r="AM28">
-        <v>1241.166413162001</v>
+        <v>72766.40573017197</v>
       </c>
       <c r="AN28">
-        <v>1980.004205584466</v>
+        <v>149769.0842333031</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>95294.29156311387</v>
       </c>
       <c r="AP28">
-        <v>2087.623773487898</v>
+        <v>151433.5504280121</v>
       </c>
       <c r="AQ28">
-        <v>1263.301703387853</v>
+        <v>3768551.590236661</v>
       </c>
       <c r="AR28">
-        <v>502.3658699698813</v>
+        <v>158190.959217381</v>
       </c>
       <c r="AS28">
-        <v>611.1094125040497</v>
+        <v>54463.57134649468</v>
       </c>
       <c r="AT28">
-        <v>1868.215651135671</v>
+        <v>72679.69853331269</v>
       </c>
       <c r="AU28">
-        <v>1270.107569114288</v>
+        <v>248363.6590842953</v>
       </c>
       <c r="AV28">
-        <v>2969.190040605601</v>
+        <v>125717.3173747565</v>
       </c>
       <c r="AW28">
-        <v>906.8069313723074</v>
+        <v>322264.3358174193</v>
       </c>
       <c r="AX28">
-        <v>713.3362638732333</v>
+        <v>72312.27120345792</v>
       </c>
       <c r="AY28">
-        <v>1665.419069356414</v>
+        <v>88076.87160580668</v>
       </c>
       <c r="AZ28">
-        <v>44614.88619325606</v>
+        <v>161833.8781014038</v>
       </c>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="2">
-        <v>46752</v>
+        <v>47483</v>
       </c>
       <c r="B29">
-        <v>2298.339667067243</v>
+        <v>145678.0687447341</v>
       </c>
       <c r="C29">
-        <v>3316.471068282102</v>
+        <v>109684.6858930018</v>
       </c>
       <c r="D29">
-        <v>24855.31537404534</v>
+        <v>108242.7721588288</v>
       </c>
       <c r="E29">
-        <v>1481.269525313272</v>
+        <v>94986.91251835306</v>
       </c>
       <c r="F29">
-        <v>1496.31218564167</v>
+        <v>129951.6624324804</v>
       </c>
       <c r="G29">
-        <v>2067.461120209885</v>
+        <v>140219.1405425517</v>
       </c>
       <c r="H29">
-        <v>14982.9267315251</v>
+        <v>1092531.838725987</v>
       </c>
       <c r="I29">
-        <v>1342.961601072564</v>
+        <v>78385.35912413517</v>
       </c>
       <c r="J29">
-        <v>3214.2323802198</v>
+        <v>127540.4908761802</v>
       </c>
       <c r="K29">
-        <v>2709.846931466137</v>
+        <v>129864.7983766322</v>
       </c>
       <c r="L29">
-        <v>3113.737843902416</v>
+        <v>144233.3825764327</v>
       </c>
       <c r="M29">
-        <v>1431.628038220313</v>
+        <v>109121.1673604115</v>
       </c>
       <c r="N29">
-        <v>486.2439083602757</v>
+        <v>29580.9938366009</v>
       </c>
       <c r="O29">
-        <v>710.2590797335085</v>
+        <v>43273.60979472745</v>
       </c>
       <c r="P29">
-        <v>2511.913331340252</v>
+        <v>128529.6216101836</v>
       </c>
       <c r="Q29">
-        <v>722.2124328931779</v>
+        <v>45244.13845616581</v>
       </c>
       <c r="R29">
-        <v>1636.831471406376</v>
+        <v>85994.33333386776</v>
       </c>
       <c r="S29">
-        <v>4248.867927462774</v>
+        <v>270881.1783643879</v>
       </c>
       <c r="T29">
-        <v>-8672.538253131344</v>
+        <v>200436.9977106029</v>
       </c>
       <c r="U29">
-        <v>1874.691356248372</v>
+        <v>117206.8293325346</v>
       </c>
       <c r="V29">
-        <v>1103.890458772969</v>
+        <v>75036.34368780117</v>
       </c>
       <c r="W29">
-        <v>627.2678590955193</v>
+        <v>44366.04349972574</v>
       </c>
       <c r="X29">
-        <v>1847.636912598632</v>
+        <v>167146.3344508994</v>
       </c>
       <c r="Y29">
-        <v>832.00072778855</v>
+        <v>57186.93443078611</v>
       </c>
       <c r="Z29">
-        <v>496.4734506105985</v>
+        <v>37494.8231784313</v>
       </c>
       <c r="AA29">
-        <v>1438.187686636236</v>
+        <v>97836.04973710988</v>
       </c>
       <c r="AB29">
-        <v>472.4323500916634</v>
+        <v>38041.70607369142</v>
       </c>
       <c r="AC29">
-        <v>351.6679653380985</v>
+        <v>23775.50512011233</v>
       </c>
       <c r="AD29">
-        <v>2861.009832845555</v>
+        <v>198638.567281028</v>
       </c>
       <c r="AE29">
-        <v>3649.17358392939</v>
+        <v>297080.5952292482</v>
       </c>
       <c r="AF29">
-        <v>2198.498234796303</v>
+        <v>150677.0544771935</v>
       </c>
       <c r="AG29">
-        <v>1445.136216421649</v>
+        <v>126040.7119857209</v>
       </c>
       <c r="AH29">
-        <v>3179.066235854631</v>
+        <v>212185.8627643991</v>
       </c>
       <c r="AI29">
-        <v>233.6166425540204</v>
+        <v>14986.32569331588</v>
       </c>
       <c r="AJ29">
-        <v>2172.02584663736</v>
+        <v>151943.3206975953</v>
       </c>
       <c r="AK29">
-        <v>485.0581899381902</v>
+        <v>37323.81719204747</v>
       </c>
       <c r="AL29">
-        <v>1351.872606987196</v>
+        <v>90266.08043545912</v>
       </c>
       <c r="AM29">
-        <v>1270.845651339504</v>
+        <v>71516.35135434296</v>
       </c>
       <c r="AN29">
-        <v>1985.87994188514</v>
+        <v>149937.6782240494</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>95629.88923347872</v>
       </c>
       <c r="AP29">
-        <v>2088.019098791988</v>
+        <v>150472.680965142</v>
       </c>
       <c r="AQ29">
-        <v>1244.67258449177</v>
+        <v>3766648.986006969</v>
       </c>
       <c r="AR29">
-        <v>506.2222753329053</v>
+        <v>160896.059280113</v>
       </c>
       <c r="AS29">
-        <v>605.7730152443271</v>
+        <v>53851.79876699821</v>
       </c>
       <c r="AT29">
-        <v>1922.356241669841</v>
+        <v>72937.12795214268</v>
       </c>
       <c r="AU29">
-        <v>1278.31944468326</v>
+        <v>252619.6855570868</v>
       </c>
       <c r="AV29">
-        <v>2995.335142490506</v>
+        <v>125494.4441334515</v>
       </c>
       <c r="AW29">
-        <v>968.695739925158</v>
+        <v>323524.4729445069</v>
       </c>
       <c r="AX29">
-        <v>754.1580268717255</v>
+        <v>72178.06604109098</v>
       </c>
       <c r="AY29">
-        <v>1684.815418064033</v>
+        <v>88164.71715130827</v>
       </c>
       <c r="AZ29">
-        <v>45030.76915055577</v>
+        <v>161981.2674093942</v>
       </c>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="2">
-        <v>47118</v>
+        <v>47848</v>
       </c>
       <c r="B30">
-        <v>2253.830344270328</v>
+        <v>146132.2800984989</v>
       </c>
       <c r="C30">
-        <v>3566.433993450794</v>
+        <v>109645.535434625</v>
       </c>
       <c r="D30">
-        <v>2773.899959442246</v>
+        <v>108488.3885644176</v>
       </c>
       <c r="E30">
-        <v>1519.709623244461</v>
+        <v>94915.13351202132</v>
       </c>
       <c r="F30">
-        <v>1511.711553762114</v>
+        <v>129589.1811789791</v>
       </c>
       <c r="G30">
-        <v>2089.611956128545</v>
+        <v>140158.1547545114</v>
       </c>
       <c r="H30">
-        <v>15772.49712542862</v>
+        <v>1091616.427187529</v>
       </c>
       <c r="I30">
-        <v>1404.333302112038</v>
+        <v>78077.88949956592</v>
       </c>
       <c r="J30">
-        <v>3424.173994438207</v>
+        <v>126111.2228196286</v>
       </c>
       <c r="K30">
-        <v>2814.444087553448</v>
+        <v>129568.1795767604</v>
       </c>
       <c r="L30">
-        <v>3245.435035830289</v>
+        <v>141224.9095531833</v>
       </c>
       <c r="M30">
-        <v>1455.621979353409</v>
+        <v>108956.7411040455</v>
       </c>
       <c r="N30">
-        <v>497.2146969205001</v>
+        <v>29597.4610770851</v>
       </c>
       <c r="O30">
-        <v>596.8387617227947</v>
+        <v>43059.96701939718</v>
       </c>
       <c r="P30">
-        <v>2635.079782230361</v>
+        <v>126920.1499547501</v>
       </c>
       <c r="Q30">
-        <v>711.0191698288763</v>
+        <v>44694.34574954034</v>
       </c>
       <c r="R30">
-        <v>1685.751469955235</v>
+        <v>83431.0058595482</v>
       </c>
       <c r="S30">
-        <v>4328.542511283378</v>
+        <v>269884.9439338951</v>
       </c>
       <c r="T30">
-        <v>-7908.859915252378</v>
+        <v>200406.3834077864</v>
       </c>
       <c r="U30">
-        <v>1959.050096932784</v>
+        <v>115694.9027575732</v>
       </c>
       <c r="V30">
-        <v>1130.046627583289</v>
+        <v>81612.93052716998</v>
       </c>
       <c r="W30">
-        <v>633.708843173205</v>
+        <v>44314.96761678121</v>
       </c>
       <c r="X30">
-        <v>1843.209031368289</v>
+        <v>167127.6744409963</v>
       </c>
       <c r="Y30">
-        <v>852.0993088174494</v>
+        <v>57095.96909218124</v>
       </c>
       <c r="Z30">
-        <v>499.3727917095766</v>
+        <v>37139.12919918545</v>
       </c>
       <c r="AA30">
-        <v>1447.162148048698</v>
+        <v>97530.81026257924</v>
       </c>
       <c r="AB30">
-        <v>472.8888161966722</v>
+        <v>38016.71661454115</v>
       </c>
       <c r="AC30">
-        <v>353.2037560712509</v>
+        <v>23836.95569054012</v>
       </c>
       <c r="AD30">
-        <v>2771.116900852369</v>
+        <v>199452.8372474228</v>
       </c>
       <c r="AE30">
-        <v>3668.61426897185</v>
+        <v>297430.1515263918</v>
       </c>
       <c r="AF30">
-        <v>2230.068959974767</v>
+        <v>150257.3655216927</v>
       </c>
       <c r="AG30">
-        <v>1407.588544491021</v>
+        <v>126528.0105960037</v>
       </c>
       <c r="AH30">
-        <v>3330.534371542083</v>
+        <v>212294.1215717504</v>
       </c>
       <c r="AI30">
-        <v>233.6117408402941</v>
+        <v>14467.33180159923</v>
       </c>
       <c r="AJ30">
-        <v>2183.054484425982</v>
+        <v>151070.0136791435</v>
       </c>
       <c r="AK30">
-        <v>484.0600496319595</v>
+        <v>36474.33332462011</v>
       </c>
       <c r="AL30">
-        <v>1362.674097463096</v>
+        <v>89433.60918559872</v>
       </c>
       <c r="AM30">
-        <v>1296.121296740482</v>
+        <v>70332.57919739668</v>
       </c>
       <c r="AN30">
-        <v>2021.515654647774</v>
+        <v>150741.4810138718</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>95740.90356389954</v>
       </c>
       <c r="AP30">
-        <v>2087.769915133111</v>
+        <v>149478.9976224965</v>
       </c>
       <c r="AQ30">
-        <v>1223.967255182886</v>
+        <v>3772398.416608417</v>
       </c>
       <c r="AR30">
-        <v>512.4915730786001</v>
+        <v>171007.9713832785</v>
       </c>
       <c r="AS30">
-        <v>608.8136309945683</v>
+        <v>56398.96062316854</v>
       </c>
       <c r="AT30">
-        <v>1978.426829415612</v>
+        <v>73974.73500938625</v>
       </c>
       <c r="AU30">
-        <v>1286.773696577405</v>
+        <v>257238.4517328681</v>
       </c>
       <c r="AV30">
-        <v>3000.526800697804</v>
+        <v>125260.8278915376</v>
       </c>
       <c r="AW30">
-        <v>928.75982715571</v>
+        <v>324779.8816616744</v>
       </c>
       <c r="AX30">
-        <v>745.1746685191505</v>
+        <v>72011.13542985929</v>
       </c>
       <c r="AY30">
-        <v>1713.911629159482</v>
+        <v>88227.06546632417</v>
       </c>
       <c r="AZ30">
-        <v>45459.06900332695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:52">
-      <c r="A31" s="2">
-        <v>47483</v>
-      </c>
-      <c r="B31">
-        <v>2278.748430649355</v>
-      </c>
-      <c r="C31">
-        <v>3831.466067338196</v>
-      </c>
-      <c r="D31">
-        <v>26564.71729928184</v>
-      </c>
-      <c r="E31">
-        <v>1506.281236413256</v>
-      </c>
-      <c r="F31">
-        <v>1527.110926280456</v>
-      </c>
-      <c r="G31">
-        <v>2106.271576538312</v>
-      </c>
-      <c r="H31">
-        <v>16173.90769098463</v>
-      </c>
-      <c r="I31">
-        <v>1420.468747575101</v>
-      </c>
-      <c r="J31">
-        <v>3505.796812817173</v>
-      </c>
-      <c r="K31">
-        <v>2913.510587032444</v>
-      </c>
-      <c r="L31">
-        <v>3085.446892001464</v>
-      </c>
-      <c r="M31">
-        <v>1459.966950086991</v>
-      </c>
-      <c r="N31">
-        <v>491.7908445439811</v>
-      </c>
-      <c r="O31">
-        <v>722.0880591785369</v>
-      </c>
-      <c r="P31">
-        <v>2767.069693711244</v>
-      </c>
-      <c r="Q31">
-        <v>711.4738521502101</v>
-      </c>
-      <c r="R31">
-        <v>1780.77730568738</v>
-      </c>
-      <c r="S31">
-        <v>4459.034014696596</v>
-      </c>
-      <c r="T31">
-        <v>-7279.954444399581</v>
-      </c>
-      <c r="U31">
-        <v>1955.021613935073</v>
-      </c>
-      <c r="V31">
-        <v>1138.695344095868</v>
-      </c>
-      <c r="W31">
-        <v>639.7654200635785</v>
-      </c>
-      <c r="X31">
-        <v>1877.378282842968</v>
-      </c>
-      <c r="Y31">
-        <v>851.0519561719811</v>
-      </c>
-      <c r="Z31">
-        <v>502.6276226237977</v>
-      </c>
-      <c r="AA31">
-        <v>1456.157783712449</v>
-      </c>
-      <c r="AB31">
-        <v>473.676311793892</v>
-      </c>
-      <c r="AC31">
-        <v>354.7200600199764</v>
-      </c>
-      <c r="AD31">
-        <v>2868.762709006265</v>
-      </c>
-      <c r="AE31">
-        <v>3750.306276975884</v>
-      </c>
-      <c r="AF31">
-        <v>2279.450116266479</v>
-      </c>
-      <c r="AG31">
-        <v>1438.369455542448</v>
-      </c>
-      <c r="AH31">
-        <v>3488.944756664634</v>
-      </c>
-      <c r="AI31">
-        <v>233.6293491685387</v>
-      </c>
-      <c r="AJ31">
-        <v>2194.08187024477</v>
-      </c>
-      <c r="AK31">
-        <v>484.6834940348057</v>
-      </c>
-      <c r="AL31">
-        <v>1377.182539270243</v>
-      </c>
-      <c r="AM31">
-        <v>1292.365077133074</v>
-      </c>
-      <c r="AN31">
-        <v>2031.765982652352</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>2087.926981972012</v>
-      </c>
-      <c r="AQ31">
-        <v>1213.958279652253</v>
-      </c>
-      <c r="AR31">
-        <v>516.4747408070518</v>
-      </c>
-      <c r="AS31">
-        <v>606.2782345457176</v>
-      </c>
-      <c r="AT31">
-        <v>1997.776810520315</v>
-      </c>
-      <c r="AU31">
-        <v>1294.339234707343</v>
-      </c>
-      <c r="AV31">
-        <v>2972.044727675948</v>
-      </c>
-      <c r="AW31">
-        <v>976.7239233275128</v>
-      </c>
-      <c r="AX31">
-        <v>755.0764455089542</v>
-      </c>
-      <c r="AY31">
-        <v>1728.629321150608</v>
-      </c>
-      <c r="AZ31">
-        <v>45880.99897423785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:52">
-      <c r="A32" s="2">
-        <v>47848</v>
-      </c>
-      <c r="B32">
-        <v>2639.314057444763</v>
-      </c>
-      <c r="C32">
-        <v>4110.572616001107</v>
-      </c>
-      <c r="D32">
-        <v>3044.149883513766</v>
-      </c>
-      <c r="E32">
-        <v>1553.874646709017</v>
-      </c>
-      <c r="F32">
-        <v>1542.510303196413</v>
-      </c>
-      <c r="G32">
-        <v>2122.073710162988</v>
-      </c>
-      <c r="H32">
-        <v>16879.97234464374</v>
-      </c>
-      <c r="I32">
-        <v>1394.5070820825</v>
-      </c>
-      <c r="J32">
-        <v>3659.16393779205</v>
-      </c>
-      <c r="K32">
-        <v>3008.272087940916</v>
-      </c>
-      <c r="L32">
-        <v>3327.482273896864</v>
-      </c>
-      <c r="M32">
-        <v>1491.672474546253</v>
-      </c>
-      <c r="N32">
-        <v>541.9888627290655</v>
-      </c>
-      <c r="O32">
-        <v>625.0488451060634</v>
-      </c>
-      <c r="P32">
-        <v>2955.416686922598</v>
-      </c>
-      <c r="Q32">
-        <v>708.0989357689241</v>
-      </c>
-      <c r="R32">
-        <v>1765.319511482155</v>
-      </c>
-      <c r="S32">
-        <v>4574.352582308332</v>
-      </c>
-      <c r="T32">
-        <v>-6274.803398585475</v>
-      </c>
-      <c r="U32">
-        <v>2008.231141038929</v>
-      </c>
-      <c r="V32">
-        <v>1163.636529357773</v>
-      </c>
-      <c r="W32">
-        <v>646.0316609795647</v>
-      </c>
-      <c r="X32">
-        <v>1841.544825197327</v>
-      </c>
-      <c r="Y32">
-        <v>870.6312586692936</v>
-      </c>
-      <c r="Z32">
-        <v>505.6594751634907</v>
-      </c>
-      <c r="AA32">
-        <v>1465.144691277239</v>
-      </c>
-      <c r="AB32">
-        <v>474.2598340826141</v>
-      </c>
-      <c r="AC32">
-        <v>356.2263779285818</v>
-      </c>
-      <c r="AD32">
-        <v>2792.962707116014</v>
-      </c>
-      <c r="AE32">
-        <v>3787.340423814846</v>
-      </c>
-      <c r="AF32">
-        <v>2314.622387687645</v>
-      </c>
-      <c r="AG32">
-        <v>1436.566982231785</v>
-      </c>
-      <c r="AH32">
-        <v>3651.643938666585</v>
-      </c>
-      <c r="AI32">
-        <v>233.6235383155253</v>
-      </c>
-      <c r="AJ32">
-        <v>2205.109654786303</v>
-      </c>
-      <c r="AK32">
-        <v>484.2940869334053</v>
-      </c>
-      <c r="AL32">
-        <v>1390.58266840991</v>
-      </c>
-      <c r="AM32">
-        <v>1263.598106491359</v>
-      </c>
-      <c r="AN32">
-        <v>2063.670150341186</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>2087.827978722788</v>
-      </c>
-      <c r="AQ32">
-        <v>1191.816106599236</v>
-      </c>
-      <c r="AR32">
-        <v>518.0259798115827</v>
-      </c>
-      <c r="AS32">
-        <v>607.5879842126367</v>
-      </c>
-      <c r="AT32">
-        <v>1957.535452189216</v>
-      </c>
-      <c r="AU32">
-        <v>1302.302737031918</v>
-      </c>
-      <c r="AV32">
-        <v>3003.082575106278</v>
-      </c>
-      <c r="AW32">
-        <v>933.9529798604256</v>
-      </c>
-      <c r="AX32">
-        <v>785.3504152932907</v>
-      </c>
-      <c r="AY32">
-        <v>1729.465087935652</v>
-      </c>
-      <c r="AZ32">
-        <v>46306.19924852726</v>
+        <v>162070.6444735675</v>
       </c>
     </row>
   </sheetData>

--- a/data/final_data/full_timeseries_2.xlsx
+++ b/data/final_data/full_timeseries_2.xlsx
@@ -3862,157 +3862,157 @@
         <v>44926</v>
       </c>
       <c r="B22">
-        <v>146860.9238604901</v>
+        <v>146173.1250880209</v>
       </c>
       <c r="C22">
-        <v>110741.3714592522</v>
+        <v>110496.0191906108</v>
       </c>
       <c r="D22">
-        <v>109004.041572947</v>
+        <v>109003.0908916607</v>
       </c>
       <c r="E22">
-        <v>95863.53314925663</v>
+        <v>96414.30104251034</v>
       </c>
       <c r="F22">
-        <v>131365.6154893825</v>
+        <v>131044.0462278382</v>
       </c>
       <c r="G22">
-        <v>140693.2863762371</v>
+        <v>140927.5304628357</v>
       </c>
       <c r="H22">
-        <v>1096100.922334843</v>
+        <v>1102465.831233057</v>
       </c>
       <c r="I22">
-        <v>79450.42902796085</v>
+        <v>81550.30094658192</v>
       </c>
       <c r="J22">
-        <v>134708.4426153357</v>
+        <v>134738.5427302513</v>
       </c>
       <c r="K22">
-        <v>131254.7175788978</v>
+        <v>131450.5693963149</v>
       </c>
       <c r="L22">
-        <v>162423.4940127684</v>
+        <v>164297.7652859123</v>
       </c>
       <c r="M22">
-        <v>110010.0194940706</v>
+        <v>110060.6450350253</v>
       </c>
       <c r="N22">
-        <v>30235.58840252708</v>
+        <v>30220.15692119006</v>
       </c>
       <c r="O22">
-        <v>45140.64009617073</v>
+        <v>45205.39118186608</v>
       </c>
       <c r="P22">
-        <v>136520.4556382824</v>
+        <v>135832.9919231695</v>
       </c>
       <c r="Q22">
-        <v>48437.11673044704</v>
+        <v>48421.89649232661</v>
       </c>
       <c r="R22">
-        <v>100851.1032779759</v>
+        <v>102278.559149657</v>
       </c>
       <c r="S22">
-        <v>277376.3299446683</v>
+        <v>277193.3542251217</v>
       </c>
       <c r="T22">
-        <v>200995.7682883042</v>
+        <v>200859.2204937977</v>
       </c>
       <c r="U22">
-        <v>126406.1728383695</v>
+        <v>126915.6607846443</v>
       </c>
       <c r="V22">
-        <v>60508.5164359452</v>
+        <v>59955.81317779716</v>
       </c>
       <c r="W22">
-        <v>44787.08291923264</v>
+        <v>44801.06217967506</v>
       </c>
       <c r="X22">
-        <v>167175.9245604273</v>
+        <v>166979.2895330391</v>
       </c>
       <c r="Y22">
-        <v>57611.91641756384</v>
+        <v>57592.20208063196</v>
       </c>
       <c r="Z22">
-        <v>39449.6671808598</v>
+        <v>39465.70784158575</v>
       </c>
       <c r="AA22">
-        <v>100231.823435187</v>
+        <v>100491.8742892836</v>
       </c>
       <c r="AB22">
-        <v>38315.61942026629</v>
+        <v>38340.51936677804</v>
       </c>
       <c r="AC22">
-        <v>23649.41875678158</v>
+        <v>23689.0595019603</v>
       </c>
       <c r="AD22">
-        <v>198891.9939896084</v>
+        <v>198663.4410585809</v>
       </c>
       <c r="AE22">
-        <v>295833.2023065714</v>
+        <v>293411.9722260925</v>
       </c>
       <c r="AF22">
-        <v>153833.7700831205</v>
+        <v>154099.3938271623</v>
       </c>
       <c r="AG22">
-        <v>122975.6798509325</v>
+        <v>123206.7365399476</v>
       </c>
       <c r="AH22">
-        <v>212143.0431343724</v>
+        <v>212186.8729464927</v>
       </c>
       <c r="AI22">
-        <v>18058.06554261291</v>
+        <v>18143.62186938808</v>
       </c>
       <c r="AJ22">
-        <v>157180.2465362438</v>
+        <v>157434.4361739723</v>
       </c>
       <c r="AK22">
-        <v>41788.84700406165</v>
+        <v>42229.65638336939</v>
       </c>
       <c r="AL22">
-        <v>95077.20727264504</v>
+        <v>95163.0242146887</v>
       </c>
       <c r="AM22">
-        <v>79031.88993579005</v>
+        <v>79084.33449457544</v>
       </c>
       <c r="AN22">
-        <v>147255.6940724885</v>
+        <v>146675.5974730255</v>
       </c>
       <c r="AO22">
-        <v>90524.64475086654</v>
+        <v>89717.34981199417</v>
       </c>
       <c r="AP22">
-        <v>156315.9516249368</v>
+        <v>156196.3446783907</v>
       </c>
       <c r="AQ22">
-        <v>3745099.370001487</v>
+        <v>3700814.020711027</v>
       </c>
       <c r="AR22">
-        <v>129710.5123609495</v>
+        <v>116295.7952309695</v>
       </c>
       <c r="AS22">
-        <v>49552.11336743073</v>
+        <v>53007.46147143712</v>
       </c>
       <c r="AT22">
-        <v>64968.50606911878</v>
+        <v>60058.8521358147</v>
       </c>
       <c r="AU22">
-        <v>224794.0220614157</v>
+        <v>224827.828873234</v>
       </c>
       <c r="AV22">
-        <v>126546.1969434883</v>
+        <v>126573.9636269519</v>
       </c>
       <c r="AW22">
-        <v>316184.5414649916</v>
+        <v>315831.6447085559</v>
       </c>
       <c r="AX22">
-        <v>73309.47541731605</v>
+        <v>73253.21860048021</v>
       </c>
       <c r="AY22">
-        <v>87842.86259541099</v>
+        <v>87818.91199666537</v>
       </c>
       <c r="AZ22">
-        <v>160190.9587306599</v>
+        <v>160321.4052784061</v>
       </c>
     </row>
     <row r="23" spans="1:52">
@@ -4020,157 +4020,157 @@
         <v>45291</v>
       </c>
       <c r="B23">
-        <v>146383.7053245305</v>
+        <v>146249.211118413</v>
       </c>
       <c r="C23">
-        <v>110524.725014023</v>
+        <v>110251.0764561266</v>
       </c>
       <c r="D23">
-        <v>108613.8071067752</v>
+        <v>108612.6923283402</v>
       </c>
       <c r="E23">
-        <v>95831.09406685244</v>
+        <v>96528.06992280338</v>
       </c>
       <c r="F23">
-        <v>130783.8169328959</v>
+        <v>130156.3597955076</v>
       </c>
       <c r="G23">
-        <v>140734.0971598063</v>
+        <v>140787.6825022336</v>
       </c>
       <c r="H23">
-        <v>1095570.782525318</v>
+        <v>1101835.276762906</v>
       </c>
       <c r="I23">
-        <v>79541.65060199823</v>
+        <v>80215.56159400771</v>
       </c>
       <c r="J23">
-        <v>133488.8327927733</v>
+        <v>134080.1260095854</v>
       </c>
       <c r="K23">
-        <v>131226.5257008813</v>
+        <v>131420.8337958496</v>
       </c>
       <c r="L23">
-        <v>160440.6303039804</v>
+        <v>163299.7063883533</v>
       </c>
       <c r="M23">
-        <v>109822.956534324</v>
+        <v>109732.2743733318</v>
       </c>
       <c r="N23">
-        <v>30131.87588724079</v>
+        <v>30255.51083137891</v>
       </c>
       <c r="O23">
-        <v>44864.61498616282</v>
+        <v>44960.68298239422</v>
       </c>
       <c r="P23">
-        <v>135747.6680474117</v>
+        <v>134691.4892405201</v>
       </c>
       <c r="Q23">
-        <v>48066.05638781896</v>
+        <v>48060.47098407687</v>
       </c>
       <c r="R23">
-        <v>98939.85994441286</v>
+        <v>102107.6174973439</v>
       </c>
       <c r="S23">
-        <v>276396.4658089589</v>
+        <v>275855.2880563001</v>
       </c>
       <c r="T23">
-        <v>200858.1846478112</v>
+        <v>200439.5445284111</v>
       </c>
       <c r="U23">
-        <v>125310.289474522</v>
+        <v>126031.1419859775</v>
       </c>
       <c r="V23">
-        <v>60403.43695819067</v>
+        <v>58629.48053141354</v>
       </c>
       <c r="W23">
-        <v>44722.09621835312</v>
+        <v>44755.65878639327</v>
       </c>
       <c r="X23">
-        <v>167269.3807023302</v>
+        <v>166889.2978271386</v>
       </c>
       <c r="Y23">
-        <v>57558.83895642264</v>
+        <v>57546.95229811833</v>
       </c>
       <c r="Z23">
-        <v>39273.79430194767</v>
+        <v>39282.19268749141</v>
       </c>
       <c r="AA23">
-        <v>99806.34229797473</v>
+        <v>100154.6267784939</v>
       </c>
       <c r="AB23">
-        <v>38238.73130332309</v>
+        <v>38269.3077326411</v>
       </c>
       <c r="AC23">
-        <v>23559.43779090189</v>
+        <v>23618.31535883241</v>
       </c>
       <c r="AD23">
-        <v>197745.5416932004</v>
+        <v>197469.2728807715</v>
       </c>
       <c r="AE23">
-        <v>296699.730461737</v>
+        <v>289400.6638552273</v>
       </c>
       <c r="AF23">
-        <v>153461.9216593544</v>
+        <v>153837.8680390113</v>
       </c>
       <c r="AG23">
-        <v>123184.4304518776</v>
+        <v>123507.7268857811</v>
       </c>
       <c r="AH23">
-        <v>212043.6029977726</v>
+        <v>212110.1881581935</v>
       </c>
       <c r="AI23">
-        <v>17691.30639305867</v>
+        <v>17930.1166918138</v>
       </c>
       <c r="AJ23">
-        <v>156528.7074832169</v>
+        <v>156888.3595907351</v>
       </c>
       <c r="AK23">
-        <v>41432.0522431538</v>
+        <v>42409.48979079832</v>
       </c>
       <c r="AL23">
-        <v>94556.14449535296</v>
+        <v>94777.33795938328</v>
       </c>
       <c r="AM23">
-        <v>78030.0415844965</v>
+        <v>78055.05263845403</v>
       </c>
       <c r="AN23">
-        <v>147395.3601283491</v>
+        <v>146418.0094342305</v>
       </c>
       <c r="AO23">
-        <v>91261.11809341212</v>
+        <v>89440.6070586885</v>
       </c>
       <c r="AP23">
-        <v>155557.4071444515</v>
+        <v>155447.1678813544</v>
       </c>
       <c r="AQ23">
-        <v>3745346.45583917</v>
+        <v>3678933.68173477</v>
       </c>
       <c r="AR23">
-        <v>128756.521221135</v>
+        <v>114646.7156125444</v>
       </c>
       <c r="AS23">
-        <v>50566.53114671805</v>
+        <v>56263.71099608948</v>
       </c>
       <c r="AT23">
-        <v>61688.58296713886</v>
+        <v>58810.10276982058</v>
       </c>
       <c r="AU23">
-        <v>228382.6123467354</v>
+        <v>228416.2901200045</v>
       </c>
       <c r="AV23">
-        <v>126594.179574419</v>
+        <v>126626.9543660585</v>
       </c>
       <c r="AW23">
-        <v>316968.7386319357</v>
+        <v>316189.4602777529</v>
       </c>
       <c r="AX23">
-        <v>73147.84892003442</v>
+        <v>72993.11323013139</v>
       </c>
       <c r="AY23">
-        <v>87870.10900845745</v>
+        <v>87902.98472803987</v>
       </c>
       <c r="AZ23">
-        <v>160396.4565784879</v>
+        <v>160518.1950254343</v>
       </c>
     </row>
     <row r="24" spans="1:52">
@@ -4178,157 +4178,157 @@
         <v>45657</v>
       </c>
       <c r="B24">
-        <v>146722.2270654734</v>
+        <v>145707.1399006801</v>
       </c>
       <c r="C24">
-        <v>110243.9039361478</v>
+        <v>110015.3795281315</v>
       </c>
       <c r="D24">
-        <v>108308.9797239099</v>
+        <v>108307.9655982245</v>
       </c>
       <c r="E24">
-        <v>95693.25491508625</v>
+        <v>96506.15870654555</v>
       </c>
       <c r="F24">
-        <v>130446.0645387907</v>
+        <v>129229.2648713522</v>
       </c>
       <c r="G24">
-        <v>140652.5763361099</v>
+        <v>140502.7903133807</v>
       </c>
       <c r="H24">
-        <v>1095173.841952872</v>
+        <v>1100814.342612826</v>
       </c>
       <c r="I24">
-        <v>79210.80935642944</v>
+        <v>76485.45122102035</v>
       </c>
       <c r="J24">
-        <v>132376.4113085619</v>
+        <v>133260.3212680083</v>
       </c>
       <c r="K24">
-        <v>131122.641592768</v>
+        <v>131561.5588421191</v>
       </c>
       <c r="L24">
-        <v>157998.5319208159</v>
+        <v>162446.7962351214</v>
       </c>
       <c r="M24">
-        <v>109626.5254724182</v>
+        <v>109438.0796871371</v>
       </c>
       <c r="N24">
-        <v>29889.14593111708</v>
+        <v>30107.98233485493</v>
       </c>
       <c r="O24">
-        <v>44540.70910500841</v>
+        <v>44816.37082302039</v>
       </c>
       <c r="P24">
-        <v>134589.7761734697</v>
+        <v>133151.63528699</v>
       </c>
       <c r="Q24">
-        <v>47660.93770809925</v>
+        <v>47717.62608004345</v>
       </c>
       <c r="R24">
-        <v>96955.9725073712</v>
+        <v>102295.6174950106</v>
       </c>
       <c r="S24">
-        <v>275339.3103125905</v>
+        <v>274716.6446123928</v>
       </c>
       <c r="T24">
-        <v>200719.4331690476</v>
+        <v>200047.8495449822</v>
       </c>
       <c r="U24">
-        <v>124085.4612163845</v>
+        <v>125485.9085594836</v>
       </c>
       <c r="V24">
-        <v>60528.64409372336</v>
+        <v>57240.50475958557</v>
       </c>
       <c r="W24">
-        <v>44642.48466963425</v>
+        <v>44712.24058154128</v>
       </c>
       <c r="X24">
-        <v>167232.1766273492</v>
+        <v>166756.5353748923</v>
       </c>
       <c r="Y24">
-        <v>57488.8940117748</v>
+        <v>57464.61699090322</v>
       </c>
       <c r="Z24">
-        <v>39036.90365479597</v>
+        <v>39031.64053760013</v>
       </c>
       <c r="AA24">
-        <v>99463.64045194363</v>
+        <v>100019.2638024387</v>
       </c>
       <c r="AB24">
-        <v>38187.79003951456</v>
+        <v>38219.28946104164</v>
       </c>
       <c r="AC24">
-        <v>23573.75834655551</v>
+        <v>23603.88727601308</v>
       </c>
       <c r="AD24">
-        <v>198090.7637741855</v>
+        <v>197250.5413350906</v>
       </c>
       <c r="AE24">
-        <v>296605.9634062066</v>
+        <v>286753.5397525379</v>
       </c>
       <c r="AF24">
-        <v>152969.8216368526</v>
+        <v>153621.3149279052</v>
       </c>
       <c r="AG24">
-        <v>123639.7893436949</v>
+        <v>124074.9669819062</v>
       </c>
       <c r="AH24">
-        <v>211976.3578653665</v>
+        <v>212063.7187839574</v>
       </c>
       <c r="AI24">
-        <v>17302.35687245309</v>
+        <v>17719.05310685499</v>
       </c>
       <c r="AJ24">
-        <v>155844.2575840336</v>
+        <v>156412.6604065384</v>
       </c>
       <c r="AK24">
-        <v>40729.53968715455</v>
+        <v>42407.47225930705</v>
       </c>
       <c r="AL24">
-        <v>93941.96602115165</v>
+        <v>94333.19332399724</v>
       </c>
       <c r="AM24">
-        <v>77150.94417408999</v>
+        <v>77000.67005956202</v>
       </c>
       <c r="AN24">
-        <v>148021.0086810608</v>
+        <v>146330.7379177865</v>
       </c>
       <c r="AO24">
-        <v>92127.71099820649</v>
+        <v>89078.3467131747</v>
       </c>
       <c r="AP24">
-        <v>154731.8911547131</v>
+        <v>154596.1282525189</v>
       </c>
       <c r="AQ24">
-        <v>3754637.793472702</v>
+        <v>3656463.697273292</v>
       </c>
       <c r="AR24">
-        <v>139532.7794068072</v>
+        <v>114628.3300115675</v>
       </c>
       <c r="AS24">
-        <v>47293.81292869906</v>
+        <v>56556.79167695954</v>
       </c>
       <c r="AT24">
-        <v>65570.48247443025</v>
+        <v>58690.2414270169</v>
       </c>
       <c r="AU24">
-        <v>232234.2795643724</v>
+        <v>232269.1792053957</v>
       </c>
       <c r="AV24">
-        <v>126473.3751243004</v>
+        <v>126474.0661737836</v>
       </c>
       <c r="AW24">
-        <v>317905.8981995674</v>
+        <v>316608.7980760208</v>
       </c>
       <c r="AX24">
-        <v>72959.15135927068</v>
+        <v>72682.71130816684</v>
       </c>
       <c r="AY24">
-        <v>87886.98424317499</v>
+        <v>88008.22993235574</v>
       </c>
       <c r="AZ24">
-        <v>160744.8822772299</v>
+        <v>160789.5850388173</v>
       </c>
     </row>
     <row r="25" spans="1:52">
@@ -4336,157 +4336,157 @@
         <v>46022</v>
       </c>
       <c r="B25">
-        <v>146108.2488271378</v>
+        <v>145745.2909738279</v>
       </c>
       <c r="C25">
-        <v>110159.710896976</v>
+        <v>109834.5837282071</v>
       </c>
       <c r="D25">
-        <v>108100.3001141599</v>
+        <v>108104.6573048416</v>
       </c>
       <c r="E25">
-        <v>95665.43977180264</v>
+        <v>96809.86008102108</v>
       </c>
       <c r="F25">
-        <v>130371.1316396573</v>
+        <v>128262.5728064476</v>
       </c>
       <c r="G25">
-        <v>140561.6946146624</v>
+        <v>140172.2739878486</v>
       </c>
       <c r="H25">
-        <v>1094529.965899883</v>
+        <v>1099924.35132174</v>
       </c>
       <c r="I25">
-        <v>79125.22955274867</v>
+        <v>78908.26831669953</v>
       </c>
       <c r="J25">
-        <v>131652.2356724114</v>
+        <v>132396.3667924317</v>
       </c>
       <c r="K25">
-        <v>130945.5666150379</v>
+        <v>131560.468553865</v>
       </c>
       <c r="L25">
-        <v>155605.1655012509</v>
+        <v>161756.0250154966</v>
       </c>
       <c r="M25">
-        <v>109567.534280991</v>
+        <v>109196.2674556579</v>
       </c>
       <c r="N25">
-        <v>29914.64806496911</v>
+        <v>30188.25278014685</v>
       </c>
       <c r="O25">
-        <v>44215.01862215946</v>
+        <v>44791.5345510799</v>
       </c>
       <c r="P25">
-        <v>133379.305473593</v>
+        <v>131385.2234701817</v>
       </c>
       <c r="Q25">
-        <v>47177.80468748457</v>
+        <v>47307.98840802612</v>
       </c>
       <c r="R25">
-        <v>95043.40469185644</v>
+        <v>102027.725445338</v>
       </c>
       <c r="S25">
-        <v>274666.2763965572</v>
+        <v>273264.9072307137</v>
       </c>
       <c r="T25">
-        <v>200598.187017926</v>
+        <v>199620.9268403976</v>
       </c>
       <c r="U25">
-        <v>122819.8712166447</v>
+        <v>124732.4526026178</v>
       </c>
       <c r="V25">
-        <v>61666.11298169887</v>
+        <v>55796.28199435444</v>
       </c>
       <c r="W25">
-        <v>44580.59996452603</v>
+        <v>44674.71070744767</v>
       </c>
       <c r="X25">
-        <v>167301.2455009462</v>
+        <v>166697.8078066683</v>
       </c>
       <c r="Y25">
-        <v>57462.88692191682</v>
+        <v>57406.10310928741</v>
       </c>
       <c r="Z25">
-        <v>38775.52355874547</v>
+        <v>38774.76533518676</v>
       </c>
       <c r="AA25">
-        <v>99097.40534403591</v>
+        <v>99899.14100646896</v>
       </c>
       <c r="AB25">
-        <v>38137.65113079173</v>
+        <v>38193.47372724056</v>
       </c>
       <c r="AC25">
-        <v>23611.23335741887</v>
+        <v>23575.58801014354</v>
       </c>
       <c r="AD25">
-        <v>198511.7048485601</v>
+        <v>197435.8693930559</v>
       </c>
       <c r="AE25">
-        <v>296837.0620417067</v>
+        <v>283038.6543178804</v>
       </c>
       <c r="AF25">
-        <v>152537.470672456</v>
+        <v>153397.83881708</v>
       </c>
       <c r="AG25">
-        <v>124095.8648816402</v>
+        <v>124625.850233835</v>
       </c>
       <c r="AH25">
-        <v>211940.1568495925</v>
+        <v>212048.4514936065</v>
       </c>
       <c r="AI25">
-        <v>16878.02025655959</v>
+        <v>17510.09507039606</v>
       </c>
       <c r="AJ25">
-        <v>155125.7307731582</v>
+        <v>155881.6701814859</v>
       </c>
       <c r="AK25">
-        <v>40031.04456479382</v>
+        <v>42336.99639604073</v>
       </c>
       <c r="AL25">
-        <v>93278.15011555684</v>
+        <v>93826.57646513967</v>
       </c>
       <c r="AM25">
-        <v>76136.7329782444</v>
+        <v>75861.78408600563</v>
       </c>
       <c r="AN25">
-        <v>148174.2682236053</v>
+        <v>146034.7594624717</v>
       </c>
       <c r="AO25">
-        <v>93126.91858249664</v>
+        <v>88682.04856770672</v>
       </c>
       <c r="AP25">
-        <v>153870.0100485103</v>
+        <v>153786.1740594385</v>
       </c>
       <c r="AQ25">
-        <v>3753119.025415862</v>
+        <v>3629841.281502183</v>
       </c>
       <c r="AR25">
-        <v>144602.4615680308</v>
+        <v>113332.5880196437</v>
       </c>
       <c r="AS25">
-        <v>51433.18089916749</v>
+        <v>59764.45022069674</v>
       </c>
       <c r="AT25">
-        <v>66863.49167372086</v>
+        <v>57786.87702620893</v>
       </c>
       <c r="AU25">
-        <v>236067.4091038693</v>
+        <v>236126.7746628748</v>
       </c>
       <c r="AV25">
-        <v>126329.9213630625</v>
+        <v>126316.1180487314</v>
       </c>
       <c r="AW25">
-        <v>318886.4256492912</v>
+        <v>316964.4819804818</v>
       </c>
       <c r="AX25">
-        <v>72803.30095881816</v>
+        <v>72388.15221554622</v>
       </c>
       <c r="AY25">
-        <v>87958.55370122894</v>
+        <v>88111.97406842595</v>
       </c>
       <c r="AZ25">
-        <v>161057.911445234</v>
+        <v>160999.7976785412</v>
       </c>
     </row>
     <row r="26" spans="1:52">
@@ -4494,157 +4494,157 @@
         <v>46387</v>
       </c>
       <c r="B26">
-        <v>146542.8496618608</v>
+        <v>145322.0561945647</v>
       </c>
       <c r="C26">
-        <v>109966.1231329167</v>
+        <v>109659.2937237537</v>
       </c>
       <c r="D26">
-        <v>107991.7250634702</v>
+        <v>108004.4079960344</v>
       </c>
       <c r="E26">
-        <v>95377.29457861721</v>
+        <v>96782.9131127991</v>
       </c>
       <c r="F26">
-        <v>130350.253622847</v>
+        <v>127256.7211273958</v>
       </c>
       <c r="G26">
-        <v>140548.0080056936</v>
+        <v>140016.0038920958</v>
       </c>
       <c r="H26">
-        <v>1094379.526061917</v>
+        <v>1099041.088966304</v>
       </c>
       <c r="I26">
-        <v>79030.80993859636</v>
+        <v>79719.67589197838</v>
       </c>
       <c r="J26">
-        <v>130609.7243620297</v>
+        <v>131535.1943251549</v>
       </c>
       <c r="K26">
-        <v>130713.0914013983</v>
+        <v>131564.4991441671</v>
       </c>
       <c r="L26">
-        <v>152760.0897394826</v>
+        <v>161573.1038528892</v>
       </c>
       <c r="M26">
-        <v>109425.1313155007</v>
+        <v>108839.775959244</v>
       </c>
       <c r="N26">
-        <v>29689.16073161973</v>
+        <v>30150.38440185048</v>
       </c>
       <c r="O26">
-        <v>43963.58313883007</v>
+        <v>44824.36693847394</v>
       </c>
       <c r="P26">
-        <v>132500.8197599183</v>
+        <v>129992.6047136722</v>
       </c>
       <c r="Q26">
-        <v>46740.57244042969</v>
+        <v>46904.32483307621</v>
       </c>
       <c r="R26">
-        <v>92819.68740713006</v>
+        <v>101776.0498218143</v>
       </c>
       <c r="S26">
-        <v>273829.4235236168</v>
+        <v>271952.88139293</v>
       </c>
       <c r="T26">
-        <v>200563.8226136002</v>
+        <v>199240.8456447274</v>
       </c>
       <c r="U26">
-        <v>121556.5448388918</v>
+        <v>123955.8633470663</v>
       </c>
       <c r="V26">
-        <v>63351.59695876882</v>
+        <v>54285.57147743073</v>
       </c>
       <c r="W26">
-        <v>44525.715149335</v>
+        <v>44649.27194373948</v>
       </c>
       <c r="X26">
-        <v>167304.1364194145</v>
+        <v>166676.8402462591</v>
       </c>
       <c r="Y26">
-        <v>57410.8662918428</v>
+        <v>57328.91147541155</v>
       </c>
       <c r="Z26">
-        <v>38477.35866055691</v>
+        <v>38473.98249797574</v>
       </c>
       <c r="AA26">
-        <v>98785.21190097394</v>
+        <v>99665.16843753395</v>
       </c>
       <c r="AB26">
-        <v>38117.48742825599</v>
+        <v>38182.09298657353</v>
       </c>
       <c r="AC26">
-        <v>23660.41594360932</v>
+        <v>23575.83445253672</v>
       </c>
       <c r="AD26">
-        <v>198530.9648593781</v>
+        <v>196905.5909090064</v>
       </c>
       <c r="AE26">
-        <v>297779.0312062553</v>
+        <v>280481.4290102629</v>
       </c>
       <c r="AF26">
-        <v>152080.4168369904</v>
+        <v>153194.9647403178</v>
       </c>
       <c r="AG26">
-        <v>124535.881879247</v>
+        <v>125172.9044906711</v>
       </c>
       <c r="AH26">
-        <v>211950.721739624</v>
+        <v>212066.4690833357</v>
       </c>
       <c r="AI26">
-        <v>16433.10902791479</v>
+        <v>17302.95108589039</v>
       </c>
       <c r="AJ26">
-        <v>154376.4835806435</v>
+        <v>155308.5197184237</v>
       </c>
       <c r="AK26">
-        <v>39396.91915460328</v>
+        <v>42234.83813919291</v>
       </c>
       <c r="AL26">
-        <v>92575.4572464446</v>
+        <v>93336.97954206036</v>
       </c>
       <c r="AM26">
-        <v>75057.75166616224</v>
+        <v>74652.95890483748</v>
       </c>
       <c r="AN26">
-        <v>148862.0214963296</v>
+        <v>145907.4432174838</v>
       </c>
       <c r="AO26">
-        <v>94094.27534350628</v>
+        <v>88216.42735915726</v>
       </c>
       <c r="AP26">
-        <v>153095.5554815493</v>
+        <v>152875.0971264267</v>
       </c>
       <c r="AQ26">
-        <v>3762356.887203916</v>
+        <v>3602301.890492512</v>
       </c>
       <c r="AR26">
-        <v>148075.1505649603</v>
+        <v>115554.0732806246</v>
       </c>
       <c r="AS26">
-        <v>53505.70560213138</v>
+        <v>60810.13353286917</v>
       </c>
       <c r="AT26">
-        <v>70219.6600630983</v>
+        <v>58116.9967199168</v>
       </c>
       <c r="AU26">
-        <v>240130.8863930474</v>
+        <v>240199.5509332369</v>
       </c>
       <c r="AV26">
-        <v>126137.9354264278</v>
+        <v>126141.8839811131</v>
       </c>
       <c r="AW26">
-        <v>319938.3335977648</v>
+        <v>317337.2598665489</v>
       </c>
       <c r="AX26">
-        <v>72621.69845588143</v>
+        <v>72050.518161296</v>
       </c>
       <c r="AY26">
-        <v>87979.48508331712</v>
+        <v>88214.67708589141</v>
       </c>
       <c r="AZ26">
-        <v>161336.3470298111</v>
+        <v>161189.759972808</v>
       </c>
     </row>
     <row r="27" spans="1:52">
@@ -4652,157 +4652,157 @@
         <v>46752</v>
       </c>
       <c r="B27">
-        <v>145918.2880841189</v>
+        <v>145102.2814945323</v>
       </c>
       <c r="C27">
-        <v>109867.3001824866</v>
+        <v>109588.842926043</v>
       </c>
       <c r="D27">
-        <v>107983.2704038874</v>
+        <v>108008.7689504131</v>
       </c>
       <c r="E27">
-        <v>95277.79052654034</v>
+        <v>96892.99718360974</v>
       </c>
       <c r="F27">
-        <v>130482.3760675268</v>
+        <v>126211.3100144067</v>
       </c>
       <c r="G27">
-        <v>140402.1892121203</v>
+        <v>139611.4541647627</v>
       </c>
       <c r="H27">
-        <v>1093922.229462951</v>
+        <v>1097970.624097888</v>
       </c>
       <c r="I27">
-        <v>78696.80848891726</v>
+        <v>76452.48593692452</v>
       </c>
       <c r="J27">
-        <v>129383.4038900157</v>
+        <v>130737.0182566709</v>
       </c>
       <c r="K27">
-        <v>130446.3848199094</v>
+        <v>131587.8720395806</v>
       </c>
       <c r="L27">
-        <v>150187.536442845</v>
+        <v>160917.8928166148</v>
       </c>
       <c r="M27">
-        <v>109349.5284846964</v>
+        <v>108460.5756669726</v>
       </c>
       <c r="N27">
-        <v>29687.30212817875</v>
+        <v>30191.55965090578</v>
       </c>
       <c r="O27">
-        <v>43763.18090017378</v>
+        <v>44990.33063762775</v>
       </c>
       <c r="P27">
-        <v>130974.7043369198</v>
+        <v>128173.4160424656</v>
       </c>
       <c r="Q27">
-        <v>46281.33475660498</v>
+        <v>46512.14048615094</v>
       </c>
       <c r="R27">
-        <v>90599.97032173345</v>
+        <v>101379.6789610093</v>
       </c>
       <c r="S27">
-        <v>272636.0823681393</v>
+        <v>270783.9117892003</v>
       </c>
       <c r="T27">
-        <v>200504.8309068903</v>
+        <v>199019.7121110467</v>
       </c>
       <c r="U27">
-        <v>120094.5003207311</v>
+        <v>123331.61826058</v>
       </c>
       <c r="V27">
-        <v>66176.30832230375</v>
+        <v>52716.29077708302</v>
       </c>
       <c r="W27">
-        <v>44468.30677317278</v>
+        <v>44630.40828830888</v>
       </c>
       <c r="X27">
-        <v>167298.4088658538</v>
+        <v>166703.0409304291</v>
       </c>
       <c r="Y27">
-        <v>57300.61459701139</v>
+        <v>57214.72881205088</v>
       </c>
       <c r="Z27">
-        <v>38168.05761630496</v>
+        <v>38173.489334056</v>
       </c>
       <c r="AA27">
-        <v>98454.54513726136</v>
+        <v>99649.4785797299</v>
       </c>
       <c r="AB27">
-        <v>38074.83277945001</v>
+        <v>38185.44583541712</v>
       </c>
       <c r="AC27">
-        <v>23666.57010954638</v>
+        <v>23579.28865461303</v>
       </c>
       <c r="AD27">
-        <v>198274.1773858769</v>
+        <v>196940.6875430735</v>
       </c>
       <c r="AE27">
-        <v>298090.5946598849</v>
+        <v>276054.6656989278</v>
       </c>
       <c r="AF27">
-        <v>151595.5780090507</v>
+        <v>152998.9848489827</v>
       </c>
       <c r="AG27">
-        <v>125125.9162871109</v>
+        <v>125828.8081944779</v>
       </c>
       <c r="AH27">
-        <v>212000.2237114876</v>
+        <v>212118.6601327344</v>
       </c>
       <c r="AI27">
-        <v>15972.15971099325</v>
+        <v>17097.37010576823</v>
       </c>
       <c r="AJ27">
-        <v>153596.4300927266</v>
+        <v>154779.5507237786</v>
       </c>
       <c r="AK27">
-        <v>38783.35337347925</v>
+        <v>42178.98915068594</v>
       </c>
       <c r="AL27">
-        <v>91839.63028973284</v>
+        <v>92848.40059067799</v>
       </c>
       <c r="AM27">
-        <v>73733.7904215848</v>
+        <v>73416.06647887257</v>
       </c>
       <c r="AN27">
-        <v>149023.0138596844</v>
+        <v>145556.6843639696</v>
       </c>
       <c r="AO27">
-        <v>94748.25820329672</v>
+        <v>87697.94190946558</v>
       </c>
       <c r="AP27">
-        <v>152242.9403430461</v>
+        <v>151998.6747308086</v>
       </c>
       <c r="AQ27">
-        <v>3761202.891711545</v>
+        <v>3571428.253900385</v>
       </c>
       <c r="AR27">
-        <v>155498.1816402912</v>
+        <v>113251.4668359117</v>
       </c>
       <c r="AS27">
-        <v>54382.71613685074</v>
+        <v>63763.94177081722</v>
       </c>
       <c r="AT27">
-        <v>71484.931122832</v>
+        <v>57490.68651679636</v>
       </c>
       <c r="AU27">
-        <v>244106.2949285062</v>
+        <v>244167.6765111312</v>
       </c>
       <c r="AV27">
-        <v>125943.1880754523</v>
+        <v>125925.4033972752</v>
       </c>
       <c r="AW27">
-        <v>321088.9986800111</v>
+        <v>317678.1404102537</v>
       </c>
       <c r="AX27">
-        <v>72484.81475302231</v>
+        <v>71723.77492109581</v>
       </c>
       <c r="AY27">
-        <v>88044.09294427562</v>
+        <v>88319.70486504141</v>
       </c>
       <c r="AZ27">
-        <v>161603.3713483259</v>
+        <v>161396.9202393994</v>
       </c>
     </row>
     <row r="28" spans="1:52">
@@ -4810,157 +4810,157 @@
         <v>47118</v>
       </c>
       <c r="B28">
-        <v>146296.6163750954</v>
+        <v>144929.8761283837</v>
       </c>
       <c r="C28">
-        <v>109791.6071460366</v>
+        <v>109506.3054810429</v>
       </c>
       <c r="D28">
-        <v>108070.2388336096</v>
+        <v>108111.6868101614</v>
       </c>
       <c r="E28">
-        <v>95118.46132843912</v>
+        <v>96818.67661821235</v>
       </c>
       <c r="F28">
-        <v>130281.8468555576</v>
+        <v>125126.5327521393</v>
       </c>
       <c r="G28">
-        <v>140372.651135023</v>
+        <v>139463.8436768499</v>
       </c>
       <c r="H28">
-        <v>1093187.48284835</v>
+        <v>1097724.644502158</v>
       </c>
       <c r="I28">
-        <v>78595.33270768396</v>
+        <v>76910.73581803049</v>
       </c>
       <c r="J28">
-        <v>128670.9687185448</v>
+        <v>129796.3100734881</v>
       </c>
       <c r="K28">
-        <v>130159.8765347804</v>
+        <v>131579.2598312407</v>
       </c>
       <c r="L28">
-        <v>147343.6684109123</v>
+        <v>159930.2665712346</v>
       </c>
       <c r="M28">
-        <v>109247.6898799468</v>
+        <v>108021.0821743502</v>
       </c>
       <c r="N28">
-        <v>29679.53042201384</v>
+        <v>30210.5271491251</v>
       </c>
       <c r="O28">
-        <v>43538.22460673173</v>
+        <v>45219.91300810655</v>
       </c>
       <c r="P28">
-        <v>129767.04182892</v>
+        <v>125983.3065477612</v>
       </c>
       <c r="Q28">
-        <v>45758.85394955501</v>
+        <v>46077.49404199548</v>
       </c>
       <c r="R28">
-        <v>88269.70493182645</v>
+        <v>101144.6696288609</v>
       </c>
       <c r="S28">
-        <v>271863.5295662688</v>
+        <v>269328.021444081</v>
       </c>
       <c r="T28">
-        <v>200472.3385860582</v>
+        <v>198440.3927529749</v>
       </c>
       <c r="U28">
-        <v>118753.2697362282</v>
+        <v>122439.5946597949</v>
       </c>
       <c r="V28">
-        <v>70063.23253634636</v>
+        <v>51074.46292113258</v>
       </c>
       <c r="W28">
-        <v>44416.32052934916</v>
+        <v>44615.94429192556</v>
       </c>
       <c r="X28">
-        <v>167241.481971257</v>
+        <v>166714.2288255352</v>
       </c>
       <c r="Y28">
-        <v>57260.97481025832</v>
+        <v>57133.5592536167</v>
       </c>
       <c r="Z28">
-        <v>37834.24589599704</v>
+        <v>37846.83933836364</v>
       </c>
       <c r="AA28">
-        <v>98159.76479560212</v>
+        <v>99431.13024717776</v>
       </c>
       <c r="AB28">
-        <v>38063.87885555027</v>
+        <v>38198.23845300252</v>
       </c>
       <c r="AC28">
-        <v>23709.42278328861</v>
+        <v>23587.37678057376</v>
       </c>
       <c r="AD28">
-        <v>199186.5112608987</v>
+        <v>196270.2128084915</v>
       </c>
       <c r="AE28">
-        <v>297614.5185041441</v>
+        <v>273284.704027469</v>
       </c>
       <c r="AF28">
-        <v>151171.7560449002</v>
+        <v>152811.5380812743</v>
       </c>
       <c r="AG28">
-        <v>125485.6235140271</v>
+        <v>126358.2008014569</v>
       </c>
       <c r="AH28">
-        <v>212084.7450284985</v>
+        <v>212198.6642266905</v>
       </c>
       <c r="AI28">
-        <v>15485.03928483119</v>
+        <v>16893.13581991359</v>
       </c>
       <c r="AJ28">
-        <v>152785.4254873288</v>
+        <v>154141.9058699908</v>
       </c>
       <c r="AK28">
-        <v>38107.12019181278</v>
+        <v>42200.67495968538</v>
       </c>
       <c r="AL28">
-        <v>91057.7590722973</v>
+        <v>92332.11300837256</v>
       </c>
       <c r="AM28">
-        <v>72766.40573017197</v>
+        <v>72121.85736372776</v>
       </c>
       <c r="AN28">
-        <v>149769.0842333031</v>
+        <v>145386.1600987322</v>
       </c>
       <c r="AO28">
-        <v>95294.29156311387</v>
+        <v>87113.37954491792</v>
       </c>
       <c r="AP28">
-        <v>151433.5504280121</v>
+        <v>151018.3202689216</v>
       </c>
       <c r="AQ28">
-        <v>3768551.590236661</v>
+        <v>3540638.778272233</v>
       </c>
       <c r="AR28">
-        <v>158190.959217381</v>
+        <v>112637.7099375466</v>
       </c>
       <c r="AS28">
-        <v>54463.57134649468</v>
+        <v>65250.36191206292</v>
       </c>
       <c r="AT28">
-        <v>72679.69853331269</v>
+        <v>57962.81520924722</v>
       </c>
       <c r="AU28">
-        <v>248363.6590842953</v>
+        <v>248415.755865724</v>
       </c>
       <c r="AV28">
-        <v>125717.3173747565</v>
+        <v>125704.467322659</v>
       </c>
       <c r="AW28">
-        <v>322264.3358174193</v>
+        <v>318011.1030562808</v>
       </c>
       <c r="AX28">
-        <v>72312.27120345792</v>
+        <v>71359.24843104197</v>
       </c>
       <c r="AY28">
-        <v>88076.87160580668</v>
+        <v>88392.62040346842</v>
       </c>
       <c r="AZ28">
-        <v>161833.8781014038</v>
+        <v>161588.9529521993</v>
       </c>
     </row>
     <row r="29" spans="1:52">
@@ -4968,157 +4968,157 @@
         <v>47483</v>
       </c>
       <c r="B29">
-        <v>145678.0687447341</v>
+        <v>144421.2005789809</v>
       </c>
       <c r="C29">
-        <v>109684.6858930018</v>
+        <v>109456.0745785075</v>
       </c>
       <c r="D29">
-        <v>108242.7721588288</v>
+        <v>108303.7658182123</v>
       </c>
       <c r="E29">
-        <v>94986.91251835306</v>
+        <v>96841.11381900735</v>
       </c>
       <c r="F29">
-        <v>129951.6624324804</v>
+        <v>124002.6256636484</v>
       </c>
       <c r="G29">
-        <v>140219.1405425517</v>
+        <v>139058.4729987532</v>
       </c>
       <c r="H29">
-        <v>1092531.838725987</v>
+        <v>1096952.091217423</v>
       </c>
       <c r="I29">
-        <v>78385.35912413517</v>
+        <v>76667.02359688657</v>
       </c>
       <c r="J29">
-        <v>127540.4908761802</v>
+        <v>128710.8494208542</v>
       </c>
       <c r="K29">
-        <v>129864.7983766322</v>
+        <v>131599.867602881</v>
       </c>
       <c r="L29">
-        <v>144233.3825764327</v>
+        <v>159212.5529294729</v>
       </c>
       <c r="M29">
-        <v>109121.1673604115</v>
+        <v>107427.3958627148</v>
       </c>
       <c r="N29">
-        <v>29580.9938366009</v>
+        <v>30236.46475034342</v>
       </c>
       <c r="O29">
-        <v>43273.60979472745</v>
+        <v>45535.35762095381</v>
       </c>
       <c r="P29">
-        <v>128529.6216101836</v>
+        <v>124417.1958028607</v>
       </c>
       <c r="Q29">
-        <v>45244.13845616581</v>
+        <v>45617.82564858061</v>
       </c>
       <c r="R29">
-        <v>85994.33333386776</v>
+        <v>100959.9725448484</v>
       </c>
       <c r="S29">
-        <v>270881.1783643879</v>
+        <v>267816.2718107689</v>
       </c>
       <c r="T29">
-        <v>200436.9977106029</v>
+        <v>198118.154780393</v>
       </c>
       <c r="U29">
-        <v>117206.8293325346</v>
+        <v>121745.4041306617</v>
       </c>
       <c r="V29">
-        <v>75036.34368780117</v>
+        <v>49376.30850637058</v>
       </c>
       <c r="W29">
-        <v>44366.04349972574</v>
+        <v>44605.53968433928</v>
       </c>
       <c r="X29">
-        <v>167146.3344508994</v>
+        <v>166776.13180576</v>
       </c>
       <c r="Y29">
-        <v>57186.93443078611</v>
+        <v>57057.42960682517</v>
       </c>
       <c r="Z29">
-        <v>37494.8231784313</v>
+        <v>37526.32956836373</v>
       </c>
       <c r="AA29">
-        <v>97836.04973710988</v>
+        <v>99337.89541851261</v>
       </c>
       <c r="AB29">
-        <v>38041.70607369142</v>
+        <v>38215.96002066385</v>
       </c>
       <c r="AC29">
-        <v>23775.50512011233</v>
+        <v>23598.63134901106</v>
       </c>
       <c r="AD29">
-        <v>198638.567281028</v>
+        <v>196575.6782737925</v>
       </c>
       <c r="AE29">
-        <v>297080.5952292482</v>
+        <v>269134.1155844799</v>
       </c>
       <c r="AF29">
-        <v>150677.0544771935</v>
+        <v>152636.8555397143</v>
       </c>
       <c r="AG29">
-        <v>126040.7119857209</v>
+        <v>126984.923198215</v>
       </c>
       <c r="AH29">
-        <v>212185.8627643991</v>
+        <v>212296.5757139611</v>
       </c>
       <c r="AI29">
-        <v>14986.32569331588</v>
+        <v>16690.06185447242</v>
       </c>
       <c r="AJ29">
-        <v>151943.3206975953</v>
+        <v>153568.630977169</v>
       </c>
       <c r="AK29">
-        <v>37323.81719204747</v>
+        <v>42215.96264368475</v>
       </c>
       <c r="AL29">
-        <v>90266.08043545912</v>
+        <v>91764.66210681248</v>
       </c>
       <c r="AM29">
-        <v>71516.35135434296</v>
+        <v>70755.7231833433</v>
       </c>
       <c r="AN29">
-        <v>149937.6782240494</v>
+        <v>144981.7881277032</v>
       </c>
       <c r="AO29">
-        <v>95629.88923347872</v>
+        <v>86468.16787006511</v>
       </c>
       <c r="AP29">
-        <v>150472.680965142</v>
+        <v>150074.8270159985</v>
       </c>
       <c r="AQ29">
-        <v>3766648.986006969</v>
+        <v>3506776.281074221</v>
       </c>
       <c r="AR29">
-        <v>160896.059280113</v>
+        <v>110999.7589459981</v>
       </c>
       <c r="AS29">
-        <v>53851.79876699821</v>
+        <v>68163.98499394266</v>
       </c>
       <c r="AT29">
-        <v>72937.12795214268</v>
+        <v>57514.01235041665</v>
       </c>
       <c r="AU29">
-        <v>252619.6855570868</v>
+        <v>252672.0721594918</v>
       </c>
       <c r="AV29">
-        <v>125494.4441334515</v>
+        <v>125468.4425882547</v>
       </c>
       <c r="AW29">
-        <v>323524.4729445069</v>
+        <v>318318.2740626769</v>
       </c>
       <c r="AX29">
-        <v>72178.06604109098</v>
+        <v>71001.50659357634</v>
       </c>
       <c r="AY29">
-        <v>88164.71715130827</v>
+        <v>88438.85889889984</v>
       </c>
       <c r="AZ29">
-        <v>161981.2674093942</v>
+        <v>161738.3758548624</v>
       </c>
     </row>
     <row r="30" spans="1:52">
@@ -5126,157 +5126,157 @@
         <v>47848</v>
       </c>
       <c r="B30">
-        <v>146132.2800984989</v>
+        <v>144428.2268270753</v>
       </c>
       <c r="C30">
-        <v>109645.535434625</v>
+        <v>109430.3057258502</v>
       </c>
       <c r="D30">
-        <v>108488.3885644176</v>
+        <v>108571.382218804</v>
       </c>
       <c r="E30">
-        <v>94915.13351202132</v>
+        <v>96916.40088022313</v>
       </c>
       <c r="F30">
-        <v>129589.1811789791</v>
+        <v>122839.6006406866</v>
       </c>
       <c r="G30">
-        <v>140158.1547545114</v>
+        <v>138894.4586717928</v>
       </c>
       <c r="H30">
-        <v>1091616.427187529</v>
+        <v>1096704.388547592</v>
       </c>
       <c r="I30">
-        <v>78077.88949956592</v>
+        <v>77621.04692276381</v>
       </c>
       <c r="J30">
-        <v>126111.2228196286</v>
+        <v>127803.7877547257</v>
       </c>
       <c r="K30">
-        <v>129568.1795767604</v>
+        <v>131585.7900464652</v>
       </c>
       <c r="L30">
-        <v>141224.9095531833</v>
+        <v>158743.1030653292</v>
       </c>
       <c r="M30">
-        <v>108956.7411040455</v>
+        <v>106752.7502372246</v>
       </c>
       <c r="N30">
-        <v>29597.4610770851</v>
+        <v>30289.46109429961</v>
       </c>
       <c r="O30">
-        <v>43059.96701939718</v>
+        <v>45927.72561086859</v>
       </c>
       <c r="P30">
-        <v>126920.1499547501</v>
+        <v>121891.1274998065</v>
       </c>
       <c r="Q30">
-        <v>44694.34574954034</v>
+        <v>45148.65888166009</v>
       </c>
       <c r="R30">
-        <v>83431.0058595482</v>
+        <v>100836.1483963345</v>
       </c>
       <c r="S30">
-        <v>269884.9439338951</v>
+        <v>266168.514050492</v>
       </c>
       <c r="T30">
-        <v>200406.3834077864</v>
+        <v>197443.8397023341</v>
       </c>
       <c r="U30">
-        <v>115694.9027575732</v>
+        <v>120923.9006686566</v>
       </c>
       <c r="V30">
-        <v>81612.93052716998</v>
+        <v>47600.92454192093</v>
       </c>
       <c r="W30">
-        <v>44314.96761678121</v>
+        <v>44598.64746722344</v>
       </c>
       <c r="X30">
-        <v>167127.6744409963</v>
+        <v>166899.6031297788</v>
       </c>
       <c r="Y30">
-        <v>57095.96909218124</v>
+        <v>56946.70369570371</v>
       </c>
       <c r="Z30">
-        <v>37139.12919918545</v>
+        <v>37180.96100570413</v>
       </c>
       <c r="AA30">
-        <v>97530.81026257924</v>
+        <v>99260.1705680148</v>
       </c>
       <c r="AB30">
-        <v>38016.71661454115</v>
+        <v>38238.65478751079</v>
       </c>
       <c r="AC30">
-        <v>23836.95569054012</v>
+        <v>23603.78249806037</v>
       </c>
       <c r="AD30">
-        <v>199452.8372474228</v>
+        <v>196268.5356548788</v>
       </c>
       <c r="AE30">
-        <v>297430.1515263918</v>
+        <v>266227.7465460916</v>
       </c>
       <c r="AF30">
-        <v>150257.3655216927</v>
+        <v>152464.4129209262</v>
       </c>
       <c r="AG30">
-        <v>126528.0105960037</v>
+        <v>127599.6358250972</v>
       </c>
       <c r="AH30">
-        <v>212294.1215717504</v>
+        <v>212401.8186207368</v>
       </c>
       <c r="AI30">
-        <v>14467.33180159923</v>
+        <v>16487.98762852181</v>
       </c>
       <c r="AJ30">
-        <v>151070.0136791435</v>
+        <v>152910.7101146403</v>
       </c>
       <c r="AK30">
-        <v>36474.33332462011</v>
+        <v>42243.35586141917</v>
       </c>
       <c r="AL30">
-        <v>89433.60918559872</v>
+        <v>91180.01360323255</v>
       </c>
       <c r="AM30">
-        <v>70332.57919739668</v>
+        <v>69316.19986415334</v>
       </c>
       <c r="AN30">
-        <v>150741.4810138718</v>
+        <v>144750.3485576623</v>
       </c>
       <c r="AO30">
-        <v>95740.90356389954</v>
+        <v>85756.81714683965</v>
       </c>
       <c r="AP30">
-        <v>149478.9976224965</v>
+        <v>149027.6584475244</v>
       </c>
       <c r="AQ30">
-        <v>3772398.416608417</v>
+        <v>3472298.563412487</v>
       </c>
       <c r="AR30">
-        <v>171007.9713832785</v>
+        <v>110355.7234367324</v>
       </c>
       <c r="AS30">
-        <v>56398.96062316854</v>
+        <v>69778.94280534791</v>
       </c>
       <c r="AT30">
-        <v>73974.73500938625</v>
+        <v>58181.735022646</v>
       </c>
       <c r="AU30">
-        <v>257238.4517328681</v>
+        <v>257310.5504153332</v>
       </c>
       <c r="AV30">
-        <v>125260.8278915376</v>
+        <v>125214.3111870872</v>
       </c>
       <c r="AW30">
-        <v>324779.8816616744</v>
+        <v>318605.4379883989</v>
       </c>
       <c r="AX30">
-        <v>72011.13542985929</v>
+        <v>70610.04220045917</v>
       </c>
       <c r="AY30">
-        <v>88227.06546632417</v>
+        <v>88507.81673757661</v>
       </c>
       <c r="AZ30">
-        <v>162070.6444735675</v>
+        <v>161861.7941988518</v>
       </c>
     </row>
   </sheetData>

--- a/data/final_data/full_timeseries_2.xlsx
+++ b/data/final_data/full_timeseries_2.xlsx
@@ -3868,7 +3868,7 @@
         <v>110496.0191906108</v>
       </c>
       <c r="D22">
-        <v>109003.0908916607</v>
+        <v>108924.1938282106</v>
       </c>
       <c r="E22">
         <v>96414.30104251034</v>
@@ -3883,13 +3883,13 @@
         <v>1102465.831233057</v>
       </c>
       <c r="I22">
-        <v>81550.30094658192</v>
+        <v>79374.17407319127</v>
       </c>
       <c r="J22">
         <v>134738.5427302513</v>
       </c>
       <c r="K22">
-        <v>131450.5693963149</v>
+        <v>131207.4017240762</v>
       </c>
       <c r="L22">
         <v>164297.7652859123</v>
@@ -3901,7 +3901,7 @@
         <v>30220.15692119006</v>
       </c>
       <c r="O22">
-        <v>45205.39118186608</v>
+        <v>45008.06974993138</v>
       </c>
       <c r="P22">
         <v>135832.9919231695</v>
@@ -3922,7 +3922,7 @@
         <v>126915.6607846443</v>
       </c>
       <c r="V22">
-        <v>59955.81317779716</v>
+        <v>60419.3989479357</v>
       </c>
       <c r="W22">
         <v>44801.06217967506</v>
@@ -3940,13 +3940,13 @@
         <v>100491.8742892836</v>
       </c>
       <c r="AB22">
-        <v>38340.51936677804</v>
+        <v>38284.21509777889</v>
       </c>
       <c r="AC22">
-        <v>23689.0595019603</v>
+        <v>23657.56247745925</v>
       </c>
       <c r="AD22">
-        <v>198663.4410585809</v>
+        <v>195503.2608125608</v>
       </c>
       <c r="AE22">
         <v>293411.9722260925</v>
@@ -3955,7 +3955,7 @@
         <v>154099.3938271623</v>
       </c>
       <c r="AG22">
-        <v>123206.7365399476</v>
+        <v>123017.3483912814</v>
       </c>
       <c r="AH22">
         <v>212186.8729464927</v>
@@ -3979,7 +3979,7 @@
         <v>146675.5974730255</v>
       </c>
       <c r="AO22">
-        <v>89717.34981199417</v>
+        <v>89791.620374274</v>
       </c>
       <c r="AP22">
         <v>156196.3446783907</v>
@@ -3988,7 +3988,7 @@
         <v>3700814.020711027</v>
       </c>
       <c r="AR22">
-        <v>116295.7952309695</v>
+        <v>123460.4316765538</v>
       </c>
       <c r="AS22">
         <v>53007.46147143712</v>
@@ -4026,7 +4026,7 @@
         <v>110251.0764561266</v>
       </c>
       <c r="D23">
-        <v>108612.6923283402</v>
+        <v>108455.1032841268</v>
       </c>
       <c r="E23">
         <v>96528.06992280338</v>
@@ -4041,13 +4041,13 @@
         <v>1101835.276762906</v>
       </c>
       <c r="I23">
-        <v>80215.56159400771</v>
+        <v>79372.42122698102</v>
       </c>
       <c r="J23">
         <v>134080.1260095854</v>
       </c>
       <c r="K23">
-        <v>131420.8337958496</v>
+        <v>130873.9709449478</v>
       </c>
       <c r="L23">
         <v>163299.7063883533</v>
@@ -4059,7 +4059,7 @@
         <v>30255.51083137891</v>
       </c>
       <c r="O23">
-        <v>44960.68298239422</v>
+        <v>44550.41070360797</v>
       </c>
       <c r="P23">
         <v>134691.4892405201</v>
@@ -4080,7 +4080,7 @@
         <v>126031.1419859775</v>
       </c>
       <c r="V23">
-        <v>58629.48053141354</v>
+        <v>59611.4183036191</v>
       </c>
       <c r="W23">
         <v>44755.65878639327</v>
@@ -4098,13 +4098,13 @@
         <v>100154.6267784939</v>
       </c>
       <c r="AB23">
-        <v>38269.3077326411</v>
+        <v>38075.66248458168</v>
       </c>
       <c r="AC23">
-        <v>23618.31535883241</v>
+        <v>23578.39881963798</v>
       </c>
       <c r="AD23">
-        <v>197469.2728807715</v>
+        <v>193934.4131826481</v>
       </c>
       <c r="AE23">
         <v>289400.6638552273</v>
@@ -4113,7 +4113,7 @@
         <v>153837.8680390113</v>
       </c>
       <c r="AG23">
-        <v>123507.7268857811</v>
+        <v>123353.5134989002</v>
       </c>
       <c r="AH23">
         <v>212110.1881581935</v>
@@ -4137,7 +4137,7 @@
         <v>146418.0094342305</v>
       </c>
       <c r="AO23">
-        <v>89440.6070586885</v>
+        <v>89585.50699576914</v>
       </c>
       <c r="AP23">
         <v>155447.1678813544</v>
@@ -4146,7 +4146,7 @@
         <v>3678933.68173477</v>
       </c>
       <c r="AR23">
-        <v>114646.7156125444</v>
+        <v>125660.1876875581</v>
       </c>
       <c r="AS23">
         <v>56263.71099608948</v>
@@ -4184,7 +4184,7 @@
         <v>110015.3795281315</v>
       </c>
       <c r="D24">
-        <v>108307.9655982245</v>
+        <v>108057.8628420032</v>
       </c>
       <c r="E24">
         <v>96506.15870654555</v>
@@ -4199,13 +4199,13 @@
         <v>1100814.342612826</v>
       </c>
       <c r="I24">
-        <v>76485.45122102035</v>
+        <v>79370.66857962029</v>
       </c>
       <c r="J24">
         <v>133260.3212680083</v>
       </c>
       <c r="K24">
-        <v>131561.5588421191</v>
+        <v>130592.9743116166</v>
       </c>
       <c r="L24">
         <v>162446.7962351214</v>
@@ -4217,7 +4217,7 @@
         <v>30107.98233485493</v>
       </c>
       <c r="O24">
-        <v>44816.37082302039</v>
+        <v>44150.04648009359</v>
       </c>
       <c r="P24">
         <v>133151.63528699</v>
@@ -4238,7 +4238,7 @@
         <v>125485.9085594836</v>
       </c>
       <c r="V24">
-        <v>57240.50475958557</v>
+        <v>58818.65799690287</v>
       </c>
       <c r="W24">
         <v>44712.24058154128</v>
@@ -4256,13 +4256,13 @@
         <v>100019.2638024387</v>
       </c>
       <c r="AB24">
-        <v>38219.28946104164</v>
+        <v>37935.51167734501</v>
       </c>
       <c r="AC24">
-        <v>23603.88727601308</v>
+        <v>23495.76544896547</v>
       </c>
       <c r="AD24">
-        <v>197250.5413350906</v>
+        <v>192371.4077978113</v>
       </c>
       <c r="AE24">
         <v>286753.5397525379</v>
@@ -4271,7 +4271,7 @@
         <v>153621.3149279052</v>
       </c>
       <c r="AG24">
-        <v>124074.9669819062</v>
+        <v>123685.3896502425</v>
       </c>
       <c r="AH24">
         <v>212063.7187839574</v>
@@ -4295,7 +4295,7 @@
         <v>146330.7379177865</v>
       </c>
       <c r="AO24">
-        <v>89078.3467131747</v>
+        <v>89383.33292973839</v>
       </c>
       <c r="AP24">
         <v>154596.1282525189</v>
@@ -4304,7 +4304,7 @@
         <v>3656463.697273292</v>
       </c>
       <c r="AR24">
-        <v>114628.3300115675</v>
+        <v>130379.1407294193</v>
       </c>
       <c r="AS24">
         <v>56556.79167695954</v>
@@ -4342,7 +4342,7 @@
         <v>109834.5837282071</v>
       </c>
       <c r="D25">
-        <v>108104.6573048416</v>
+        <v>107746.1368322747</v>
       </c>
       <c r="E25">
         <v>96809.86008102108</v>
@@ -4357,13 +4357,13 @@
         <v>1099924.35132174</v>
       </c>
       <c r="I25">
-        <v>78908.26831669953</v>
+        <v>79368.91613109913</v>
       </c>
       <c r="J25">
         <v>132396.3667924317</v>
       </c>
       <c r="K25">
-        <v>131560.468553865</v>
+        <v>130226.6846836311</v>
       </c>
       <c r="L25">
         <v>161756.0250154966</v>
@@ -4375,7 +4375,7 @@
         <v>30188.25278014685</v>
       </c>
       <c r="O25">
-        <v>44791.5345510799</v>
+        <v>43812.90583372093</v>
       </c>
       <c r="P25">
         <v>131385.2234701817</v>
@@ -4396,7 +4396,7 @@
         <v>124732.4526026178</v>
       </c>
       <c r="V25">
-        <v>55796.28199435444</v>
+        <v>58039.04487558364</v>
       </c>
       <c r="W25">
         <v>44674.71070744767</v>
@@ -4414,13 +4414,13 @@
         <v>99899.14100646896</v>
       </c>
       <c r="AB25">
-        <v>38193.47372724056</v>
+        <v>37867.89116196953</v>
       </c>
       <c r="AC25">
-        <v>23575.58801014354</v>
+        <v>23410.58477345392</v>
       </c>
       <c r="AD25">
-        <v>197435.8693930559</v>
+        <v>190973.7157078372</v>
       </c>
       <c r="AE25">
         <v>283038.6543178804</v>
@@ -4429,7 +4429,7 @@
         <v>153397.83881708</v>
       </c>
       <c r="AG25">
-        <v>124625.850233835</v>
+        <v>124014.7049746976</v>
       </c>
       <c r="AH25">
         <v>212048.4514936065</v>
@@ -4453,7 +4453,7 @@
         <v>146034.7594624717</v>
       </c>
       <c r="AO25">
-        <v>88682.04856770672</v>
+        <v>89184.79634571308</v>
       </c>
       <c r="AP25">
         <v>153786.1740594385</v>
@@ -4462,7 +4462,7 @@
         <v>3629841.281502183</v>
       </c>
       <c r="AR25">
-        <v>113332.5880196437</v>
+        <v>137759.7616985144</v>
       </c>
       <c r="AS25">
         <v>59764.45022069674</v>
@@ -4500,7 +4500,7 @@
         <v>109659.2937237537</v>
       </c>
       <c r="D26">
-        <v>108004.4079960344</v>
+        <v>107528.7777311399</v>
       </c>
       <c r="E26">
         <v>96782.9131127991</v>
@@ -4515,13 +4515,13 @@
         <v>1099041.088966304</v>
       </c>
       <c r="I26">
-        <v>79719.67589197838</v>
+        <v>79367.16388140758</v>
       </c>
       <c r="J26">
         <v>131535.1943251549</v>
       </c>
       <c r="K26">
-        <v>131564.4991441671</v>
+        <v>129939.1287813312</v>
       </c>
       <c r="L26">
         <v>161573.1038528892</v>
@@ -4533,7 +4533,7 @@
         <v>30150.38440185048</v>
       </c>
       <c r="O26">
-        <v>44824.36693847394</v>
+        <v>43544.81179538936</v>
       </c>
       <c r="P26">
         <v>129992.6047136722</v>
@@ -4554,7 +4554,7 @@
         <v>123955.8633470663</v>
       </c>
       <c r="V26">
-        <v>54285.57147743073</v>
+        <v>57270.78817531067</v>
       </c>
       <c r="W26">
         <v>44649.27194373948</v>
@@ -4572,13 +4572,13 @@
         <v>99665.16843753395</v>
       </c>
       <c r="AB26">
-        <v>38182.09298657353</v>
+        <v>37876.77297216733</v>
       </c>
       <c r="AC26">
-        <v>23575.83445253672</v>
+        <v>23323.53398297284</v>
       </c>
       <c r="AD26">
-        <v>196905.5909090064</v>
+        <v>189607.1747063532</v>
       </c>
       <c r="AE26">
         <v>280481.4290102629</v>
@@ -4587,7 +4587,7 @@
         <v>153194.9647403178</v>
       </c>
       <c r="AG26">
-        <v>125172.9044906711</v>
+        <v>124342.4912944432</v>
       </c>
       <c r="AH26">
         <v>212066.4690833357</v>
@@ -4611,7 +4611,7 @@
         <v>145907.4432174838</v>
       </c>
       <c r="AO26">
-        <v>88216.42735915726</v>
+        <v>88989.61858980996</v>
       </c>
       <c r="AP26">
         <v>152875.0971264267</v>
@@ -4620,7 +4620,7 @@
         <v>3602301.890492512</v>
       </c>
       <c r="AR26">
-        <v>115554.0732806246</v>
+        <v>145138.5559809285</v>
       </c>
       <c r="AS26">
         <v>60810.13353286917</v>
@@ -4658,7 +4658,7 @@
         <v>109588.842926043</v>
       </c>
       <c r="D27">
-        <v>108008.7689504131</v>
+        <v>107409.7277851471</v>
       </c>
       <c r="E27">
         <v>96892.99718360974</v>
@@ -4673,13 +4673,13 @@
         <v>1097970.624097888</v>
       </c>
       <c r="I27">
-        <v>76452.48593692452</v>
+        <v>79365.4118305357</v>
       </c>
       <c r="J27">
         <v>130737.0182566709</v>
       </c>
       <c r="K27">
-        <v>131587.8720395806</v>
+        <v>129589.4635560908</v>
       </c>
       <c r="L27">
         <v>160917.8928166148</v>
@@ -4691,7 +4691,7 @@
         <v>30191.55965090578</v>
       </c>
       <c r="O27">
-        <v>44990.33063762775</v>
+        <v>43351.47300018818</v>
       </c>
       <c r="P27">
         <v>128173.4160424656</v>
@@ -4712,7 +4712,7 @@
         <v>123331.61826058</v>
       </c>
       <c r="V27">
-        <v>52716.29077708302</v>
+        <v>56512.34105501973</v>
       </c>
       <c r="W27">
         <v>44630.40828830888</v>
@@ -4730,13 +4730,13 @@
         <v>99649.4785797299</v>
       </c>
       <c r="AB27">
-        <v>38185.44583541712</v>
+        <v>37965.96780510528</v>
       </c>
       <c r="AC27">
-        <v>23579.28865461303</v>
+        <v>23235.11023942169</v>
       </c>
       <c r="AD27">
-        <v>196940.6875430735</v>
+        <v>188421.1355502845</v>
       </c>
       <c r="AE27">
         <v>276054.6656989278</v>
@@ -4745,7 +4745,7 @@
         <v>152998.9848489827</v>
       </c>
       <c r="AG27">
-        <v>125828.8081944779</v>
+        <v>124669.3646843012</v>
       </c>
       <c r="AH27">
         <v>212118.6601327344</v>
@@ -4769,7 +4769,7 @@
         <v>145556.6843639696</v>
       </c>
       <c r="AO27">
-        <v>87697.94190946558</v>
+        <v>88797.54240506064</v>
       </c>
       <c r="AP27">
         <v>151998.6747308086</v>
@@ -4778,7 +4778,7 @@
         <v>3571428.253900385</v>
       </c>
       <c r="AR27">
-        <v>113251.4668359117</v>
+        <v>152515.5370311718</v>
       </c>
       <c r="AS27">
         <v>63763.94177081722</v>
@@ -4816,7 +4816,7 @@
         <v>109506.3054810429</v>
       </c>
       <c r="D28">
-        <v>108111.6868101614</v>
+        <v>107388.1528744078</v>
       </c>
       <c r="E28">
         <v>96818.67661821235</v>
@@ -4831,13 +4831,13 @@
         <v>1097724.644502158</v>
       </c>
       <c r="I28">
-        <v>76910.73581803049</v>
+        <v>79363.65997847352</v>
       </c>
       <c r="J28">
         <v>129796.3100734881</v>
       </c>
       <c r="K28">
-        <v>131579.2598312407</v>
+        <v>129337.6762649084</v>
       </c>
       <c r="L28">
         <v>159930.2665712346</v>
@@ -4849,7 +4849,7 @@
         <v>30210.5271491251</v>
       </c>
       <c r="O28">
-        <v>45219.91300810655</v>
+        <v>43238.47516005545</v>
       </c>
       <c r="P28">
         <v>125983.3065477612</v>
@@ -4870,7 +4870,7 @@
         <v>122439.5946597949</v>
       </c>
       <c r="V28">
-        <v>51074.46292113258</v>
+        <v>55762.36737169597</v>
       </c>
       <c r="W28">
         <v>44615.94429192556</v>
@@ -4888,13 +4888,13 @@
         <v>99431.13024717776</v>
       </c>
       <c r="AB28">
-        <v>38198.23845300252</v>
+        <v>38139.12044366467</v>
       </c>
       <c r="AC28">
-        <v>23587.37678057376</v>
+        <v>23145.6785363796</v>
       </c>
       <c r="AD28">
-        <v>196270.2128084915</v>
+        <v>187286.0872167513</v>
       </c>
       <c r="AE28">
         <v>273284.704027469</v>
@@ -4903,7 +4903,7 @@
         <v>152811.5380812743</v>
       </c>
       <c r="AG28">
-        <v>126358.2008014569</v>
+        <v>124995.6929869045</v>
       </c>
       <c r="AH28">
         <v>212198.6642266905</v>
@@ -4927,7 +4927,7 @@
         <v>145386.1600987322</v>
       </c>
       <c r="AO28">
-        <v>87113.37954491792</v>
+        <v>88608.33028839745</v>
       </c>
       <c r="AP28">
         <v>151018.3202689216</v>
@@ -4936,7 +4936,7 @@
         <v>3540638.778272233</v>
       </c>
       <c r="AR28">
-        <v>112637.7099375466</v>
+        <v>159890.7182046552</v>
       </c>
       <c r="AS28">
         <v>65250.36191206292</v>
@@ -4974,7 +4974,7 @@
         <v>109456.0745785075</v>
       </c>
       <c r="D29">
-        <v>108303.7658182123</v>
+        <v>107458.7875450395</v>
       </c>
       <c r="E29">
         <v>96841.11381900735</v>
@@ -4989,13 +4989,13 @@
         <v>1096952.091217423</v>
       </c>
       <c r="I29">
-        <v>76667.02359688657</v>
+        <v>79361.90832521109</v>
       </c>
       <c r="J29">
         <v>128710.8494208542</v>
       </c>
       <c r="K29">
-        <v>131599.867602881</v>
+        <v>129039.3596481078</v>
       </c>
       <c r="L29">
         <v>159212.5529294729</v>
@@ -5007,7 +5007,7 @@
         <v>30236.46475034342</v>
       </c>
       <c r="O29">
-        <v>45535.35762095381</v>
+        <v>43211.27273813983</v>
       </c>
       <c r="P29">
         <v>124417.1958028607</v>
@@ -5028,7 +5028,7 @@
         <v>121745.4041306617</v>
       </c>
       <c r="V29">
-        <v>49376.30850637058</v>
+        <v>55019.71298080705</v>
       </c>
       <c r="W29">
         <v>44605.53968433928</v>
@@ -5046,13 +5046,13 @@
         <v>99337.89541851261</v>
       </c>
       <c r="AB29">
-        <v>38215.96002066385</v>
+        <v>38399.70548973038</v>
       </c>
       <c r="AC29">
-        <v>23598.63134901106</v>
+        <v>23055.50683547633</v>
       </c>
       <c r="AD29">
-        <v>196575.6782737925</v>
+        <v>186348.959522178</v>
       </c>
       <c r="AE29">
         <v>269134.1155844799</v>
@@ -5061,7 +5061,7 @@
         <v>152636.8555397143</v>
       </c>
       <c r="AG29">
-        <v>126984.923198215</v>
+        <v>125321.695831749</v>
       </c>
       <c r="AH29">
         <v>212296.5757139611</v>
@@ -5085,7 +5085,7 @@
         <v>144981.7881277032</v>
       </c>
       <c r="AO29">
-        <v>86468.16787006511</v>
+        <v>88421.76297380222</v>
       </c>
       <c r="AP29">
         <v>150074.8270159985</v>
@@ -5094,7 +5094,7 @@
         <v>3506776.281074221</v>
       </c>
       <c r="AR29">
-        <v>110999.7589459981</v>
+        <v>167264.1127584199</v>
       </c>
       <c r="AS29">
         <v>68163.98499394266</v>
@@ -5132,7 +5132,7 @@
         <v>109430.3057258502</v>
       </c>
       <c r="D30">
-        <v>108571.382218804</v>
+        <v>107612.4617781148</v>
       </c>
       <c r="E30">
         <v>96916.40088022313</v>
@@ -5147,13 +5147,13 @@
         <v>1096704.388547592</v>
       </c>
       <c r="I30">
-        <v>77621.04692276381</v>
+        <v>79360.15687073844</v>
       </c>
       <c r="J30">
         <v>127803.7877547257</v>
       </c>
       <c r="K30">
-        <v>131585.7900464652</v>
+        <v>128850.3335394837</v>
       </c>
       <c r="L30">
         <v>158743.1030653292</v>
@@ -5165,7 +5165,7 @@
         <v>30289.46109429961</v>
       </c>
       <c r="O30">
-        <v>45927.72561086859</v>
+        <v>43275.18083630699</v>
       </c>
       <c r="P30">
         <v>121891.1274998065</v>
@@ -5186,7 +5186,7 @@
         <v>120923.9006686566</v>
       </c>
       <c r="V30">
-        <v>47600.92454192093</v>
+        <v>54283.38094595685</v>
       </c>
       <c r="W30">
         <v>44598.64746722344</v>
@@ -5204,13 +5204,13 @@
         <v>99260.1705680148</v>
       </c>
       <c r="AB30">
-        <v>38238.65478751079</v>
+        <v>38751.02341237965</v>
       </c>
       <c r="AC30">
-        <v>23603.78249806037</v>
+        <v>22964.79186191233</v>
       </c>
       <c r="AD30">
-        <v>196268.5356548788</v>
+        <v>185481.1970915023</v>
       </c>
       <c r="AE30">
         <v>266227.7465460916</v>
@@ -5219,7 +5219,7 @@
         <v>152464.4129209262</v>
       </c>
       <c r="AG30">
-        <v>127599.6358250972</v>
+        <v>125647.5043540298</v>
       </c>
       <c r="AH30">
         <v>212401.8186207368</v>
@@ -5243,7 +5243,7 @@
         <v>144750.3485576623</v>
       </c>
       <c r="AO30">
-        <v>85756.81714683965</v>
+        <v>88237.63803193001</v>
       </c>
       <c r="AP30">
         <v>149027.6584475244</v>
@@ -5252,7 +5252,7 @@
         <v>3472298.563412487</v>
       </c>
       <c r="AR30">
-        <v>110355.7234367324</v>
+        <v>174635.7338518619</v>
       </c>
       <c r="AS30">
         <v>69778.94280534791</v>
